--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -133,10 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ds_r_pred</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -194,6 +189,10 @@
   </si>
   <si>
     <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI4" activeCellId="1" sqref="AP4:AP18 AI4:AI18"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -641,34 +640,34 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>41</v>
       </c>
       <c r="AE1" t="s">
         <v>28</v>
       </c>
       <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>47</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>48</v>
       </c>
       <c r="AM1" t="s">
         <v>29</v>
@@ -677,10 +676,10 @@
         <v>30</v>
       </c>
       <c r="AO1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" t="s">
         <v>49</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
       </c>
       <c r="AQ1" t="s">
         <v>31</v>
@@ -695,19 +694,19 @@
         <v>34</v>
       </c>
       <c r="AU1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>38</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -828,8 +827,9 @@
         <f t="shared" ref="AO2:AO3" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
         <v>17887.997608479312</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AS2" s="1">
+        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
+        <v>3.4700305231157957E-4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -945,9 +945,9 @@
         <f t="shared" si="8"/>
         <v>0.78844564865835054</v>
       </c>
-      <c r="AI3">
-        <f>-AG3/AH3</f>
-        <v>8.1153654642688901E-3</v>
+      <c r="AI3" s="1">
+        <f>-AD3/AE3</f>
+        <v>1.8729926309713228E-2</v>
       </c>
       <c r="AJ3">
         <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
@@ -966,51 +966,51 @@
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.21063210004711513</v>
+        <v>-0.20252330466415455</v>
       </c>
       <c r="AO3">
         <f t="shared" si="4"/>
         <v>148933.32688217773</v>
       </c>
-      <c r="AP3">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.80535157822694</v>
+      <c r="AP3" s="1">
+        <f>AJ3^0.25</f>
+        <v>1.8307901782315903</v>
       </c>
       <c r="AQ3">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.5335971956021002</v>
+        <v>5.6975063264416095</v>
       </c>
       <c r="AR3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.2150364136063501E-4</v>
-      </c>
-      <c r="AS3">
-        <f>(AS2+AR3)</f>
-        <v>3.2150364136063501E-4</v>
+        <v>3.27256129620665E-4</v>
+      </c>
+      <c r="AS3" s="1">
+        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>3.4846971352937947E-2</v>
       </c>
       <c r="AT3">
         <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.57667000534880608</v>
-      </c>
-      <c r="AU3">
-        <f>AU2+AT3</f>
-        <v>0.57667000534880608</v>
+        <v>0.58698804536117211</v>
+      </c>
+      <c r="AU3" s="1">
+        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>0.6224074202883092</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-125.40968590494133</v>
+        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-120.58173479104627</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-693.96668622492359</v>
+        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-687.01519682529045</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>557.46280316443256</v>
+        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>562.29075427832754</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6160.7535421063294</v>
+        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>6167.7050315059623</v>
       </c>
     </row>
     <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1124,11 +1124,11 @@
         <v>0.83217089851482995</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>-0.10823439834700059</v>
+        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <v>-4.6465024530442579E-2</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
         <v>8.2505576928794238</v>
       </c>
       <c r="AK4" s="1">
@@ -1140,55 +1140,55 @@
         <v>170253.74244015</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.44776726053645066</v>
+        <f t="shared" ref="AM4:AM18" si="17">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.47712183260452617</v>
       </c>
       <c r="AN4" s="1">
         <f t="shared" si="9"/>
-        <v>-0.29480364340897869</v>
+        <v>-0.25562833789886336</v>
       </c>
       <c r="AO4" s="1">
         <v>327923.30704855063</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="17">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6235399819788612</v>
+        <f t="shared" ref="AP4:AP18" si="18">AJ4^0.25</f>
+        <v>1.6948092528357286</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
-        <v>4.5385117491017333</v>
+        <f t="shared" ref="AQ4:AQ18" si="19">(2*AP4+3)/(3-AP4)</f>
+        <v>4.8955438272558176</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>5.0864217668996861E-2</v>
+        <f t="shared" ref="AR4:AR18" si="20">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>2.2863782507772538E-2</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="20">AS3+AR4</f>
-        <v>5.1185721310357493E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.0862876522664107E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.46994503083876943</v>
+        <v>0.49206435891996303</v>
       </c>
       <c r="AU4" s="1">
-        <f>AU3+AT4</f>
-        <v>1.0466150361875755</v>
+        <f t="shared" ref="AU4:AU18" si="22">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>0.74996132478327326</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="10"/>
-        <v>-373.2179298275318</v>
+        <f t="shared" si="11"/>
+        <v>-302.40652619847759</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" si="11"/>
-        <v>-1693.8539594976796</v>
+        <f t="shared" si="12"/>
+        <v>-1480.4444026528315</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="12"/>
-        <v>18393.149276859527</v>
+        <f t="shared" si="13"/>
+        <v>18463.960680488584</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="13"/>
-        <v>105227.64192492822</v>
+        <f t="shared" si="14"/>
+        <v>105441.05148177306</v>
       </c>
     </row>
     <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1301,12 +1301,12 @@
         <f t="shared" si="8"/>
         <v>0.926506926133708</v>
       </c>
-      <c r="AI5" s="2">
-        <f t="shared" si="14"/>
-        <v>0.10323204689932999</v>
+      <c r="AI5" s="1">
+        <f t="shared" si="15"/>
+        <v>7.9867423158663468E-3</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.805175075321956</v>
       </c>
       <c r="AK5" s="2">
@@ -1318,55 +1318,55 @@
         <v>340575.82544400002</v>
       </c>
       <c r="AM5" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.55345546238291099</v>
+        <f t="shared" si="17"/>
+        <v>-0.50400403087888468</v>
       </c>
       <c r="AN5" s="2">
         <f t="shared" si="9"/>
-        <v>-0.30285145408290759</v>
+        <v>-0.28058109489575328</v>
       </c>
       <c r="AO5" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP5" s="2">
-        <f t="shared" si="17"/>
-        <v>1.530953324207476</v>
+      <c r="AP5" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6151387088293911</v>
       </c>
       <c r="AQ5" s="2">
-        <f t="shared" si="18"/>
-        <v>4.1264220860407068</v>
+        <f t="shared" si="19"/>
+        <v>4.4988458103211144</v>
       </c>
       <c r="AR5" s="2">
-        <f t="shared" si="19"/>
-        <v>-6.310801658739261E-2</v>
-      </c>
-      <c r="AS5" s="2">
         <f t="shared" si="20"/>
-        <v>-1.1922295277035116E-2</v>
+        <v>-5.281781924399028E-3</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="10"/>
+        <v>5.0608412398516558E-2</v>
       </c>
       <c r="AT5" s="2">
         <f t="shared" si="21"/>
-        <v>0.61132195362680763</v>
-      </c>
-      <c r="AU5" s="2">
-        <f>AU4+AT5</f>
-        <v>1.6579369898143832</v>
+        <v>0.66131868482926703</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="22"/>
+        <v>1.3601135598282654</v>
       </c>
       <c r="AV5" s="2">
-        <f t="shared" si="10"/>
-        <v>-491.72891777093196</v>
+        <f t="shared" si="11"/>
+        <v>-496.27461748753024</v>
       </c>
       <c r="AW5" s="2">
-        <f t="shared" si="11"/>
-        <v>-2029.0810666348682</v>
+        <f t="shared" si="12"/>
+        <v>-2232.6629836524889</v>
       </c>
       <c r="AX5" s="2">
-        <f t="shared" si="12"/>
-        <v>60427.496999885727</v>
+        <f t="shared" si="13"/>
+        <v>60422.95130016913</v>
       </c>
       <c r="AY5" s="2">
-        <f t="shared" si="13"/>
-        <v>296203.65933575178</v>
+        <f t="shared" si="14"/>
+        <v>296000.07741873414</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1479,12 +1479,12 @@
         <f t="shared" si="8"/>
         <v>0.87679173906165575</v>
       </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="14"/>
-        <v>-0.11708881272683309</v>
+      <c r="AI6" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.4042442583712215E-2</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.9258721918420578</v>
       </c>
       <c r="AK6" s="2">
@@ -1496,55 +1496,55 @@
         <v>564985.352006</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.44365472732982364</v>
+        <f t="shared" si="17"/>
+        <v>-0.4880743526057274</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" si="9"/>
-        <v>-0.37664208407813765</v>
+        <v>-0.31072080612139902</v>
       </c>
       <c r="AO6" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP6" s="2">
-        <f t="shared" si="17"/>
-        <v>1.4707244592370008</v>
+      <c r="AP6" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5602280093024956</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="18"/>
-        <v>3.8851395710609768</v>
+        <f t="shared" si="19"/>
+        <v>4.2509897804303769</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="19"/>
-        <v>8.7643466903609954E-2</v>
-      </c>
-      <c r="AS6" s="2">
         <f t="shared" si="20"/>
-        <v>7.5721171626574837E-2</v>
+        <v>1.9242860968302817E-2</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.0689184303055562E-2</v>
       </c>
       <c r="AT6" s="2">
         <f t="shared" si="21"/>
-        <v>0.74852127084148656</v>
-      </c>
-      <c r="AU6" s="2">
-        <f t="shared" ref="AU6:AU18" si="22">AU5+AT6</f>
-        <v>2.40645826065587</v>
+        <v>0.80037046574207682</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="22"/>
+        <v>2.1049613500086681</v>
       </c>
       <c r="AV6" s="2">
-        <f t="shared" si="10"/>
-        <v>-499.1954450253026</v>
+        <f t="shared" si="11"/>
+        <v>-370.59171847408328</v>
       </c>
       <c r="AW6" s="2">
-        <f t="shared" si="11"/>
-        <v>-1939.4439771611978</v>
+        <f t="shared" si="12"/>
+        <v>-1575.3816079454591</v>
       </c>
       <c r="AX6" s="2">
-        <f t="shared" si="12"/>
-        <v>125309.92480314396</v>
+        <f t="shared" si="13"/>
+        <v>125438.52852969518</v>
       </c>
       <c r="AY6" s="2">
-        <f t="shared" si="13"/>
-        <v>564056.38955150021</v>
+        <f t="shared" si="14"/>
+        <v>564420.45192071598</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1657,12 +1657,12 @@
         <f t="shared" si="8"/>
         <v>0.95422331175951802</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.10308103601261505</v>
+      <c r="AI7" s="1">
+        <f t="shared" si="15"/>
+        <v>3.6643524566578422E-3</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.3326451134334727</v>
       </c>
       <c r="AK7">
@@ -1674,55 +1674,55 @@
         <v>826862.72724200005</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="16"/>
-        <v>-0.55337448369839726</v>
+        <f t="shared" si="17"/>
+        <v>-0.50183441687832708</v>
       </c>
       <c r="AN7">
         <f t="shared" si="9"/>
-        <v>-0.35561711855301054</v>
+        <v>-0.32588922482014254</v>
       </c>
       <c r="AO7" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="17"/>
-        <v>1.4273635832401048</v>
+      <c r="AP7" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5196223438644587</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="18"/>
-        <v>3.7228739612571808</v>
+        <f t="shared" si="19"/>
+        <v>4.0795297488440161</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="19"/>
-        <v>-8.3915578540128322E-2</v>
-      </c>
-      <c r="AS7">
         <f t="shared" si="20"/>
-        <v>-8.1944069135534842E-3</v>
+        <v>-3.2667995074285154E-3</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8733192295169024E-2</v>
       </c>
       <c r="AT7">
         <f t="shared" si="21"/>
-        <v>0.81407387610907156</v>
-      </c>
-      <c r="AU7">
+        <v>0.89150799385934687</v>
+      </c>
+      <c r="AU7" s="1">
         <f t="shared" si="22"/>
-        <v>3.2205321367649415</v>
+        <v>2.9170731880975134</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-594.61955540822396</v>
+        <f t="shared" si="11"/>
+        <v>-595.6641071713575</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-2213.693659683599</v>
+        <f t="shared" si="12"/>
+        <v>-2430.0294455241647</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>210447.60503485054</v>
+        <f t="shared" si="13"/>
+        <v>210446.56048308741</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>894924.64631279884</v>
+        <f t="shared" si="14"/>
+        <v>894708.3105269582</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1835,12 +1835,12 @@
         <f t="shared" si="8"/>
         <v>0.92087330324934502</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>-4.5807528370224913E-2</v>
+      <c r="AI8" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.932973950305476E-3</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.9020523295982743</v>
       </c>
       <c r="AK8">
@@ -1852,55 +1852,55 @@
         <v>1116233.2128185001</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="16"/>
-        <v>-0.4774406977738006</v>
+        <f t="shared" si="17"/>
+        <v>-0.49753756207223127</v>
       </c>
       <c r="AN8">
         <f t="shared" si="9"/>
-        <v>-0.40892490760261707</v>
+        <v>-0.34405373057071786</v>
       </c>
       <c r="AO8" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="17"/>
-        <v>1.3943094247322672</v>
+      <c r="AP8" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4879710640969215</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="18"/>
-        <v>3.6050649724336457</v>
+        <f t="shared" si="19"/>
+        <v>3.9522670408583389</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="19"/>
-        <v>4.0360681446043024E-2</v>
-      </c>
-      <c r="AS8">
         <f t="shared" si="20"/>
-        <v>3.216627453248954E-2</v>
+        <v>4.7315912387930663E-3</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.4579650135115863E-2</v>
       </c>
       <c r="AT8">
         <f t="shared" si="21"/>
-        <v>0.88109275662813724</v>
-      </c>
-      <c r="AU8">
+        <v>0.95917620617074451</v>
+      </c>
+      <c r="AU8" s="1">
         <f t="shared" si="22"/>
-        <v>4.1016248933930788</v>
+        <v>3.797545351726249</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-598.57196097663336</v>
+        <f t="shared" si="11"/>
+        <v>-482.41684917296828</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-2157.8908099977793</v>
+        <f t="shared" si="12"/>
+        <v>-1906.6402129410512</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>311900.8776448493</v>
+        <f t="shared" si="13"/>
+        <v>312017.03275665297</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>1272692.9103543505</v>
+        <f t="shared" si="14"/>
+        <v>1272944.1609514072</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2013,12 +2013,12 @@
         <f t="shared" si="8"/>
         <v>0.97864184849367142</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.10093867398941214</v>
+      <c r="AI9" s="1">
+        <f t="shared" si="15"/>
+        <v>1.157166784599452E-2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5707346325188603</v>
       </c>
       <c r="AK9">
@@ -2030,55 +2030,55 @@
         <v>1430639.381851</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="16"/>
-        <v>-0.55222656369000356</v>
+        <f t="shared" si="17"/>
+        <v>-0.50580823758837834</v>
       </c>
       <c r="AN9">
         <f t="shared" si="9"/>
-        <v>-0.39127370659841565</v>
+        <v>-0.35494869006608359</v>
       </c>
       <c r="AO9" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="17"/>
-        <v>1.367903658004811</v>
+      <c r="AP9" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4621653972917923</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="18"/>
-        <v>3.5143803514673455</v>
+        <f t="shared" si="19"/>
+        <v>3.8523848950664301</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="19"/>
-        <v>-9.3015958072695262E-2</v>
-      </c>
-      <c r="AS9">
         <f t="shared" si="20"/>
-        <v>-6.0849683540205722E-2</v>
+        <v>-1.1730612924600158E-2</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="10"/>
+        <v>-7.3853759859940485E-2</v>
       </c>
       <c r="AT9">
         <f t="shared" si="21"/>
-        <v>0.92150960971066564</v>
-      </c>
-      <c r="AU9">
+        <v>1.0137357104197147</v>
+      </c>
+      <c r="AU9" s="1">
         <f t="shared" si="22"/>
-        <v>5.0231345031037442</v>
+        <v>4.7166623568450126</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-670.08542847017156</v>
+        <f t="shared" si="11"/>
+        <v>-658.97216926727413</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-2354.9350636201493</v>
+        <f t="shared" si="12"/>
+        <v>-2538.6144311544062</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>426372.24804124137</v>
+        <f t="shared" si="13"/>
+        <v>426383.36130044429</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>1685430.4045599566</v>
+        <f t="shared" si="14"/>
+        <v>1685246.7251924223</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2191,12 +2191,12 @@
         <f t="shared" si="8"/>
         <v>0.95288825577326808</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>2.277374684967114E-2</v>
+      <c r="AI10" s="1">
+        <f t="shared" si="15"/>
+        <v>1.3047951314597864E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.310990629646497</v>
       </c>
       <c r="AK10">
@@ -2208,55 +2208,55 @@
         <v>1753856.8368215</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="16"/>
-        <v>-0.51147397522723037</v>
+        <f t="shared" si="17"/>
+        <v>-0.50655247444648821</v>
       </c>
       <c r="AN10">
         <f t="shared" si="9"/>
-        <v>-0.42465789319104263</v>
+        <v>-0.36674162645443453</v>
       </c>
       <c r="AO10" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="17"/>
-        <v>1.3462471260541777</v>
+      <c r="AP10" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4409345995742127</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="18"/>
-        <v>3.4421674131553734</v>
+        <f t="shared" si="19"/>
+        <v>3.772689200556989</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="19"/>
-        <v>-2.1489374936217422E-2</v>
-      </c>
-      <c r="AS10">
         <f t="shared" si="20"/>
-        <v>-8.2339058476423144E-2</v>
+        <v>-1.3526549520869012E-2</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.11750779094994979</v>
       </c>
       <c r="AT10">
         <f t="shared" si="21"/>
-        <v>0.94360295993751708</v>
-      </c>
-      <c r="AU10">
+        <v>1.0366799503409978</v>
+      </c>
+      <c r="AU10" s="1">
         <f t="shared" si="22"/>
-        <v>5.9667374630412615</v>
+        <v>5.66018052024108</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-673.54650411299235</v>
+        <f t="shared" si="11"/>
+        <v>-587.28306857199652</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-2318.4598277024634</v>
+        <f t="shared" si="12"/>
+        <v>-2215.636490471541</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>552562.07465563435</v>
+        <f t="shared" si="13"/>
+        <v>552648.3380911753</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>2128958.0905408026</v>
+        <f t="shared" si="14"/>
+        <v>2129060.9138780334</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2369,12 +2369,12 @@
         <f t="shared" si="8"/>
         <v>0.97281579527473738</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>5.2824374977670653E-2</v>
+      <c r="AI11" s="1">
+        <f t="shared" si="15"/>
+        <v>1.776493849310689E-2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.1003129562455118</v>
       </c>
       <c r="AK11">
@@ -2386,55 +2386,55 @@
         <v>2082326.4475889998</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="16"/>
-        <v>-0.52688559235960208</v>
+        <f t="shared" si="17"/>
+        <v>-0.5089353814136286</v>
       </c>
       <c r="AN11">
         <f t="shared" si="9"/>
-        <v>-0.42957148929958439</v>
+        <v>-0.37631017120937815</v>
       </c>
       <c r="AO11" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="17"/>
-        <v>1.3281775970539018</v>
+      <c r="AP11" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4229978744515255</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="18"/>
-        <v>3.383346929757689</v>
+        <f t="shared" si="19"/>
+        <v>3.7070309888579502</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="19"/>
-        <v>-5.045305833356617E-2</v>
-      </c>
-      <c r="AS11">
         <f t="shared" si="20"/>
-        <v>-0.13279211680998931</v>
+        <v>-1.8692452787256002E-2</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.23115634062071244</v>
       </c>
       <c r="AT11">
         <f t="shared" si="21"/>
-        <v>0.95510942353588157</v>
-      </c>
-      <c r="AU11">
+        <v>1.0522103858963026</v>
+      </c>
+      <c r="AU11" s="1">
         <f t="shared" si="22"/>
-        <v>6.9218468865771428</v>
+        <v>6.6145903626711329</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-709.31547192388939</v>
+        <f t="shared" si="11"/>
+        <v>-642.53865001606243</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-2399.8603241633177</v>
+        <f t="shared" si="12"/>
+        <v>-2381.910687148496</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>685922.94922622642</v>
+        <f t="shared" si="13"/>
+        <v>685989.72604813427</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>2588050.269456536</v>
+        <f t="shared" si="14"/>
+        <v>2588068.2190935509</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2547,12 +2547,12 @@
         <f t="shared" si="8"/>
         <v>1.0042852907202793</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.13529290335262856</v>
+      <c r="AI12" s="1">
+        <f t="shared" si="15"/>
+        <v>3.0583811480424793E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9274057902103929</v>
       </c>
       <c r="AK12">
@@ -2564,55 +2564,55 @@
         <v>2404563.7880220003</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="16"/>
-        <v>-0.57084122326727471</v>
+        <f t="shared" si="17"/>
+        <v>-0.51544940631697334</v>
       </c>
       <c r="AN12">
         <f t="shared" si="9"/>
-        <v>-0.41886003971565444</v>
+        <v>-0.38270157367699487</v>
       </c>
       <c r="AO12" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="17"/>
-        <v>1.3128555638706789</v>
+      <c r="AP12" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4077529432683171</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="18"/>
-        <v>3.3344573275824394</v>
+        <f t="shared" si="19"/>
+        <v>3.6523891577942686</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="19"/>
-        <v>-0.12824935689761974</v>
-      </c>
-      <c r="AS12">
         <f t="shared" si="20"/>
-        <v>-0.26104147370760905</v>
+        <v>-3.1994630280962028E-2</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.29746357683794766</v>
       </c>
       <c r="AT12">
         <f t="shared" si="21"/>
-        <v>0.94793853719991183</v>
-      </c>
-      <c r="AU12">
+        <v>1.0461295938029243</v>
+      </c>
+      <c r="AU12" s="1">
         <f t="shared" si="22"/>
-        <v>7.8697854237770546</v>
+        <v>7.5581273043310588</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-751.92169199171906</v>
+        <f t="shared" si="11"/>
+        <v>-753.6758190612087</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-2507.2507956299737</v>
+        <f t="shared" si="12"/>
+        <v>-2752.717390030874</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>825161.3651246326</v>
+        <f t="shared" si="13"/>
+        <v>825159.61099756311</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>3059178.8975431216</v>
+        <f t="shared" si="14"/>
+        <v>3058933.4309487203</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2725,12 +2725,12 @@
         <f t="shared" si="8"/>
         <v>0.98306914885979602</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>7.5872713688878962E-2</v>
+      <c r="AI13" s="1">
+        <f t="shared" si="15"/>
+        <v>3.4952703646064814E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.780311704343732</v>
       </c>
       <c r="AK13">
@@ -2742,55 +2742,55 @@
         <v>2729857.9095800002</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="16"/>
-        <v>-0.53892069646424057</v>
+        <f t="shared" si="17"/>
+        <v>-0.51768236733814266</v>
       </c>
       <c r="AN13">
         <f t="shared" si="9"/>
-        <v>-0.44399147420515744</v>
+        <v>-0.38997738783528535</v>
       </c>
       <c r="AO13" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="17"/>
-        <v>1.299624236942982</v>
+      <c r="AP13" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3943824330424046</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="18"/>
-        <v>3.2929477092871307</v>
+        <f t="shared" si="19"/>
+        <v>3.6053198378077362</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="19"/>
-        <v>-7.234142586804572E-2</v>
-      </c>
-      <c r="AS13">
         <f t="shared" si="20"/>
-        <v>-0.33338289957565476</v>
+        <v>-3.6782459821368935E-2</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.37747126331782882</v>
       </c>
       <c r="AT13">
         <f t="shared" si="21"/>
-        <v>0.95345773665993261</v>
-      </c>
-      <c r="AU13">
+        <v>1.0523494890075624</v>
+      </c>
+      <c r="AU13" s="1">
         <f t="shared" si="22"/>
-        <v>8.8232431604369879</v>
+        <v>8.5104597300998499</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-751.84941100988192</v>
+        <f t="shared" si="11"/>
+        <v>-686.40768113150352</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-2475.8007957138689</v>
+        <f t="shared" si="12"/>
+        <v>-2474.7192296070161</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>967108.26374702319</v>
+        <f t="shared" si="13"/>
+        <v>967173.70547690161</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>3532525.9827642194</v>
+        <f t="shared" si="14"/>
+        <v>3532527.0643303264</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2903,12 +2903,12 @@
         <f t="shared" si="8"/>
         <v>0.99616149848640667</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>9.0374139966384284E-2</v>
+      <c r="AI14" s="1">
+        <f t="shared" si="15"/>
+        <v>3.9887835900711176E-2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.6533616335326289</v>
       </c>
       <c r="AK14">
@@ -2920,55 +2920,55 @@
         <v>3057514.1093749995</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="16"/>
-        <v>-0.54659059840360724</v>
+        <f t="shared" si="17"/>
+        <v>-0.52021266443100223</v>
       </c>
       <c r="AN14">
         <f t="shared" si="9"/>
-        <v>-0.44864137235163704</v>
+        <v>-0.39632069706968653</v>
       </c>
       <c r="AO14" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="17"/>
-        <v>1.2879526989524848</v>
+      <c r="AP14" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3825255493784567</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>3.2568641032834522</v>
+        <f t="shared" si="19"/>
+        <v>3.5642300850820798</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="19"/>
-        <v>-8.6260252468618293E-2</v>
-      </c>
-      <c r="AS14">
         <f t="shared" si="20"/>
-        <v>-0.41964315204427305</v>
+        <v>-4.2052466765176995E-2</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.46362982258845914</v>
       </c>
       <c r="AT14">
         <f t="shared" si="21"/>
-        <v>0.95447937320016241</v>
-      </c>
-      <c r="AU14">
+        <v>1.0542679444894945</v>
+      </c>
+      <c r="AU14" s="1">
         <f t="shared" si="22"/>
-        <v>9.7777225336371494</v>
+        <v>9.4633176955859621</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-776.92555810996862</v>
+        <f t="shared" si="11"/>
+        <v>-719.44144846688971</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-2530.3409611318184</v>
+        <f t="shared" si="12"/>
+        <v>-2564.2548550807169</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>1112923.719481536</v>
+        <f t="shared" si="13"/>
+        <v>1112981.2035911791</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>4012716.6879795757</v>
+        <f t="shared" si="14"/>
+        <v>4012682.7740856269</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -3081,12 +3081,12 @@
         <f t="shared" si="8"/>
         <v>1.0030501329922661</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>9.7945747104243225E-2</v>
+      <c r="AI15" s="1">
+        <f t="shared" si="15"/>
+        <v>4.4665141855916156E-2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.546203292544488</v>
       </c>
       <c r="AK15">
@@ -3098,55 +3098,55 @@
         <v>3359958.1973350001</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="16"/>
-        <v>-0.55062573193101583</v>
+        <f t="shared" si="17"/>
+        <v>-0.52267009188459546</v>
       </c>
       <c r="AN15">
         <f t="shared" si="9"/>
-        <v>-0.45420632083509743</v>
+        <v>-0.4017836746119246</v>
       </c>
       <c r="AO15" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP15">
-        <f t="shared" si="17"/>
-        <v>1.2777264128670414</v>
+      <c r="AP15" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3722742280835523</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="18"/>
-        <v>3.2256505976975216</v>
+        <f t="shared" si="19"/>
+        <v>3.5291868908628277</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="19"/>
-        <v>-8.9979318702840774E-2</v>
-      </c>
-      <c r="AS15">
         <f t="shared" si="20"/>
-        <v>-0.50962247074711386</v>
+        <v>-4.535169307178568E-2</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.53824225239475298</v>
       </c>
       <c r="AT15">
         <f t="shared" si="21"/>
-        <v>0.91866488707341321</v>
-      </c>
-      <c r="AU15">
+        <v>1.0153710743399009</v>
+      </c>
+      <c r="AU15" s="1">
         <f t="shared" si="22"/>
-        <v>10.696387420710563</v>
+        <v>10.380126499632924</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-795.77240329076869</v>
+        <f t="shared" si="11"/>
+        <v>-739.66646783302815</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-2566.8837283060602</v>
+        <f t="shared" si="12"/>
+        <v>-2610.4212018871349</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>1261788.2456345556</v>
+        <f t="shared" si="13"/>
+        <v>1261844.3515700132</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>4497573.0583060011</v>
+        <f t="shared" si="14"/>
+        <v>4497529.5208324194</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -3259,12 +3259,12 @@
         <f t="shared" si="8"/>
         <v>0.99624561914370702</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>8.5162664289624768E-2</v>
+      <c r="AI16" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7724823408173883E-2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.4528127862433831</v>
       </c>
       <c r="AK16">
@@ -3276,55 +3276,55 @@
         <v>3657330.6336000003</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="16"/>
-        <v>-0.54382542890795815</v>
+        <f t="shared" si="17"/>
+        <v>-0.52424815805784841</v>
       </c>
       <c r="AN16">
         <f t="shared" si="9"/>
-        <v>-0.4647702997366947</v>
+        <v>-0.40701290452230504</v>
       </c>
       <c r="AO16" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP16">
-        <f t="shared" si="17"/>
-        <v>1.2687561598004613</v>
+      <c r="AP16" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3631487756058986</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="18"/>
-        <v>3.1985744532455254</v>
+        <f t="shared" si="19"/>
+        <v>3.4983616506328787</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="19"/>
-        <v>-7.6570186321909581E-2</v>
-      </c>
-      <c r="AS16">
         <f t="shared" si="20"/>
-        <v>-0.58619265706902346</v>
+        <v>-4.7447795125595826E-2</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.67424324819213377</v>
       </c>
       <c r="AT16">
         <f t="shared" si="21"/>
-        <v>0.89910510621774831</v>
-      </c>
-      <c r="AU16">
+        <v>0.9941952999970517</v>
+      </c>
+      <c r="AU16" s="1">
         <f t="shared" si="22"/>
-        <v>11.595492526928311</v>
+        <v>11.278035495099742</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-802.28681934192161</v>
+        <f t="shared" si="11"/>
+        <v>-727.87848325562959</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-2566.1741245226781</v>
+        <f t="shared" si="12"/>
+        <v>-2546.3821721423196</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>1407546.7614916002</v>
+        <f t="shared" si="13"/>
+        <v>1407621.1698276864</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>4967760.8249335932</v>
+        <f t="shared" si="14"/>
+        <v>4967780.6168859741</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -3437,12 +3437,12 @@
         <f t="shared" si="8"/>
         <v>1.0293312789994395</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>0.15489416172932804</v>
+      <c r="AI17" s="1">
+        <f t="shared" si="15"/>
+        <v>5.5484856237205275E-2</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.3706654309529607</v>
       </c>
       <c r="AK17">
@@ -3454,55 +3454,55 @@
         <v>3941363.2401150004</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="16"/>
-        <v>-0.58166347960370257</v>
+        <f t="shared" si="17"/>
+        <v>-0.52826519148054096</v>
       </c>
       <c r="AN17">
         <f t="shared" si="9"/>
-        <v>-0.45087457541341269</v>
+        <v>-0.41053709026071844</v>
       </c>
       <c r="AO17" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="17"/>
-        <v>1.2607418217171571</v>
+      <c r="AP17" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3549676039638074</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="18"/>
-        <v>3.1746199111655953</v>
+        <f t="shared" si="19"/>
+        <v>3.4710168758293496</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="19"/>
-        <v>-0.13606457264129473</v>
-      </c>
-      <c r="AS17">
         <f t="shared" si="20"/>
-        <v>-0.72225722971031825</v>
+        <v>-5.3864503654447796E-2</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.77046234225206334</v>
       </c>
       <c r="AT17">
         <f t="shared" si="21"/>
-        <v>0.87843577267336048</v>
-      </c>
-      <c r="AU17">
+        <v>0.97079648948119635</v>
+      </c>
+      <c r="AU17" s="1">
         <f t="shared" si="22"/>
-        <v>12.47392829960167</v>
+        <v>12.151842753447029</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-839.52217257407631</v>
+        <f t="shared" si="11"/>
+        <v>-834.58965119946868</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-2665.1638049186608</v>
+        <f t="shared" si="12"/>
+        <v>-2896.8747637058859</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>1552321.2396476378</v>
+        <f t="shared" si="13"/>
+        <v>1552326.1721690125</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>5430852.8826146573</v>
+        <f t="shared" si="14"/>
+        <v>5430621.17165587</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -3615,12 +3615,12 @@
         <f t="shared" si="8"/>
         <v>1.0101814902798445</v>
       </c>
-      <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>0.11309495762463438</v>
+      <c r="AI18" s="1">
+        <f t="shared" si="15"/>
+        <v>5.9307125568848124E-2</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.2989793993605172</v>
       </c>
       <c r="AK18">
@@ -3632,55 +3632,55 @@
         <v>4209897.37249</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="16"/>
-        <v>-0.55876273515992358</v>
+        <f t="shared" si="17"/>
+        <v>-0.53025160809099481</v>
       </c>
       <c r="AN18">
         <f t="shared" si="9"/>
-        <v>-0.46849412327905005</v>
+        <v>-0.41445703444743176</v>
       </c>
       <c r="AO18" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="17"/>
-        <v>1.2535900285927311</v>
+      <c r="AP18" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3477051901862307</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="18"/>
-        <v>3.1534291187926158</v>
+        <f t="shared" si="19"/>
+        <v>3.4469698425152067</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="19"/>
-        <v>-9.5133315718812339E-2</v>
-      </c>
-      <c r="AS18">
         <f t="shared" si="20"/>
-        <v>-0.81739054542913059</v>
+        <v>-5.5193826731347068E-2</v>
+      </c>
+      <c r="AS18" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AT18">
         <f t="shared" si="21"/>
-        <v>0.84118087770599559</v>
-      </c>
-      <c r="AU18">
+        <v>0.93064410392430719</v>
+      </c>
+      <c r="AU18" s="1">
         <f t="shared" si="22"/>
-        <v>13.315109177307667</v>
+        <v>12.991058576218684</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-834.47728261482496</v>
+        <f t="shared" si="11"/>
+        <v>-775.89530403708238</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-2631.4649619685242</v>
+        <f t="shared" si="12"/>
+        <v>-2674.4877139649902</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>1695616.6563328425</v>
+        <f t="shared" si="13"/>
+        <v>1695675.2383114204</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>5885779.048837116</v>
+        <f t="shared" si="14"/>
+        <v>5885736.0260851197</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -14,12 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t># avgT</t>
   </si>
@@ -106,10 +110,6 @@
   </si>
   <si>
     <t>eq</t>
-  </si>
-  <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>D/E</t>
@@ -168,7 +168,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev/deq</t>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratio</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -176,23 +192,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>p</t>
+    <t>ev/eq</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>q</t>
+    <t>ev/eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
+    <t>K_phi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,6 +266,300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AT3">
+            <v>4.0986129748253566E-2</v>
+          </cell>
+          <cell r="AV3">
+            <v>0.54357683165796811</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AT4">
+            <v>-9.0962195149273492E-2</v>
+          </cell>
+          <cell r="AV4">
+            <v>1.2527111791161281</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AT5">
+            <v>-0.30063791090157771</v>
+          </cell>
+          <cell r="AV5">
+            <v>2.0871329538978531</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AT6">
+            <v>-0.56553324006309658</v>
+          </cell>
+          <cell r="AV6">
+            <v>3.0063815311831945</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AT7">
+            <v>-0.85166398322474335</v>
+          </cell>
+          <cell r="AV7">
+            <v>3.9234264603892344</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AT8">
+            <v>-1.1603409336828321</v>
+          </cell>
+          <cell r="AV8">
+            <v>4.8622436133342513</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AT9">
+            <v>-1.4790824591228682</v>
+          </cell>
+          <cell r="AV9">
+            <v>5.7954908188107046</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AT10">
+            <v>-1.8002705451505174</v>
+          </cell>
+          <cell r="AV10">
+            <v>6.7092379197771779</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11">
+            <v>-2.1079529542419553</v>
+          </cell>
+          <cell r="AV11">
+            <v>7.5653663812129777</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12">
+            <v>-2.3880056213378253</v>
+          </cell>
+          <cell r="AV12">
+            <v>8.3314634872135844</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13">
+            <v>-2.5155536550409514</v>
+          </cell>
+          <cell r="AV13">
+            <v>8.6768046510639714</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14">
+            <v>-2.5322933196544137</v>
+          </cell>
+          <cell r="AV14">
+            <v>8.7219751250687416</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AT15">
+            <v>-2.3841945141380516</v>
+          </cell>
+          <cell r="AV15">
+            <v>8.3211122100347197</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AT16">
+            <v>-2.1515573847430454</v>
+          </cell>
+          <cell r="AV16">
+            <v>7.685409866182721</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AT17">
+            <v>-2.1952380146765509</v>
+          </cell>
+          <cell r="AV17">
+            <v>7.8053702409389594</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AT18">
+            <v>-2.0495594831534385</v>
+          </cell>
+          <cell r="AV18">
+            <v>7.4041363881637494</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AD3">
+            <v>-2.7743186307924717E-3</v>
+          </cell>
+          <cell r="AE3">
+            <v>0.79227428895571161</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AD4">
+            <v>3.6056637227999344E-2</v>
+          </cell>
+          <cell r="AE4">
+            <v>1.6467493256652945</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AD5">
+            <v>-5.3830521729392178E-2</v>
+          </cell>
+          <cell r="AE5">
+            <v>2.5786011719554747</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>-2.0860492076021364E-2</v>
+          </cell>
+          <cell r="AE6">
+            <v>3.4797714886515165</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AD7">
+            <v>-0.17253362112402804</v>
+          </cell>
+          <cell r="AE7">
+            <v>4.46032940890486</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AD8">
+            <v>-0.11966219637354514</v>
+          </cell>
+          <cell r="AE8">
+            <v>5.3807128307200633</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AD9">
+            <v>-0.30668116963163783</v>
+          </cell>
+          <cell r="AE9">
+            <v>6.3933386030602106</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AD10">
+            <v>-0.39891023430928918</v>
+          </cell>
+          <cell r="AE10">
+            <v>7.3773424148796956</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AD11">
+            <v>-0.51187788418595659</v>
+          </cell>
+          <cell r="AE11">
+            <v>8.3693944476711231</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AD12">
+            <v>-0.72445349709451712</v>
+          </cell>
+          <cell r="AE12">
+            <v>9.3997601185372393</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AD13">
+            <v>-0.8823372851110256</v>
+          </cell>
+          <cell r="AE13">
+            <v>10.42127381778735</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AD14">
+            <v>-1.0283927463105793</v>
+          </cell>
+          <cell r="AE14">
+            <v>11.4366759110223</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AD15">
+            <v>-1.1633764262104642</v>
+          </cell>
+          <cell r="AE15">
+            <v>12.453888443639299</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AD16">
+            <v>-1.3692547746034252</v>
+          </cell>
+          <cell r="AE16">
+            <v>13.494096944178469</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AD17">
+            <v>-1.5788078329901047</v>
+          </cell>
+          <cell r="AE17">
+            <v>14.54301115556521</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AD18">
+            <v>-3.3233542994274909</v>
+          </cell>
+          <cell r="AE18">
+            <v>16.127682295602149</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -547,14 +849,16 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1031" width="11.5546875"/>
+    <col min="36" max="36" width="10.33203125" customWidth="1"/>
+    <col min="37" max="37" width="10.21875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="45" max="45" width="12.44140625" customWidth="1"/>
+    <col min="46" max="46" width="11.21875" customWidth="1"/>
+    <col min="53" max="1032" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,76 +944,79 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
         <v>39</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>40</v>
       </c>
       <c r="AE1" t="s">
         <v>28</v>
       </c>
       <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>37</v>
       </c>
-      <c r="AY1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21107232507000001</v>
       </c>
@@ -796,7 +1103,7 @@
         <v>-2.3963053763509379E-10</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
+        <f>0.0762*AL2^0.2606-0.5912</f>
         <v>8.3690040728754411E-3</v>
       </c>
       <c r="AD2">
@@ -811,31 +1118,27 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3963053763509379E-10</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>25.737137953530727</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2740.1550688233333</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3158.8391152150002</v>
       </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2:AO3" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
+      <c r="AP2">
+        <f t="shared" ref="AP2:AP3" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AL2)^(0.2606-1))</f>
         <v>17887.997608479312</v>
       </c>
-      <c r="AS2" s="1">
-        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.4700305231157957E-4</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2" s="1" t="e">
+        <f>(1+2*AN2)*AL2*(1-AQ2/3)/(2*AO2*AP2*AN2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.6951329181500001</v>
       </c>
@@ -922,7 +1225,7 @@
         <v>0.65947632051531757</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="5">0.0762*AL3^0.2606-0.5912</f>
         <v>0.67424384941539861</v>
       </c>
       <c r="AD3">
@@ -949,71 +1252,76 @@
         <f>-AD3/AE3</f>
         <v>1.8729926309713228E-2</v>
       </c>
-      <c r="AJ3">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
+      <c r="AJ3" s="1">
+        <f>-0.0427*AK3-0.1047*(4*232)^0.2917+0.9625</f>
+        <v>-0.28560149317821415</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>AQ3^4</f>
         <v>11.234514147641812</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <f t="shared" si="2"/>
         <v>48151.410099266672</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <f t="shared" si="3"/>
         <v>56191.075637300004</v>
       </c>
-      <c r="AM3">
-        <v>-0.49972129302590063</v>
-      </c>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.20252330466415455</v>
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.36961223366351686</v>
       </c>
       <c r="AO3">
+        <f t="shared" ref="AO3:AO18" si="9">1/(2+AN3*AR3-2*0.33*(1+AN3+AR3))</f>
+        <v>-0.23352056244501404</v>
+      </c>
+      <c r="AP3">
         <f t="shared" si="4"/>
         <v>148933.32688217773</v>
       </c>
-      <c r="AP3" s="1">
-        <f>AJ3^0.25</f>
+      <c r="AQ3" s="1">
+        <f>1.35*(AL3/3255000)^-0.0723</f>
         <v>1.8307901782315903</v>
       </c>
-      <c r="AQ3">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AR3">
+        <f>(2*AQ3+3)/(3-AQ3)</f>
         <v>5.6975063264416095</v>
       </c>
-      <c r="AR3">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.27256129620665E-4</v>
-      </c>
-      <c r="AS3" s="1">
-        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>3.4846971352937947E-2</v>
-      </c>
-      <c r="AT3">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.58698804536117211</v>
-      </c>
-      <c r="AU3" s="1">
-        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.6224074202883092</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-120.58173479104627</v>
+      <c r="AS3">
+        <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>0.17951807976934411</v>
+      </c>
+      <c r="AT3" s="1">
+        <f>(1+2*AN3)*AL3*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>0.19035035859307686</v>
+      </c>
+      <c r="AU3">
+        <f>(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.62856141882047389</v>
+      </c>
+      <c r="AV3" s="1">
+        <f>(1-AN3)*(AL3)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.66648936766692291</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-687.01519682529045</v>
+        <f>AO3*AP3*(AN3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-174.61854783051481</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>562.29075427832754</v>
+        <f>AO3*AP3*(AN3*AR3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AR3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-994.8902809784048</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6167.7050315059623</v>
+        <f>AW3+(AL2-1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>508.25394123885906</v>
+      </c>
+      <c r="AZ3">
+        <f>AX3+(AL2+2*1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>5859.8299473528477</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10.9153812583</v>
       </c>
@@ -1124,74 +1432,78 @@
         <v>0.83217089851482995</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <f t="shared" ref="AI4:AI18" si="10">-AD4/AE4</f>
         <v>-4.6465024530442579E-2</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="11">-0.0427*AK4-0.1047*(4*232)^0.2917+0.9625</f>
+        <v>-0.15818655255986014</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" ref="AK4:AK18" si="12">AQ4^4</f>
         <v>8.2505576928794238</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <f t="shared" si="2"/>
         <v>140023.73074589999</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <f t="shared" si="3"/>
         <v>170253.74244015</v>
       </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="17">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.47712183260452617</v>
-      </c>
-      <c r="AN4" s="1">
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN18" si="13">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.42486833032473531</v>
+      </c>
+      <c r="AO4" s="1">
         <f t="shared" si="9"/>
-        <v>-0.25562833789886336</v>
-      </c>
-      <c r="AO4" s="1">
+        <v>-0.27095811135790765</v>
+      </c>
+      <c r="AP4" s="1">
         <v>327923.30704855063</v>
       </c>
-      <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="18">AJ4^0.25</f>
+      <c r="AQ4" s="1">
+        <f t="shared" ref="AQ4:AQ18" si="14">1.35*(AL4/3255000)^-0.0723</f>
         <v>1.6948092528357286</v>
       </c>
-      <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="19">(2*AP4+3)/(3-AP4)</f>
+      <c r="AR4" s="1">
+        <f t="shared" ref="AR4:AR18" si="15">(2*AQ4+3)/(3-AQ4)</f>
         <v>4.8955438272558176</v>
       </c>
-      <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="20">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>2.2863782507772538E-2</v>
-      </c>
       <c r="AS4" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.0862876522664107E-2</v>
+        <f t="shared" ref="AS4:AS18" si="16">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>7.9548438110973438E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.49206435891996303</v>
+        <f t="shared" ref="AT4:AT18" si="17">(1+2*AN4)*AL4*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>0.12124075021627324</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="22">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.74996132478327326</v>
+        <f t="shared" ref="AU4:AU18" si="18">(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>0.50287737373169616</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="11"/>
-        <v>-302.40652619847759</v>
+        <f t="shared" ref="AV4:AV18" si="19">(1-AN4)*(AL4)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>0.76644157328350582</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" si="12"/>
-        <v>-1480.4444026528315</v>
+        <f>AO4*AP4*(AN4*0.01*((AD4-AD3)/3+(AE4-AE3))-2*0.01*((AD4-AD3)/3-(AE4-AE3)/2))</f>
+        <v>-360.57239647969459</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="13"/>
-        <v>18463.960680488584</v>
+        <f>AO4*AP4*(AN4*AR4*0.01*((AD4-AD3)/3+(AE4-AE3))-2*AR4*0.01*((AD4-AD3)/3-(AE4-AE3)/2))</f>
+        <v>-1765.1979698650057</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="14"/>
-        <v>105441.05148177306</v>
+        <f>AW4+(AL3-1.35*(AL3/3255000)^-0.0723*AL3/3)</f>
+        <v>18405.794810207364</v>
+      </c>
+      <c r="AZ4" s="1">
+        <f>AX4+(AL3+2*1.35*(AL3/3255000)^-0.0723*AL3/3)</f>
+        <v>105156.29791456088</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>21.328496033499999</v>
       </c>
@@ -1302,74 +1614,78 @@
         <v>0.926506926133708</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>7.9867423158663468E-3</v>
       </c>
-      <c r="AJ5" s="2">
-        <f t="shared" si="16"/>
+      <c r="AJ5" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.6468714790156285E-2</v>
+      </c>
+      <c r="AK5" s="2">
+        <f t="shared" si="12"/>
         <v>6.805175075321956</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AL5" s="2">
         <f t="shared" si="2"/>
         <v>272538.02467499999</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AM5" s="2">
         <f t="shared" si="3"/>
         <v>340575.82544400002</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AN5">
+        <f t="shared" si="13"/>
+        <v>-0.4532683564687523</v>
+      </c>
+      <c r="AO5" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.29680058766909184</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f t="shared" si="14"/>
+        <v>1.6151387088293911</v>
+      </c>
+      <c r="AR5" s="2">
+        <f t="shared" si="15"/>
+        <v>4.4988458103211144</v>
+      </c>
+      <c r="AS5" s="2">
+        <f t="shared" si="16"/>
+        <v>6.4798710113150346E-2</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="17"/>
-        <v>-0.50400403087888468</v>
-      </c>
-      <c r="AN5" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.28058109489575328</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP5" s="1">
+        <v>0.13326949064962568</v>
+      </c>
+      <c r="AU5" s="2">
         <f t="shared" si="18"/>
-        <v>1.6151387088293911</v>
-      </c>
-      <c r="AQ5" s="2">
+        <v>0.67170699074932105</v>
+      </c>
+      <c r="AV5" s="1">
         <f t="shared" si="19"/>
-        <v>4.4988458103211144</v>
-      </c>
-      <c r="AR5" s="2">
-        <f t="shared" si="20"/>
-        <v>-5.281781924399028E-3</v>
-      </c>
-      <c r="AS5" s="1">
-        <f t="shared" si="10"/>
-        <v>5.0608412398516558E-2</v>
-      </c>
-      <c r="AT5" s="2">
-        <f t="shared" si="21"/>
-        <v>0.66131868482926703</v>
-      </c>
-      <c r="AU5" s="1">
-        <f t="shared" si="22"/>
-        <v>1.3601135598282654</v>
-      </c>
-      <c r="AV5" s="2">
-        <f t="shared" si="11"/>
-        <v>-496.27461748753024</v>
+        <v>1.3814788653453136</v>
       </c>
       <c r="AW5" s="2">
-        <f t="shared" si="12"/>
-        <v>-2232.6629836524889</v>
+        <f>AO5*AP5*(AN5*0.01*((AD5-AD4)/3+(AE5-AE4))-2*0.01*((AD5-AD4)/3-(AE5-AE4)/2))</f>
+        <v>-569.13919092999299</v>
       </c>
       <c r="AX5" s="2">
-        <f t="shared" si="13"/>
-        <v>60422.95130016913</v>
+        <f>AO5*AP5*(AN5*AR5*0.01*((AD5-AD4)/3+(AE5-AE4))-2*AR5*0.01*((AD5-AD4)/3-(AE5-AE4)/2))</f>
+        <v>-2560.4694646049475</v>
       </c>
       <c r="AY5" s="2">
-        <f t="shared" si="14"/>
-        <v>296000.07741873414</v>
+        <f>AW5+(AL4-1.35*(AL4/3255000)^-0.0723*AL4/3)</f>
+        <v>60350.086726726666</v>
+      </c>
+      <c r="AZ5" s="2">
+        <f>AX5+(AL4+2*1.35*(AL4/3255000)^-0.0723*AL4/3)</f>
+        <v>295672.27093778166</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>33.875225325000002</v>
       </c>
@@ -1480,74 +1796,78 @@
         <v>0.87679173906165575</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-2.4042442583712215E-2</v>
       </c>
-      <c r="AJ6" s="2">
-        <f t="shared" si="16"/>
+      <c r="AJ6" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.8922481665564574E-2</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="12"/>
         <v>5.9258721918420578</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <f t="shared" si="2"/>
         <v>439740.92971766664</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <f t="shared" si="3"/>
         <v>564985.352006</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6">
+        <f t="shared" si="13"/>
+        <v>-0.47110625619704405</v>
+      </c>
+      <c r="AO6" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.3167171876763416</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ6" s="1">
+        <f t="shared" si="14"/>
+        <v>1.5602280093024956</v>
+      </c>
+      <c r="AR6" s="2">
+        <f t="shared" si="15"/>
+        <v>4.2509897804303769</v>
+      </c>
+      <c r="AS6" s="2">
+        <f t="shared" si="16"/>
+        <v>4.7386792474310463E-2</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="17"/>
-        <v>-0.4880743526057274</v>
-      </c>
-      <c r="AN6" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.31072080612139902</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP6" s="1">
+        <v>0.12462649601497065</v>
+      </c>
+      <c r="AU6" s="2">
         <f t="shared" si="18"/>
-        <v>1.5602280093024956</v>
-      </c>
-      <c r="AQ6" s="2">
+        <v>0.80422261817265106</v>
+      </c>
+      <c r="AV6" s="1">
         <f t="shared" si="19"/>
-        <v>4.2509897804303769</v>
-      </c>
-      <c r="AR6" s="2">
-        <f t="shared" si="20"/>
-        <v>1.9242860968302817E-2</v>
-      </c>
-      <c r="AS6" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.0689184303055562E-2</v>
-      </c>
-      <c r="AT6" s="2">
-        <f t="shared" si="21"/>
-        <v>0.80037046574207682</v>
-      </c>
-      <c r="AU6" s="1">
-        <f t="shared" si="22"/>
-        <v>2.1049613500086681</v>
-      </c>
-      <c r="AV6" s="2">
-        <f t="shared" si="11"/>
-        <v>-370.59171847408328</v>
+        <v>2.1150924484534142</v>
       </c>
       <c r="AW6" s="2">
-        <f t="shared" si="12"/>
-        <v>-1575.3816079454591</v>
+        <f>AO6*AP6*(AN6*0.01*((AD6-AD5)/3+(AE6-AE5))-2*0.01*((AD6-AD5)/3-(AE6-AE5)/2))</f>
+        <v>-393.79817756732882</v>
       </c>
       <c r="AX6" s="2">
-        <f t="shared" si="13"/>
-        <v>125438.52852969518</v>
+        <f>AO6*AP6*(AN6*AR6*0.01*((AD6-AD5)/3+(AE6-AE5))-2*AR6*0.01*((AD6-AD5)/3-(AE6-AE5)/2))</f>
+        <v>-1674.0320283908216</v>
       </c>
       <c r="AY6" s="2">
-        <f t="shared" si="14"/>
-        <v>564420.45192071598</v>
+        <f>AW6+(AL5-1.35*(AL5/3255000)^-0.0723*AL5/3)</f>
+        <v>125415.32207060193</v>
+      </c>
+      <c r="AZ6" s="2">
+        <f>AX6+(AL5+2*1.35*(AL5/3255000)^-0.0723*AL5/3)</f>
+        <v>564321.80150027061</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48.216694473399997</v>
       </c>
@@ -1658,74 +1978,78 @@
         <v>0.95422331175951802</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>3.6643524566578422E-3</v>
       </c>
-      <c r="AJ7">
-        <f t="shared" si="16"/>
+      <c r="AJ7" s="1">
+        <f t="shared" si="11"/>
+        <v>-3.3591685417518113E-2</v>
+      </c>
+      <c r="AK7" s="2">
+        <f t="shared" si="12"/>
         <v>5.3326451134334727</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>633283.23345866671</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>826862.72724200005</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
+        <f t="shared" si="13"/>
+        <v>-0.48339014166985944</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="9"/>
+        <v>-0.33272814476089457</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.5196223438644587</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="15"/>
+        <v>4.0795297488440161</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="16"/>
+        <v>3.0076928856518088E-2</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="17"/>
-        <v>-0.50183441687832708</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="9"/>
-        <v>-0.32588922482014254</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP7" s="1">
+        <v>9.8413702795700914E-2</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="18"/>
-        <v>1.5196223438644587</v>
-      </c>
-      <c r="AQ7">
+        <v>0.89536825802830489</v>
+      </c>
+      <c r="AV7" s="1">
         <f t="shared" si="19"/>
-        <v>4.0795297488440161</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="20"/>
-        <v>-3.2667995074285154E-3</v>
-      </c>
-      <c r="AS7" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8733192295169024E-2</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="21"/>
-        <v>0.89150799385934687</v>
-      </c>
-      <c r="AU7" s="1">
-        <f t="shared" si="22"/>
-        <v>2.9170731880975134</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="11"/>
-        <v>-595.6641071713575</v>
+        <v>2.9297042280700136</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="12"/>
-        <v>-2430.0294455241647</v>
+        <f>AO7*AP7*(AN7*0.01*((AD7-AD6)/3+(AE7-AE6))-2*0.01*((AD7-AD6)/3-(AE7-AE6)/2))</f>
+        <v>-626.70772875390321</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="13"/>
-        <v>210446.56048308741</v>
+        <f>AO7*AP7*(AN7*AR7*0.01*((AD7-AD6)/3+(AE7-AE6))-2*AR7*0.01*((AD7-AD6)/3-(AE7-AE6)/2))</f>
+        <v>-2556.6728232820155</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="14"/>
-        <v>894708.3105269582</v>
+        <f>AW7+(AL6-1.35*(AL6/3255000)^-0.0723*AL6/3)</f>
+        <v>210415.51686150485</v>
+      </c>
+      <c r="AZ7">
+        <f>AX7+(AL6+2*1.35*(AL6/3255000)^-0.0723*AL6/3)</f>
+        <v>894581.66714920045</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64.043480911700001</v>
       </c>
@@ -1836,74 +2160,78 @@
         <v>0.92087330324934502</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-4.932973950305476E-3</v>
       </c>
-      <c r="AJ8">
-        <f t="shared" si="16"/>
+      <c r="AJ8" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.5205373547755086E-2</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" si="12"/>
         <v>4.9020523295982743</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>847290.0021876666</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>1116233.2128185001</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
+        <f t="shared" si="13"/>
+        <v>-0.49243565280105739</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="9"/>
+        <v>-0.34605358048504975</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4879710640969215</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="15"/>
+        <v>3.9522670408583389</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="16"/>
+        <v>1.4600666827885796E-2</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="17"/>
-        <v>-0.49753756207223127</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="9"/>
-        <v>-0.34405373057071786</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP8" s="1">
+        <v>5.7806578277934458E-2</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="18"/>
-        <v>1.4879710640969215</v>
-      </c>
-      <c r="AQ8">
+        <v>0.9602307225159491</v>
+      </c>
+      <c r="AV8" s="1">
         <f t="shared" si="19"/>
-        <v>3.9522670408583389</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="20"/>
-        <v>4.7315912387930663E-3</v>
-      </c>
-      <c r="AS8" s="1">
-        <f t="shared" si="10"/>
-        <v>-5.4579650135115863E-2</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="21"/>
-        <v>0.95917620617074451</v>
-      </c>
-      <c r="AU8" s="1">
-        <f t="shared" si="22"/>
-        <v>3.797545351726249</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="11"/>
-        <v>-482.41684917296828</v>
+        <v>3.8017203652631655</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="12"/>
-        <v>-1906.6402129410512</v>
+        <f>AO8*AP8*(AN8*0.01*((AD8-AD7)/3+(AE8-AE7))-2*0.01*((AD8-AD7)/3-(AE8-AE7)/2))</f>
+        <v>-490.63384289802735</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="13"/>
-        <v>312017.03275665297</v>
+        <f>AO8*AP8*(AN8*AR8*0.01*((AD8-AD7)/3+(AE8-AE7))-2*AR8*0.01*((AD8-AD7)/3-(AE8-AE7)/2))</f>
+        <v>-1939.1159664155423</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="14"/>
-        <v>1272944.1609514072</v>
+        <f>AW8+(AL7-1.35*(AL7/3255000)^-0.0723*AL7/3)</f>
+        <v>312008.81576292793</v>
+      </c>
+      <c r="AZ8">
+        <f>AX8+(AL7+2*1.35*(AL7/3255000)^-0.0723*AL7/3)</f>
+        <v>1272911.6851979326</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81.032561823500004</v>
       </c>
@@ -2014,74 +2342,78 @@
         <v>0.97864184849367142</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1.157166784599452E-2</v>
       </c>
-      <c r="AJ9">
-        <f t="shared" si="16"/>
+      <c r="AJ9" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.0581078824640766E-3</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="12"/>
         <v>4.5707346325188603</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>1079249.2642293333</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>1430639.381851</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
+        <f t="shared" si="13"/>
+        <v>-0.4994711325916924</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="9"/>
+        <v>-0.35751593396406711</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4621653972917923</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="15"/>
+        <v>3.8523848950664301</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="16"/>
+        <v>1.0739122992338931E-3</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="17"/>
-        <v>-0.50580823758837834</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="9"/>
-        <v>-0.35494869006608359</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP9" s="1">
+        <v>4.9966491900065493E-3</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="18"/>
-        <v>1.4621653972917923</v>
-      </c>
-      <c r="AQ9">
+        <v>1.0149364890212178</v>
+      </c>
+      <c r="AV9" s="1">
         <f t="shared" si="19"/>
-        <v>3.8523848950664301</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="20"/>
-        <v>-1.1730612924600158E-2</v>
-      </c>
-      <c r="AS9" s="1">
-        <f t="shared" si="10"/>
-        <v>-7.3853759859940485E-2</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="21"/>
-        <v>1.0137357104197147</v>
-      </c>
-      <c r="AU9" s="1">
-        <f t="shared" si="22"/>
-        <v>4.7166623568450126</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="11"/>
-        <v>-658.97216926727413</v>
+        <v>4.7222492836646968</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="12"/>
-        <v>-2538.6144311544062</v>
+        <f>AO9*AP9*(AN9*0.01*((AD9-AD8)/3+(AE9-AE8))-2*0.01*((AD9-AD8)/3-(AE9-AE8)/2))</f>
+        <v>-670.7644972157492</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="13"/>
-        <v>426383.36130044429</v>
+        <f>AO9*AP9*(AN9*AR9*0.01*((AD9-AD8)/3+(AE9-AE8))-2*AR9*0.01*((AD9-AD8)/3-(AE9-AE8)/2))</f>
+        <v>-2584.0430172207812</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="14"/>
-        <v>1685246.7251924223</v>
+        <f>AW9+(AL8-1.35*(AL8/3255000)^-0.0723*AL8/3)</f>
+        <v>426371.56897249579</v>
+      </c>
+      <c r="AZ9">
+        <f>AX9+(AL8+2*1.35*(AL8/3255000)^-0.0723*AL8/3)</f>
+        <v>1685201.296606356</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>98.931897493400001</v>
       </c>
@@ -2192,74 +2524,78 @@
         <v>0.95288825577326808</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1.3047951314597864E-2</v>
       </c>
-      <c r="AJ10">
-        <f t="shared" si="16"/>
+      <c r="AJ10" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0032961040185806E-2</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="12"/>
         <v>4.310990629646497</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>1321238.2197256668</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>1753856.8368215</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
+        <f t="shared" si="13"/>
+        <v>-0.50503331353295267</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="9"/>
+        <v>-0.3673787354814162</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ10" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4409345995742127</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="15"/>
+        <v>3.772689200556989</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="16"/>
+        <v>-1.0403663132554567E-2</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="17"/>
-        <v>-0.50655247444648821</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="9"/>
-        <v>-0.36674162645443453</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP10" s="1">
+        <v>-5.6803077345776699E-2</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="18"/>
-        <v>1.4409345995742127</v>
-      </c>
-      <c r="AQ10">
+        <v>1.0369484233900506</v>
+      </c>
+      <c r="AV10" s="1">
         <f t="shared" si="19"/>
-        <v>3.772689200556989</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="20"/>
-        <v>-1.3526549520869012E-2</v>
-      </c>
-      <c r="AS10" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.11750779094994979</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="21"/>
-        <v>1.0366799503409978</v>
-      </c>
-      <c r="AU10" s="1">
-        <f t="shared" si="22"/>
-        <v>5.66018052024108</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="11"/>
-        <v>-587.28306857199652</v>
+        <v>5.6616463592610762</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="12"/>
-        <v>-2215.636490471541</v>
+        <f>AO10*AP10*(AN10*0.01*((AD10-AD9)/3+(AE10-AE9))-2*0.01*((AD10-AD9)/3-(AE10-AE9)/2))</f>
+        <v>-590.0340088467949</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="13"/>
-        <v>552648.3380911753</v>
+        <f>AO10*AP10*(AN10*AR10*0.01*((AD10-AD9)/3+(AE10-AE9))-2*AR10*0.01*((AD10-AD9)/3-(AE10-AE9)/2))</f>
+        <v>-2226.0149331376501</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="14"/>
-        <v>2129060.9138780334</v>
+        <f>AW10+(AL9-1.35*(AL9/3255000)^-0.0723*AL9/3)</f>
+        <v>552645.58715090051</v>
+      </c>
+      <c r="AZ10">
+        <f>AX10+(AL9+2*1.35*(AL9/3255000)^-0.0723*AL9/3)</f>
+        <v>2129050.5354353674</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>117.528065302</v>
       </c>
@@ -2370,74 +2706,78 @@
         <v>0.97281579527473738</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1.776493849310689E-2</v>
       </c>
-      <c r="AJ11">
-        <f t="shared" si="16"/>
+      <c r="AJ11" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9028897694407854E-2</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="12"/>
         <v>4.1003129562455118</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>1571170.907324</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>2082326.4475889998</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
+        <f t="shared" si="13"/>
+        <v>-0.50957518391222756</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="9"/>
+        <v>-0.37603430644773111</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ11" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4229978744515255</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="15"/>
+        <v>3.7070309888579502</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="16"/>
+        <v>-2.0020420002507078E-2</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="17"/>
-        <v>-0.5089353814136286</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="9"/>
-        <v>-0.37631017120937815</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP11" s="1">
+        <v>-0.12585589249093634</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="18"/>
-        <v>1.4229978744515255</v>
-      </c>
-      <c r="AQ11">
+        <v>1.0521061347862852</v>
+      </c>
+      <c r="AV11" s="1">
         <f t="shared" si="19"/>
-        <v>3.7070309888579502</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="20"/>
-        <v>-1.8692452787256002E-2</v>
-      </c>
-      <c r="AS11" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.23115634062071244</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="21"/>
-        <v>1.0522103858963026</v>
-      </c>
-      <c r="AU11" s="1">
-        <f t="shared" si="22"/>
-        <v>6.6145903626711329</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="11"/>
-        <v>-642.53865001606243</v>
+        <v>6.6139350009707902</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="12"/>
-        <v>-2381.910687148496</v>
+        <f>AO11*AP11*(AN11*0.01*((AD11-AD10)/3+(AE11-AE10))-2*0.01*((AD11-AD10)/3-(AE11-AE10)/2))</f>
+        <v>-641.31363683184884</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="13"/>
-        <v>685989.72604813427</v>
+        <f>AO11*AP11*(AN11*AR11*0.01*((AD11-AD10)/3+(AE11-AE10))-2*AR11*0.01*((AD11-AD10)/3-(AE11-AE10)/2))</f>
+        <v>-2377.3695253128567</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="14"/>
-        <v>2588068.2190935509</v>
+        <f>AW11+(AL10-1.35*(AL10/3255000)^-0.0723*AL10/3)</f>
+        <v>685990.95106131851</v>
+      </c>
+      <c r="AZ11">
+        <f>AX11+(AL10+2*1.35*(AL10/3255000)^-0.0723*AL10/3)</f>
+        <v>2588072.7602553866</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136.61812978099999</v>
       </c>
@@ -2548,74 +2888,78 @@
         <v>1.0042852907202793</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>3.0583811480424793E-2</v>
       </c>
-      <c r="AJ12">
-        <f t="shared" si="16"/>
+      <c r="AJ12" s="1">
+        <f t="shared" si="11"/>
+        <v>2.6412033684107494E-2</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="12"/>
         <v>3.9274057902103929</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>1823574.0032919999</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>2404563.7880220003</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
+        <f t="shared" si="13"/>
+        <v>-0.51332331546096677</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="9"/>
+        <v>-0.38363564295935421</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4077529432683171</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="15"/>
+        <v>3.6523891577942686</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="16"/>
+        <v>-2.7638467778339365E-2</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="17"/>
-        <v>-0.51544940631697334</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="9"/>
-        <v>-0.38270157367699487</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP12" s="1">
+        <v>-0.19968372867261963</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="18"/>
-        <v>1.4077529432683171</v>
-      </c>
-      <c r="AQ12">
+        <v>1.0464346709874837</v>
+      </c>
+      <c r="AV12" s="1">
         <f t="shared" si="19"/>
-        <v>3.6523891577942686</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="20"/>
-        <v>-3.1994630280962028E-2</v>
-      </c>
-      <c r="AS12" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.29746357683794766</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="21"/>
-        <v>1.0461295938029243</v>
-      </c>
-      <c r="AU12" s="1">
-        <f t="shared" si="22"/>
-        <v>7.5581273043310588</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="11"/>
-        <v>-753.6758190612087</v>
+        <v>7.5603314406179996</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="12"/>
-        <v>-2752.717390030874</v>
+        <f>AO12*AP12*(AN12*0.01*((AD12-AD11)/3+(AE12-AE11))-2*0.01*((AD12-AD11)/3-(AE12-AE11)/2))</f>
+        <v>-758.08034481616562</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="13"/>
-        <v>825159.61099756311</v>
+        <f>AO12*AP12*(AN12*AR12*0.01*((AD12-AD11)/3+(AE12-AE11))-2*AR12*0.01*((AD12-AD11)/3-(AE12-AE11)/2))</f>
+        <v>-2768.8044321435041</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="14"/>
-        <v>3058933.4309487203</v>
+        <f>AW12+(AL11-1.35*(AL11/3255000)^-0.0723*AL11/3)</f>
+        <v>825155.20647180814</v>
+      </c>
+      <c r="AZ12">
+        <f>AX12+(AL11+2*1.35*(AL11/3255000)^-0.0723*AL11/3)</f>
+        <v>3058917.3439066079</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>156.072675395</v>
       </c>
@@ -2726,74 +3070,78 @@
         <v>0.98306914885979602</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>3.4952703646064814E-2</v>
       </c>
-      <c r="AJ13">
-        <f t="shared" si="16"/>
+      <c r="AJ13" s="1">
+        <f t="shared" si="11"/>
+        <v>3.269295115061388E-2</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="12"/>
         <v>3.780311704343732</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>2080882.7730066665</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>2729857.9095800002</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
+        <f t="shared" si="13"/>
+        <v>-0.51652657642724786</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="9"/>
+        <v>-0.39049579085222968</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3943824330424046</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="15"/>
+        <v>3.6053198378077362</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="16"/>
+        <v>-3.4409394234275512E-2</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="17"/>
-        <v>-0.51768236733814266</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="9"/>
-        <v>-0.38997738783528535</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP13" s="1">
+        <v>-0.278272348708127</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="18"/>
-        <v>1.3943824330424046</v>
-      </c>
-      <c r="AQ13">
+        <v>1.0525019315556499</v>
+      </c>
+      <c r="AV13" s="1">
         <f t="shared" si="19"/>
-        <v>3.6053198378077362</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="20"/>
-        <v>-3.6782459821368935E-2</v>
-      </c>
-      <c r="AS13" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.37747126331782882</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="21"/>
-        <v>1.0523494890075624</v>
-      </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="22"/>
-        <v>8.5104597300998499</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="11"/>
-        <v>-686.40768113150352</v>
+        <v>8.5116925488356401</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="12"/>
-        <v>-2474.7192296070161</v>
+        <f>AO13*AP13*(AN13*0.01*((AD13-AD12)/3+(AE13-AE12))-2*0.01*((AD13-AD12)/3-(AE13-AE12)/2))</f>
+        <v>-688.73829933848185</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="13"/>
-        <v>967173.70547690161</v>
+        <f>AO13*AP13*(AN13*AR13*0.01*((AD13-AD12)/3+(AE13-AE12))-2*AR13*0.01*((AD13-AD12)/3-(AE13-AE12)/2))</f>
+        <v>-2483.1218536629917</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="14"/>
-        <v>3532527.0643303264</v>
+        <f>AW13+(AL12-1.35*(AL12/3255000)^-0.0723*AL12/3)</f>
+        <v>967171.37485869462</v>
+      </c>
+      <c r="AZ13">
+        <f>AX13+(AL12+2*1.35*(AL12/3255000)^-0.0723*AL12/3)</f>
+        <v>3532518.6617062702</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175.754296737</v>
       </c>
@@ -2904,74 +3252,78 @@
         <v>0.99616149848640667</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>3.9887835900711176E-2</v>
       </c>
-      <c r="AJ14">
-        <f t="shared" si="16"/>
+      <c r="AJ14" s="1">
+        <f t="shared" si="11"/>
+        <v>3.8113719174247995E-2</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="12"/>
         <v>3.6533616335326289</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>2341769.3260366665</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>3057514.1093749995</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
+        <f t="shared" si="13"/>
+        <v>-0.5193020843276378</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="9"/>
+        <v>-0.39673651010351352</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3825255493784567</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="15"/>
+        <v>3.5642300850820798</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="16"/>
+        <v>-4.0186257097885772E-2</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="17"/>
-        <v>-0.52021266443100223</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="9"/>
-        <v>-0.39632069706968653</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP14" s="1">
+        <v>-0.36071979604571852</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="18"/>
-        <v>1.3825255493784567</v>
-      </c>
-      <c r="AQ14">
+        <v>1.0543777403134666</v>
+      </c>
+      <c r="AV14" s="1">
         <f t="shared" si="19"/>
-        <v>3.5642300850820798</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="20"/>
-        <v>-4.2052466765176995E-2</v>
-      </c>
-      <c r="AS14" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.46362982258845914</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="21"/>
-        <v>1.0542679444894945</v>
-      </c>
-      <c r="AU14" s="1">
-        <f t="shared" si="22"/>
-        <v>9.4633176955859621</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="11"/>
-        <v>-719.44144846688971</v>
+        <v>9.4643032446290967</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="12"/>
-        <v>-2564.2548550807169</v>
+        <f>AO14*AP14*(AN14*0.01*((AD14-AD13)/3+(AE14-AE13))-2*0.01*((AD14-AD13)/3-(AE14-AE13)/2))</f>
+        <v>-721.34083356587894</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="13"/>
-        <v>1112981.2035911791</v>
+        <f>AO14*AP14*(AN14*AR14*0.01*((AD14-AD13)/3+(AE14-AE13))-2*AR14*0.01*((AD14-AD13)/3-(AE14-AE13)/2))</f>
+        <v>-2571.0247005936903</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="14"/>
-        <v>4012682.7740856269</v>
+        <f>AW14+(AL13-1.35*(AL13/3255000)^-0.0723*AL13/3)</f>
+        <v>1112979.30420608</v>
+      </c>
+      <c r="AZ14">
+        <f>AX14+(AL13+2*1.35*(AL13/3255000)^-0.0723*AL13/3)</f>
+        <v>4012676.0042401138</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195.47018625300001</v>
       </c>
@@ -3082,74 +3434,78 @@
         <v>1.0030501329922661</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>4.4665141855916156E-2</v>
       </c>
-      <c r="AJ15">
-        <f t="shared" si="16"/>
+      <c r="AJ15" s="1">
+        <f t="shared" si="11"/>
+        <v>4.2689380334441585E-2</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="12"/>
         <v>3.546203292544488</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>2595675.0318933334</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>3359958.1973350001</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
+        <f t="shared" si="13"/>
+        <v>-0.52165280511145762</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="9"/>
+        <v>-0.40225540778039742</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ15" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3722742280835523</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="15"/>
+        <v>3.5291868908628277</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="16"/>
+        <v>-4.3350178404789608E-2</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="17"/>
-        <v>-0.52267009188459546</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="9"/>
-        <v>-0.4017836746119246</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP15" s="1">
+        <v>-0.44316836178921731</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="18"/>
-        <v>1.3722742280835523</v>
-      </c>
-      <c r="AQ15">
+        <v>1.0154792143894142</v>
+      </c>
+      <c r="AV15" s="1">
         <f t="shared" si="19"/>
-        <v>3.5291868908628277</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="20"/>
-        <v>-4.535169307178568E-2</v>
-      </c>
-      <c r="AS15" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.53824225239475298</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="21"/>
-        <v>1.0153710743399009</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="22"/>
-        <v>10.380126499632924</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="11"/>
-        <v>-739.66646783302815</v>
+        <v>10.381232014081771</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="12"/>
-        <v>-2610.4212018871349</v>
+        <f>AO15*AP15*(AN15*0.01*((AD15-AD14)/3+(AE15-AE14))-2*0.01*((AD15-AD14)/3-(AE15-AE14)/2))</f>
+        <v>-741.83694879112716</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="13"/>
-        <v>1261844.3515700132</v>
+        <f>AO15*AP15*(AN15*AR15*0.01*((AD15-AD14)/3+(AE15-AE14))-2*AR15*0.01*((AD15-AD14)/3-(AE15-AE14)/2))</f>
+        <v>-2618.0812348313248</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="14"/>
-        <v>4497529.5208324194</v>
+        <f>AW15+(AL14-1.35*(AL14/3255000)^-0.0723*AL14/3)</f>
+        <v>1261842.1810890553</v>
+      </c>
+      <c r="AZ15">
+        <f>AX15+(AL14+2*1.35*(AL14/3255000)^-0.0723*AL14/3)</f>
+        <v>4497521.8607994756</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>214.993858558</v>
       </c>
@@ -3260,74 +3616,78 @@
         <v>0.99624561914370702</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>4.7724823408173883E-2</v>
       </c>
-      <c r="AJ16">
-        <f t="shared" si="16"/>
+      <c r="AJ16" s="1">
+        <f t="shared" si="11"/>
+        <v>4.6677154953498778E-2</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="12"/>
         <v>3.4528127862433831</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>2846613.1900200001</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>3657330.6336000003</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
+        <f t="shared" si="13"/>
+        <v>-0.52370744280385162</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="9"/>
+        <v>-0.40726730860785199</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ16" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3631487756058986</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="15"/>
+        <v>3.4983616506328787</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="16"/>
+        <v>-4.6408634324423791E-2</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="17"/>
-        <v>-0.52424815805784841</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="9"/>
-        <v>-0.40701290452230504</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP16" s="1">
+        <v>-0.52645413350023662</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="18"/>
-        <v>1.3631487756058986</v>
-      </c>
-      <c r="AQ16">
+        <v>0.99424727943803437</v>
+      </c>
+      <c r="AV16" s="1">
         <f t="shared" si="19"/>
-        <v>3.4983616506328787</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="20"/>
-        <v>-4.7447795125595826E-2</v>
-      </c>
-      <c r="AS16" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.67424324819213377</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="21"/>
-        <v>0.9941952999970517</v>
-      </c>
-      <c r="AU16" s="1">
-        <f t="shared" si="22"/>
-        <v>11.278035495099742</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="11"/>
-        <v>-727.87848325562959</v>
+        <v>11.278625143814052</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="12"/>
-        <v>-2546.3821721423196</v>
+        <f>AO16*AP16*(AN16*0.01*((AD16-AD15)/3+(AE16-AE15))-2*0.01*((AD16-AD15)/3-(AE16-AE15)/2))</f>
+        <v>-729.03244936566739</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="13"/>
-        <v>1407621.1698276864</v>
+        <f>AO16*AP16*(AN16*AR16*0.01*((AD16-AD15)/3+(AE16-AE15))-2*AR16*0.01*((AD16-AD15)/3-(AE16-AE15)/2))</f>
+        <v>-2550.4191629278057</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="14"/>
-        <v>4967780.6168859741</v>
+        <f>AW16+(AL15-1.35*(AL15/3255000)^-0.0723*AL15/3)</f>
+        <v>1407620.0158615764</v>
+      </c>
+      <c r="AZ16">
+        <f>AX16+(AL15+2*1.35*(AL15/3255000)^-0.0723*AL15/3)</f>
+        <v>4967776.5798951881</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>234.41600230899999</v>
       </c>
@@ -3438,74 +3798,78 @@
         <v>1.0293312789994395</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>5.5484856237205275E-2</v>
       </c>
-      <c r="AJ17">
-        <f t="shared" si="16"/>
+      <c r="AJ17" s="1">
+        <f t="shared" si="11"/>
+        <v>5.0184847024399848E-2</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="12"/>
         <v>3.3706654309529607</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>3093770.9270099998</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>3941363.2401150004</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
+        <f t="shared" si="13"/>
+        <v>-0.52551931786663453</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="9"/>
+        <v>-0.41184214034434546</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3549676039638074</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="15"/>
+        <v>3.4710168758293496</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="16"/>
+        <v>-4.8730932208762442E-2</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="17"/>
-        <v>-0.52826519148054096</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="9"/>
-        <v>-0.41053709026071844</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP17" s="1">
+        <v>-0.60998430860234198</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="18"/>
-        <v>1.3549676039638074</v>
-      </c>
-      <c r="AQ17">
+        <v>0.97102880845825157</v>
+      </c>
+      <c r="AV17" s="1">
         <f t="shared" si="19"/>
-        <v>3.4710168758293496</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="20"/>
-        <v>-5.3864503654447796E-2</v>
-      </c>
-      <c r="AS17" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.77046234225206334</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="21"/>
-        <v>0.97079648948119635</v>
-      </c>
-      <c r="AU17" s="1">
-        <f t="shared" si="22"/>
-        <v>12.151842753447029</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="11"/>
-        <v>-834.58965119946868</v>
+        <v>12.154750781760283</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="12"/>
-        <v>-2896.8747637058859</v>
+        <f>AO17*AP17*(AN17*0.01*((AD17-AD16)/3+(AE17-AE16))-2*0.01*((AD17-AD16)/3-(AE17-AE16)/2))</f>
+        <v>-840.8627770300003</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="13"/>
-        <v>1552326.1721690125</v>
+        <f>AO17*AP17*(AN17*AR17*0.01*((AD17-AD16)/3+(AE17-AE16))-2*AR17*0.01*((AD17-AD16)/3-(AE17-AE16)/2))</f>
+        <v>-2918.648889327862</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="14"/>
-        <v>5430621.17165587</v>
+        <f>AW17+(AL16-1.35*(AL16/3255000)^-0.0723*AL16/3)</f>
+        <v>1552319.8990431819</v>
+      </c>
+      <c r="AZ17">
+        <f>AX17+(AL16+2*1.35*(AL16/3255000)^-0.0723*AL16/3)</f>
+        <v>5430599.3975302484</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>253.35444194799999</v>
       </c>
@@ -3616,74 +3980,78 @@
         <v>1.0101814902798445</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>5.9307125568848124E-2</v>
       </c>
-      <c r="AJ18">
-        <f t="shared" si="16"/>
+      <c r="AJ18" s="1">
+        <f t="shared" si="11"/>
+        <v>5.3245840573397207E-2</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="12"/>
         <v>3.2989793993605172</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>3332502.3303733333</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>4209897.37249</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
+        <f t="shared" si="13"/>
+        <v>-0.52710397832292766</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="9"/>
+        <v>-0.41596940012347416</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>327923.30704855063</v>
+      </c>
+      <c r="AQ18" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3477051901862307</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="15"/>
+        <v>3.4469698425152067</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="16"/>
+        <v>-4.9565433993649849E-2</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="17"/>
-        <v>-0.53025160809099481</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="9"/>
-        <v>-0.41445703444743176</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP18" s="1">
+        <v>-0.69189441339820434</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="18"/>
-        <v>1.3477051901862307</v>
-      </c>
-      <c r="AQ18">
+        <v>0.93087898434669458</v>
+      </c>
+      <c r="AV18" s="1">
         <f t="shared" si="19"/>
-        <v>3.4469698425152067</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="20"/>
-        <v>-5.5193826731347068E-2</v>
-      </c>
-      <c r="AS18" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="21"/>
-        <v>0.93064410392430719</v>
-      </c>
-      <c r="AU18" s="1">
-        <f t="shared" si="22"/>
-        <v>12.991058576218684</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="11"/>
-        <v>-775.89530403708238</v>
+        <v>12.994337321888244</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="12"/>
-        <v>-2674.4877139649902</v>
+        <f>AO18*AP18*(AN18*0.01*((AD18-AD17)/3+(AE18-AE17))-2*0.01*((AD18-AD17)/3-(AE18-AE17)/2))</f>
+        <v>-782.90033310775095</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="13"/>
-        <v>1695675.2383114204</v>
+        <f>AO18*AP18*(AN18*AR18*0.01*((AD18-AD17)/3+(AE18-AE17))-2*AR18*0.01*((AD18-AD17)/3-(AE18-AE17)/2))</f>
+        <v>-2698.6338379175263</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="14"/>
-        <v>5885736.0260851197</v>
+        <f>AW18+(AL17-1.35*(AL17/3255000)^-0.0723*AL17/3)</f>
+        <v>1695668.2332823498</v>
+      </c>
+      <c r="AZ18">
+        <f>AX18+(AL17+2*1.35*(AL17/3255000)^-0.0723*AL17/3)</f>
+        <v>5885711.8799611665</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271.24010243100003</v>
       </c>
@@ -3769,8 +4137,18 @@
         <f t="shared" si="0"/>
         <v>1.4492856262416809</v>
       </c>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>252.61299326599999</v>
       </c>
@@ -3856,8 +4234,18 @@
         <f t="shared" si="0"/>
         <v>-1.4682985899516554</v>
       </c>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>252.40713851999999</v>
       </c>
@@ -3943,8 +4331,18 @@
         <f t="shared" si="0"/>
         <v>-2.5329629643248808</v>
       </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>259.70708336000001</v>
       </c>
@@ -4030,11 +4428,21 @@
         <f t="shared" si="0"/>
         <v>-2.7382770215223173</v>
       </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t># avgT</t>
   </si>
@@ -106,94 +105,79 @@
     <t>ev</t>
   </si>
   <si>
-    <t>eq</t>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>K_phi</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D/E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratio^4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
+    <t>eq_pla</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -524,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI4" activeCellId="1" sqref="AP4:AP18 AI4:AI18"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -548,14 +532,15 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1031" width="11.5546875"/>
+    <col min="48" max="1027" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,76 +626,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21107232507000001</v>
       </c>
@@ -804,17 +777,17 @@
         <f>AB2-AC2</f>
         <v>-8.3690043125059788E-3</v>
       </c>
-      <c r="AE2">
-        <f>P2-AB2/3</f>
-        <v>7.9876845878364592E-11</v>
+      <c r="AE2" s="1">
+        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-1.957944029456113</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3963053763509379E-10</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>25.737137953530727</v>
+      <c r="AJ2" t="e">
+        <f>(( 1.588*EXP(-0.0005387*4*232))^2-AP2^2)/(2*AP2)+0.4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -824,9 +797,17 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3158.8391152150002</v>
       </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2:AO3" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
-        <v>17887.997608479312</v>
+      <c r="AM2" s="1" t="e">
+        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN2" t="e">
+        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -835,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.6951329181500001</v>
       </c>
@@ -921,99 +902,83 @@
         <f t="shared" si="0"/>
         <v>0.65947632051531757</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">0.0762*AK3^0.2606-0.5912</f>
+      <c r="AC3" s="2">
+        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
         <v>0.67424384941539861</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+      <c r="AD3" s="2">
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>-1.4767528900081039E-2</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
-        <v>0.78844564873822742</v>
-      </c>
-      <c r="AF3">
+      <c r="AE3" s="1">
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-0.80302555194675018</v>
+      </c>
+      <c r="AF3" s="2">
         <f t="shared" si="1"/>
         <v>0.1553407760603176</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+      <c r="AG3" s="2">
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>-6.3985245875750607E-3</v>
       </c>
-      <c r="AH3">
-        <f t="shared" si="8"/>
-        <v>0.78844564865835054</v>
-      </c>
-      <c r="AI3">
+      <c r="AH3" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1549184775093628</v>
+      </c>
+      <c r="AI3" s="2">
         <f>-AG3/AH3</f>
-        <v>8.1153654642688901E-3</v>
+        <v>5.5402391702778766E-3</v>
       </c>
       <c r="AJ3">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
-        <v>11.234514147641812</v>
-      </c>
-      <c r="AK3">
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>-0.24570143998552585</v>
+      </c>
+      <c r="AK3" s="2">
         <f t="shared" si="2"/>
         <v>48151.410099266672</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="2">
         <f t="shared" si="3"/>
         <v>56191.075637300004</v>
       </c>
-      <c r="AM3">
-        <v>-0.49972129302590063</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.21063210004711513</v>
-      </c>
-      <c r="AO3">
+      <c r="AM3" s="1">
         <f t="shared" si="4"/>
-        <v>148933.32688217773</v>
-      </c>
-      <c r="AP3">
+        <v>-0.38644914919225221</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.23834654394690125</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP3" s="2">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
         <v>1.80535157822694</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="2">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>5.5335971956021002</v>
       </c>
-      <c r="AR3">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.2150364136063501E-4</v>
-      </c>
-      <c r="AS3">
+      <c r="AR3" s="2">
+        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>2.4314256458514236E-2</v>
+      </c>
+      <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>3.2150364136063501E-4</v>
-      </c>
-      <c r="AT3">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.57667000534880608</v>
-      </c>
-      <c r="AU3">
+        <v>2.4314256458514236E-2</v>
+      </c>
+      <c r="AT3" s="2">
+        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
+        <v>9.8958542774297914E-2</v>
+      </c>
+      <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>0.57667000534880608</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-125.40968590494133</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-693.96668622492359</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>557.46280316443256</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6160.7535421063294</v>
+        <v>9.8958542774297914E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10.9153812583</v>
       </c>
@@ -1100,36 +1065,36 @@
         <v>1.1554047074608276</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0801027198382731</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5301987622554467E-2</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" si="7"/>
-        <v>1.6206165472530574</v>
+        <f t="shared" si="8"/>
+        <v>0.14735098759846932</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="1"/>
         <v>0.15252898259082759</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0069516522635507E-2</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.83217089851482995</v>
+        <f t="shared" si="9"/>
+        <v>0.9503765395452195</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>-0.10823439834700059</v>
-      </c>
-      <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
-        <v>8.2505576928794238</v>
+        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <v>-9.4772453627418207E-2</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="10"/>
+        <v>-0.12601845304669868</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" si="2"/>
@@ -1140,58 +1105,42 @@
         <v>170253.74244015</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.44776726053645066</v>
+        <f t="shared" si="4"/>
+        <v>-0.43953084973448681</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.29480364340897869</v>
+        <f t="shared" si="5"/>
+        <v>-0.29760635336220337</v>
       </c>
       <c r="AO4" s="1">
-        <v>327923.30704855063</v>
+        <v>611250.58749924635</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="17">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6235399819788612</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
         <v>4.5385117491017333</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>5.0864217668996861E-2</v>
+        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>2.1252928880905124E-2</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="20">AS3+AR4</f>
-        <v>5.1185721310357493E-2</v>
+        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <v>4.5567185339419364E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.46994503083876943</v>
+        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <v>0.1686493395775096</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>1.0466150361875755</v>
-      </c>
-      <c r="AV4" s="1">
-        <f t="shared" si="10"/>
-        <v>-373.2179298275318</v>
-      </c>
-      <c r="AW4" s="1">
-        <f t="shared" si="11"/>
-        <v>-1693.8539594976796</v>
-      </c>
-      <c r="AX4" s="1">
-        <f t="shared" si="12"/>
-        <v>18393.149276859527</v>
-      </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="13"/>
-        <v>105227.64192492822</v>
+        <v>0.26760788235180755</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>21.328496033499999</v>
       </c>
@@ -1277,99 +1226,83 @@
         <f t="shared" si="0"/>
         <v>1.3765066520197045</v>
       </c>
-      <c r="AC5" s="2">
-        <f t="shared" si="5"/>
+      <c r="AC5">
+        <f t="shared" si="6"/>
         <v>1.396849870848339</v>
       </c>
-      <c r="AD5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AD5">
+        <f t="shared" si="7"/>
         <v>-2.0343218828634546E-2</v>
       </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="7"/>
-        <v>2.5471234733867654</v>
-      </c>
-      <c r="AF5" s="2">
+      <c r="AE5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1431140075416082</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="1"/>
         <v>-0.12647286001029556</v>
       </c>
-      <c r="AG5" s="2">
-        <f t="shared" si="8"/>
+      <c r="AG5">
+        <f t="shared" si="9"/>
         <v>-9.5645206451189013E-2</v>
       </c>
-      <c r="AH5" s="2">
-        <f t="shared" si="8"/>
-        <v>0.926506926133708</v>
-      </c>
-      <c r="AI5" s="2">
-        <f t="shared" si="14"/>
-        <v>0.10323204689932999</v>
-      </c>
-      <c r="AJ5" s="2">
-        <f t="shared" si="15"/>
-        <v>6.805175075321956</v>
-      </c>
-      <c r="AK5" s="2">
+      <c r="AH5">
+        <f t="shared" si="9"/>
+        <v>0.99576301994313887</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="11"/>
+        <v>9.6052177612149778E-2</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="10"/>
+        <v>-6.2443878918048368E-2</v>
+      </c>
+      <c r="AK5">
         <f t="shared" si="2"/>
         <v>272538.02467499999</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5">
         <f t="shared" si="3"/>
         <v>340575.82544400002</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.46941468249528723</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="5"/>
+        <v>-0.33215661320480044</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="12"/>
+        <v>1.530953324207476</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="13"/>
+        <v>4.1264220860407068</v>
+      </c>
+      <c r="AR5" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3882891787203764E-2</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="15"/>
+        <v>5.9450077126623126E-2</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>-0.55345546238291099</v>
-      </c>
-      <c r="AN5" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.30285145408290759</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP5" s="2">
-        <f t="shared" si="17"/>
-        <v>1.530953324207476</v>
-      </c>
-      <c r="AQ5" s="2">
-        <f t="shared" si="18"/>
-        <v>4.1264220860407068</v>
-      </c>
-      <c r="AR5" s="2">
-        <f t="shared" si="19"/>
-        <v>-6.310801658739261E-2</v>
-      </c>
-      <c r="AS5" s="2">
-        <f t="shared" si="20"/>
-        <v>-1.1922295277035116E-2</v>
-      </c>
-      <c r="AT5" s="2">
-        <f t="shared" si="21"/>
-        <v>0.61132195362680763</v>
-      </c>
-      <c r="AU5" s="2">
+        <v>0.22232590331910221</v>
+      </c>
+      <c r="AU5">
         <f>AU4+AT5</f>
-        <v>1.6579369898143832</v>
-      </c>
-      <c r="AV5" s="2">
-        <f t="shared" si="10"/>
-        <v>-491.72891777093196</v>
-      </c>
-      <c r="AW5" s="2">
-        <f t="shared" si="11"/>
-        <v>-2029.0810666348682</v>
-      </c>
-      <c r="AX5" s="2">
-        <f t="shared" si="12"/>
-        <v>60427.496999885727</v>
-      </c>
-      <c r="AY5" s="2">
-        <f t="shared" si="13"/>
-        <v>296203.65933575178</v>
+        <v>0.48993378567090973</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>33.875225325000002</v>
       </c>
@@ -1455,99 +1388,83 @@
         <f t="shared" si="0"/>
         <v>1.7431384439147379</v>
       </c>
-      <c r="AC6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AC6">
+        <f t="shared" si="6"/>
         <v>1.660819159007948</v>
       </c>
-      <c r="AD6" s="2">
-        <f t="shared" si="6"/>
+      <c r="AD6">
+        <f t="shared" si="7"/>
         <v>8.2319284906789969E-2</v>
       </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="7"/>
-        <v>3.4239152124484211</v>
-      </c>
-      <c r="AF6" s="2">
+      <c r="AE6" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0676385769109573</v>
+      </c>
+      <c r="AF6">
         <f t="shared" si="1"/>
         <v>-0.25934223629526221</v>
       </c>
-      <c r="AG6" s="2">
-        <f t="shared" si="8"/>
+      <c r="AG6">
+        <f t="shared" si="9"/>
         <v>0.10266250373542452</v>
       </c>
-      <c r="AH6" s="2">
-        <f t="shared" si="8"/>
-        <v>0.87679173906165575</v>
-      </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="14"/>
-        <v>-0.11708881272683309</v>
-      </c>
-      <c r="AJ6" s="2">
-        <f t="shared" si="15"/>
-        <v>5.9258721918420578</v>
-      </c>
-      <c r="AK6" s="2">
+      <c r="AH6">
+        <f t="shared" si="9"/>
+        <v>0.92452456936934913</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="11"/>
+        <v>-0.11104356459174929</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="10"/>
+        <v>-1.9919697981638063E-2</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="2"/>
         <v>439740.92971766664</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <f t="shared" si="3"/>
         <v>564985.352006</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.49010584718778216</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="5"/>
+        <v>-0.35652506558484609</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="12"/>
+        <v>1.4707244592370008</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="13"/>
+        <v>3.8851395710609768</v>
+      </c>
+      <c r="AR6" s="1">
+        <f t="shared" si="14"/>
+        <v>5.2637641174772083E-3</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="15"/>
+        <v>6.4713841244100331E-2</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>-0.44365472732982364</v>
-      </c>
-      <c r="AN6" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.37664208407813765</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP6" s="2">
-        <f t="shared" si="17"/>
-        <v>1.4707244592370008</v>
-      </c>
-      <c r="AQ6" s="2">
-        <f t="shared" si="18"/>
-        <v>3.8851395710609768</v>
-      </c>
-      <c r="AR6" s="2">
-        <f t="shared" si="19"/>
-        <v>8.7643466903609954E-2</v>
-      </c>
-      <c r="AS6" s="2">
-        <f t="shared" si="20"/>
-        <v>7.5721171626574837E-2</v>
-      </c>
-      <c r="AT6" s="2">
-        <f t="shared" si="21"/>
-        <v>0.74852127084148656</v>
-      </c>
-      <c r="AU6" s="2">
-        <f t="shared" ref="AU6:AU18" si="22">AU5+AT6</f>
-        <v>2.40645826065587</v>
-      </c>
-      <c r="AV6" s="2">
-        <f t="shared" si="10"/>
-        <v>-499.1954450253026</v>
-      </c>
-      <c r="AW6" s="2">
-        <f t="shared" si="11"/>
-        <v>-1939.4439771611978</v>
-      </c>
-      <c r="AX6" s="2">
-        <f t="shared" si="12"/>
-        <v>125309.92480314396</v>
-      </c>
-      <c r="AY6" s="2">
-        <f t="shared" si="13"/>
-        <v>564056.38955150021</v>
+        <v>0.26424919305148803</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <v>0.7541829787223977</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48.216694473399997</v>
       </c>
@@ -1634,36 +1551,36 @@
         <v>1.869331517916184</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8853745605729537</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.6043042656769702E-2</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="7"/>
-        <v>4.3781385242079391</v>
+      <c r="AE7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.0571596239858931</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-0.63129299717381615</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.8362327563559671E-2</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="8"/>
-        <v>0.95422331175951802</v>
+        <f t="shared" si="9"/>
+        <v>0.98952104707493582</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.10308103601261505</v>
+        <f t="shared" si="11"/>
+        <v>9.9403977160791759E-2</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
-        <v>5.3326451134334727</v>
+        <f t="shared" si="10"/>
+        <v>1.1343347180854502E-2</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1673,59 +1590,43 @@
         <f t="shared" si="3"/>
         <v>826862.72724200005</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.50569320023938902</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="5"/>
+        <v>-0.37509780443236962</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>1.4273635832401048</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="13"/>
+        <v>3.7228739612571808</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.321217012798491E-3</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="15"/>
+        <v>6.1392624231301839E-2</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>-0.55337448369839726</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="9"/>
-        <v>-0.35561711855301054</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP7">
+        <v>0.29278985821787595</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="17"/>
-        <v>1.4273635832401048</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="18"/>
-        <v>3.7228739612571808</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="19"/>
-        <v>-8.3915578540128322E-2</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="20"/>
-        <v>-8.1944069135534842E-3</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="21"/>
-        <v>0.81407387610907156</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="22"/>
-        <v>3.2205321367649415</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-594.61955540822396</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-2213.693659683599</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>210447.60503485054</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>894924.64631279884</v>
+        <v>1.0469728369402738</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64.043480911700001</v>
       </c>
@@ -1812,36 +1713,36 @@
         <v>2.106716425718147</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0805765384109396</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6139887307207399E-2</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="7"/>
-        <v>5.2990118274572842</v>
+      <c r="AE8" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0055467848109405</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-0.893908892296853</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.21829299639771E-2</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="8"/>
-        <v>0.92087330324934502</v>
+        <f t="shared" si="9"/>
+        <v>0.94838716082504737</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>-4.5807528370224913E-2</v>
+        <f t="shared" si="11"/>
+        <v>-4.4478596617946779E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
-        <v>4.9020523295982743</v>
+        <f t="shared" si="10"/>
+        <v>3.5575626060042886E-2</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1851,59 +1752,43 @@
         <f t="shared" si="3"/>
         <v>1116233.2128185001</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.51800128198890094</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="5"/>
+        <v>-0.38988022018144902</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="12"/>
+        <v>1.3943094247322672</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
+        <v>3.6050649724336457</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.1135224119385785E-2</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="15"/>
+        <v>5.0257400111916053E-2</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>-0.4774406977738006</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="9"/>
-        <v>-0.40892490760261707</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP8">
+        <v>0.31300149435437286</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="17"/>
-        <v>1.3943094247322672</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="18"/>
-        <v>3.6050649724336457</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="19"/>
-        <v>4.0360681446043024E-2</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="20"/>
-        <v>3.216627453248954E-2</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="21"/>
-        <v>0.88109275662813724</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="22"/>
-        <v>4.1016248933930788</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-598.57196097663336</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-2157.8908099977793</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>311900.8776448493</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>1272692.9103543505</v>
+        <v>1.3599743312946466</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81.032561823500004</v>
       </c>
@@ -1990,36 +1875,36 @@
         <v>2.1818399647471343</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2544828879374252</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.2642923190290976E-2</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="7"/>
-        <v>6.2776536759509556</v>
+      <c r="AE9" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0066210103312923</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-1.3206268673528658</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.8782810497498375E-2</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="8"/>
-        <v>0.97864184849367142</v>
+        <f t="shared" si="9"/>
+        <v>1.0010742255203517</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.10093867398941214</v>
+        <f t="shared" si="11"/>
+        <v>9.8676809350627046E-2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
-        <v>4.5707346325188603</v>
+        <f t="shared" si="10"/>
+        <v>5.520147616431198E-2</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -2029,59 +1914,43 @@
         <f t="shared" si="3"/>
         <v>1430639.381851</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.52811812542564562</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="5"/>
+        <v>-0.40210040646601486</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="12"/>
+        <v>1.367903658004811</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="13"/>
+        <v>3.5143803514673455</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.8224116588954873E-2</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="15"/>
+        <v>3.2033283522961184E-2</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>-0.55222656369000356</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="9"/>
-        <v>-0.39127370659841565</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP9">
+        <v>0.33013821106358116</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="17"/>
-        <v>1.367903658004811</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="18"/>
-        <v>3.5143803514673455</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="19"/>
-        <v>-9.3015958072695262E-2</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="20"/>
-        <v>-6.0849683540205722E-2</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="21"/>
-        <v>0.92150960971066564</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="22"/>
-        <v>5.0231345031037442</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-670.08542847017156</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-2354.9350636201493</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>426372.24804124137</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>1685430.4045599566</v>
+        <v>1.6901125423582277</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>98.931897493400001</v>
       </c>
@@ -2168,36 +2037,36 @@
         <v>2.3141896037873311</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4085333628906271</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9.4343759103296065E-2</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="7"/>
-        <v>7.2305419317242237</v>
+      <c r="AE10" s="1">
+        <f t="shared" si="8"/>
+        <v>5.9779647961466402</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-1.6867796293726691</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.170083591300509E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="8"/>
-        <v>0.95288825577326808</v>
+        <f t="shared" si="9"/>
+        <v>0.97134378581534797</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>2.277374684967114E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.234104570380235E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
-        <v>4.310990629646497</v>
+        <f t="shared" si="10"/>
+        <v>7.1485563918081363E-2</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2207,59 +2076,43 @@
         <f t="shared" si="3"/>
         <v>1753856.8368215</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.5366152696930474</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="5"/>
+        <v>-0.41240786647941285</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="12"/>
+        <v>1.3462471260541777</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="13"/>
+        <v>3.4421674131553734</v>
+      </c>
+      <c r="AR10" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.4071692318595257E-2</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="15"/>
+        <v>7.9615912043659275E-3</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>-0.51147397522723037</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="9"/>
-        <v>-0.42465789319104263</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP10">
+        <v>0.33673501332632866</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="17"/>
-        <v>1.3462471260541777</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="18"/>
-        <v>3.4421674131553734</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="19"/>
-        <v>-2.1489374936217422E-2</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="20"/>
-        <v>-8.2339058476423144E-2</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="21"/>
-        <v>0.94360295993751708</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="22"/>
-        <v>5.9667374630412615</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-673.54650411299235</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-2318.4598277024634</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>552562.07465563435</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>2128958.0905408026</v>
+        <v>2.0268475556845562</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>117.528065302</v>
       </c>
@@ -2346,36 +2199,36 @@
         <v>2.4013414074031125</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5470735528602022</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14573214545708968</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="7"/>
-        <v>8.203357726998961</v>
+      <c r="AE11" s="1">
+        <f t="shared" si="8"/>
+        <v>6.9663726465933866</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-2.100561023996887</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-5.1388386353793614E-2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="8"/>
-        <v>0.97281579527473738</v>
+        <f t="shared" si="9"/>
+        <v>0.98840785044674639</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>5.2824374977670653E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.1991074666765127E-2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
-        <v>4.1003129562455118</v>
+        <f t="shared" si="10"/>
+        <v>8.5208650692972177E-2</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2385,59 +2238,43 @@
         <f t="shared" si="3"/>
         <v>2082326.4475889998</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.54384978570416198</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="5"/>
+        <v>-0.42121213924462575</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="12"/>
+        <v>1.3281775970539018</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="13"/>
+        <v>3.383346929757689</v>
+      </c>
+      <c r="AR11" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.9078301227907537E-2</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="15"/>
+        <v>-2.111671002354161E-2</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>-0.52688559235960208</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="9"/>
-        <v>-0.42957148929958439</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP11">
+        <v>0.34125996587698398</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="17"/>
-        <v>1.3281775970539018</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="18"/>
-        <v>3.383346929757689</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="19"/>
-        <v>-5.045305833356617E-2</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="20"/>
-        <v>-0.13279211680998931</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="21"/>
-        <v>0.95510942353588157</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="22"/>
-        <v>6.9218468865771428</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-709.31547192388939</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-2399.8603241633177</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>685922.94922622642</v>
-      </c>
-      <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>2588050.269456536</v>
+        <v>2.3681075215615404</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136.61812978099999</v>
       </c>
@@ -2524,36 +2361,36 @@
         <v>2.389703347742278</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6713081659752529</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.2816048182329749</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="7"/>
-        <v>9.2076430177192403</v>
+      <c r="AE12" s="1">
+        <f t="shared" si="8"/>
+        <v>7.9839100670350165</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-2.6124020524077216</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.13587267277588522</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="8"/>
-        <v>1.0042852907202793</v>
+        <f t="shared" si="9"/>
+        <v>1.0175374204416299</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.13529290335262856</v>
+        <f t="shared" si="11"/>
+        <v>0.13353088549501599</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
-        <v>3.9274057902103929</v>
+        <f t="shared" si="10"/>
+        <v>9.6946236905070815E-2</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2563,59 +2400,43 @@
         <f t="shared" si="3"/>
         <v>2404563.7880220003</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.5500918574799577</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>-0.4288276772543213</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="12"/>
+        <v>1.3128555638706789</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="13"/>
+        <v>3.3344573275824394</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.2874885616745529E-2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="15"/>
+        <v>-5.3991595640287139E-2</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>-0.57084122326727471</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="9"/>
-        <v>-0.41886003971565444</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP12">
+        <v>0.33910429807540088</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="17"/>
-        <v>1.3128555638706789</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="18"/>
-        <v>3.3344573275824394</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="19"/>
-        <v>-0.12824935689761974</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="20"/>
-        <v>-0.26104147370760905</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="21"/>
-        <v>0.94793853719991183</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="22"/>
-        <v>7.8697854237770546</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-751.92169199171906</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-2507.2507956299737</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>825161.3651246326</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>3059178.8975431216</v>
+        <v>2.7072118196369415</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>156.072675395</v>
       </c>
@@ -2702,36 +2523,36 @@
         <v>2.4292901229628905</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7854830652636746</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.35619294230078413</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="7"/>
-        <v>10.190712166579036</v>
+      <c r="AE13" s="1">
+        <f t="shared" si="8"/>
+        <v>8.9786019470062275</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-3.0709476474871096</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.4588124067809236E-2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="8"/>
-        <v>0.98306914885979602</v>
+        <f t="shared" si="9"/>
+        <v>0.994691879971211</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>7.5872713688878962E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.4986159603482455E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
-        <v>3.780311704343732</v>
+        <f t="shared" si="10"/>
+        <v>0.10715956116818981</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2741,59 +2562,43 @@
         <f t="shared" si="3"/>
         <v>2729857.9095800002</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.55556453774449954</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="5"/>
+        <v>-0.43551771238748144</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="12"/>
+        <v>1.299624236942982</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="13"/>
+        <v>3.2929477092871307</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.6527929654490796E-2</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="15"/>
+        <v>-9.0519525294777942E-2</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>-0.53892069646424057</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="9"/>
-        <v>-0.44399147420515744</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP13">
+        <v>0.34087419971008681</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="17"/>
-        <v>1.299624236942982</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="18"/>
-        <v>3.2929477092871307</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="19"/>
-        <v>-7.234142586804572E-2</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="20"/>
-        <v>-0.33338289957565476</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="21"/>
-        <v>0.95345773665993261</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="22"/>
-        <v>8.8232431604369879</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-751.84941100988192</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-2475.8007957138689</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>967108.26374702319</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>3532525.9827642194</v>
+        <v>3.0480860193470285</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175.754296737</v>
       </c>
@@ -2880,36 +2685,36 @@
         <v>2.4448155478036693</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.891035728797787</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.44622018099411775</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="7"/>
-        <v>11.186873665065443</v>
+      <c r="AE14" s="1">
+        <f t="shared" si="8"/>
+        <v>9.9850704097233862</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-3.5560905426963307</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.0027238693333622E-2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
-        <v>0.99616149848640667</v>
+        <f t="shared" si="9"/>
+        <v>1.0064684627171587</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>9.0374139966384284E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.9448643477896425E-2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
-        <v>3.6533616335326289</v>
+        <f t="shared" si="10"/>
+        <v>0.11623023818749451</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2919,59 +2724,43 @@
         <f t="shared" si="3"/>
         <v>3057514.1093749995</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56045744691201083</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="5"/>
+        <v>-0.44150848494214134</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="12"/>
+        <v>1.2879526989524848</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="13"/>
+        <v>3.2568641032834522</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.9673795964767097E-2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="15"/>
+        <v>-0.13019332125954503</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>-0.54659059840360724</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="9"/>
-        <v>-0.44864137235163704</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP14">
+        <v>0.34133799072809368</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="17"/>
-        <v>1.2879526989524848</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>3.2568641032834522</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="19"/>
-        <v>-8.6260252468618293E-2</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="20"/>
-        <v>-0.41964315204427305</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="21"/>
-        <v>0.95447937320016241</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="22"/>
-        <v>9.7777225336371494</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-776.92555810996862</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-2530.3409611318184</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>1112923.719481536</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>4012716.6879795757</v>
+        <v>3.3894240100751221</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195.47018625300001</v>
       </c>
@@ -3058,36 +2847,36 @@
         <v>2.4412501984268697</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9857148740799255</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.54446467565305579</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="7"/>
-        <v>12.189923798057709</v>
+      <c r="AE15" s="1">
+        <f t="shared" si="8"/>
+        <v>10.997031822011223</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-4.0605867336731301</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.8244494658938031E-2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
-        <v>1.0030501329922661</v>
+        <f t="shared" si="9"/>
+        <v>1.0119614122878371</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>9.7945747104243225E-2</v>
+        <f t="shared" si="11"/>
+        <v>9.7083241975430057E-2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
-        <v>3.546203292544488</v>
+        <f t="shared" si="10"/>
+        <v>0.12422629542703967</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -3097,59 +2886,43 @@
         <f t="shared" si="3"/>
         <v>3359958.1973350001</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56479628172559215</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="5"/>
+        <v>-0.44682766188478235</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="12"/>
+        <v>1.2777264128670414</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="13"/>
+        <v>3.2256505976975216</v>
+      </c>
+      <c r="AR15" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.0818872397621622E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="15"/>
+        <v>-0.17101219365716663</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>-0.55062573193101583</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="9"/>
-        <v>-0.45420632083509743</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP15">
+        <v>0.32858479967790155</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="17"/>
-        <v>1.2777264128670414</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="18"/>
-        <v>3.2256505976975216</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="19"/>
-        <v>-8.9979318702840774E-2</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="20"/>
-        <v>-0.50962247074711386</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="21"/>
-        <v>0.91866488707341321</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="22"/>
-        <v>10.696387420710563</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-795.77240329076869</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-2566.8837283060602</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>1261788.2456345556</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>4497573.0583060011</v>
+        <v>3.7180088097530235</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>214.993858558</v>
       </c>
@@ -3236,36 +3009,36 @@
         <v>2.4434713211957559</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0727789280619566</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.62930760686620069</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="7"/>
-        <v>13.186169417201416</v>
+      <c r="AE16" s="1">
+        <f t="shared" si="8"/>
+        <v>12.00121002402766</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-4.5568586076042443</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.4842931213144901E-2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="8"/>
-        <v>0.99624561914370702</v>
+        <f t="shared" si="9"/>
+        <v>1.0041782020164369</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>8.5162664289624768E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.4489915278758612E-2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
-        <v>3.4528127862433831</v>
+        <f t="shared" si="10"/>
+        <v>0.13127850681138575</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3275,59 +3048,43 @@
         <f t="shared" si="3"/>
         <v>3657330.6336000003</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56864303860958021</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="5"/>
+        <v>-0.45154843930230876</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="12"/>
+        <v>1.2687561598004613</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="13"/>
+        <v>3.1985744532455254</v>
+      </c>
+      <c r="AR16" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.2222658195647599E-2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="15"/>
+        <v>-0.21323485185281424</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>-0.54382542890795815</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="9"/>
-        <v>-0.4647702997366947</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP16">
+        <v>0.32162658778798392</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="17"/>
-        <v>1.2687561598004613</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="18"/>
-        <v>3.1985744532455254</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="19"/>
-        <v>-7.6570186321909581E-2</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="20"/>
-        <v>-0.58619265706902346</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="21"/>
-        <v>0.89910510621774831</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="22"/>
-        <v>11.595492526928311</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-802.28681934192161</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-2566.1741245226781</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>1407546.7614916002</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>4967760.8249335932</v>
+        <v>4.0396353975410078</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>234.41600230899999</v>
       </c>
@@ -3414,36 +3171,36 @@
         <v>2.364402806097432</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.153147818566028</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.78874501246859596</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="7"/>
-        <v>14.215500696200856</v>
+      <c r="AE17" s="1">
+        <f t="shared" si="8"/>
+        <v>13.03765304046761</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-5.1374146763525683</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.15943740560239528</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="8"/>
-        <v>1.0293312789994395</v>
+        <f t="shared" si="9"/>
+        <v>1.0364430164399501</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>0.15489416172932804</v>
+        <f t="shared" si="11"/>
+        <v>0.1538313279875651</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
-        <v>3.3706654309529607</v>
+        <f t="shared" si="10"/>
+        <v>0.13761009744183111</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3453,59 +3210,43 @@
         <f t="shared" si="3"/>
         <v>3941363.2401150004</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.57211286833365005</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="5"/>
+        <v>-0.45581021362178303</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="12"/>
+        <v>1.2607418217171571</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="13"/>
+        <v>3.1746199111655953</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.3216885192860946E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="15"/>
+        <v>-0.2564517370456752</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-0.58166347960370257</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="9"/>
-        <v>-0.45087457541341269</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP17">
+        <v>0.31405315450146432</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="17"/>
-        <v>1.2607418217171571</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="18"/>
-        <v>3.1746199111655953</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="19"/>
-        <v>-0.13606457264129473</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="20"/>
-        <v>-0.72225722971031825</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="21"/>
-        <v>0.87843577267336048</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="22"/>
-        <v>12.47392829960167</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-839.52217257407631</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-2665.1638049186608</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>1552321.2396476378</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>5430852.8826146573</v>
+        <v>4.3536885520424722</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>253.35444194799999</v>
       </c>
@@ -3592,36 +3333,36 @@
         <v>2.3233956477578976</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2263870930628826</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.90299144530498499</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="7"/>
-        <v>15.2256821864807</v>
+      <c r="AE18" s="1">
+        <f t="shared" si="8"/>
+        <v>14.054147609390709</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-5.6766780534421022</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.11424643283638902</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="8"/>
-        <v>1.0101814902798445</v>
+        <f t="shared" si="9"/>
+        <v>1.0164945689230986</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>0.11309495762463438</v>
+        <f t="shared" si="11"/>
+        <v>0.11239256591151758</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
-        <v>3.2989793993605172</v>
+        <f t="shared" si="10"/>
+        <v>0.14328534385930464</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3631,59 +3372,43 @@
         <f t="shared" si="3"/>
         <v>4209897.37249</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.57523608118401159</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="5"/>
+        <v>-0.45964889160139671</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>611250.58749924635</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="12"/>
+        <v>1.2535900285927311</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="13"/>
+        <v>3.1534291187926158</v>
+      </c>
+      <c r="AR18" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.312983337320267E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="15"/>
+        <v>-0.2995815704188779</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-0.55876273515992358</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="9"/>
-        <v>-0.46849412327905005</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>327923.30704855063</v>
-      </c>
-      <c r="AP18">
+        <v>0.3010065943349578</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="17"/>
-        <v>1.2535900285927311</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="18"/>
-        <v>3.1534291187926158</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="19"/>
-        <v>-9.5133315718812339E-2</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="20"/>
-        <v>-0.81739054542913059</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="21"/>
-        <v>0.84118087770599559</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="22"/>
-        <v>13.315109177307667</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-834.47728261482496</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-2631.4649619685242</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>1695616.6563328425</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>5885779.048837116</v>
+        <v>4.6546951463774295</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271.24010243100003</v>
       </c>
@@ -3770,7 +3495,7 @@
         <v>1.4492856262416809</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>252.61299326599999</v>
       </c>
@@ -3857,7 +3582,7 @@
         <v>-1.4682985899516554</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>252.40713851999999</v>
       </c>
@@ -3944,7 +3669,7 @@
         <v>-2.5329629643248808</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>259.70708336000001</v>
       </c>

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -951,7 +951,7 @@
         <v>-0.23834654394690125</v>
       </c>
       <c r="AO3" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP3" s="2">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -963,19 +963,19 @@
       </c>
       <c r="AR3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.4314256458514236E-2</v>
+        <v>2.5711225059074812E-2</v>
       </c>
       <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>2.4314256458514236E-2</v>
+        <v>2.5711225059074812E-2</v>
       </c>
       <c r="AT3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>9.8958542774297914E-2</v>
+        <v>0.10464417734218186</v>
       </c>
       <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>9.8958542774297914E-2</v>
+        <v>0.10464417734218186</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>-0.29760635336220337</v>
       </c>
       <c r="AO4" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>2.1252928880905124E-2</v>
+        <v>2.2474009787377791E-2</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
-        <v>4.5567185339419364E-2</v>
+        <v>4.8185234846452603E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.1686493395775096</v>
+        <v>0.17833903879973517</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>0.26760788235180755</v>
+        <v>0.28298321614191702</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>-0.33215661320480044</v>
       </c>
       <c r="AO5" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP5">
         <f t="shared" si="12"/>
@@ -1287,19 +1287,19 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>1.3882891787203764E-2</v>
+        <v>1.4680529335561228E-2</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>5.9450077126623126E-2</v>
+        <v>6.2865764182013825E-2</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>0.22232590331910221</v>
+        <v>0.2350995740483707</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>0.48993378567090973</v>
+        <v>0.51808279019028769</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>-0.35652506558484609</v>
       </c>
       <c r="AO6" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP6">
         <f t="shared" si="12"/>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>5.2637641174772083E-3</v>
+        <v>5.5661921685023165E-3</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>6.4713841244100331E-2</v>
+        <v>6.8431956350516146E-2</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>0.26424919305148803</v>
+        <v>0.27943155431539302</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>0.7541829787223977</v>
+        <v>0.79751434450568071</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>-0.37509780443236962</v>
       </c>
       <c r="AO7" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP7">
         <f t="shared" si="12"/>
@@ -1611,19 +1611,19 @@
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>-3.321217012798491E-3</v>
+        <v>-3.5120365795182624E-3</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>6.1392624231301839E-2</v>
+        <v>6.4919919770997883E-2</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>0.29278985821787595</v>
+        <v>0.30961201517714121</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>1.0469728369402738</v>
+        <v>1.1071263596828218</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>-0.38988022018144902</v>
       </c>
       <c r="AO8" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP8">
         <f t="shared" si="12"/>
@@ -1773,19 +1773,19 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>-1.1135224119385785E-2</v>
+        <v>-1.1774995213415665E-2</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>5.0257400111916053E-2</v>
+        <v>5.314492455758222E-2</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>0.31300149435437286</v>
+        <v>0.33098490504544842</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>1.3599743312946466</v>
+        <v>1.4381112647282701</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>-0.40210040646601486</v>
       </c>
       <c r="AO9" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP9">
         <f t="shared" si="12"/>
@@ -1935,19 +1935,19 @@
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>-1.8224116588954873E-2</v>
+        <v>-1.9271177957710408E-2</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>3.2033283522961184E-2</v>
+        <v>3.3873746599871815E-2</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>0.33013821106358116</v>
+        <v>0.34910620687657112</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>1.6901125423582277</v>
+        <v>1.7872174716048412</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>-0.41240786647941285</v>
       </c>
       <c r="AO10" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP10">
         <f t="shared" si="12"/>
@@ -2097,19 +2097,19 @@
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>-2.4071692318595257E-2</v>
+        <v>-2.5454724466372789E-2</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>7.9615912043659275E-3</v>
+        <v>8.419022133499026E-3</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>0.33673501332632866</v>
+        <v>0.35608202651296883</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>2.0268475556845562</v>
+        <v>2.14329949811781</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>-0.42121213924462575</v>
       </c>
       <c r="AO11" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -2259,19 +2259,19 @@
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>-2.9078301227907537E-2</v>
+        <v>-3.0748986648304354E-2</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-2.111671002354161E-2</v>
+        <v>-2.2329964514805328E-2</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>0.34125996587698398</v>
+        <v>0.36086695890890869</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>2.3681075215615404</v>
+        <v>2.5041664570267188</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>-0.4288276772543213</v>
       </c>
       <c r="AO12" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
@@ -2421,19 +2421,19 @@
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>-3.2874885616745529E-2</v>
+        <v>-3.4763702699512303E-2</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-5.3991595640287139E-2</v>
+        <v>-5.7093667214317634E-2</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>0.33910429807540088</v>
+        <v>0.35858743783477387</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>2.7072118196369415</v>
+        <v>2.8627538948614926</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>-0.43551771238748144</v>
       </c>
       <c r="AO13" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP13">
         <f t="shared" si="12"/>
@@ -2583,19 +2583,19 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>-3.6527929654490796E-2</v>
+        <v>-3.8626631330105486E-2</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-9.0519525294777942E-2</v>
+        <v>-9.5720298544423127E-2</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>0.34087419971008681</v>
+        <v>0.36045902865802104</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>3.0480860193470285</v>
+        <v>3.2232129235195135</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>-0.44150848494214134</v>
       </c>
       <c r="AO14" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP14">
         <f t="shared" si="12"/>
@@ -2745,19 +2745,19 @@
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>-3.9673795964767097E-2</v>
+        <v>-4.1953242483001821E-2</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-0.13019332125954503</v>
+        <v>-0.13767354102742496</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.34133799072809368</v>
+        <v>0.36094946665536209</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>3.3894240100751221</v>
+        <v>3.5841623901748756</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>-0.44682766188478235</v>
       </c>
       <c r="AO15" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP15">
         <f t="shared" si="12"/>
@@ -2907,19 +2907,19 @@
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>-4.0818872397621622E-2</v>
+        <v>-4.3164108952441216E-2</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-0.17101219365716663</v>
+        <v>-0.18083764997986618</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>0.32858479967790155</v>
+        <v>0.34746354468722201</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>3.7180088097530235</v>
+        <v>3.9316259348620974</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>-0.45154843930230876</v>
       </c>
       <c r="AO16" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP16">
         <f t="shared" si="12"/>
@@ -3069,19 +3069,19 @@
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>-4.2222658195647599E-2</v>
+        <v>-4.4648548859101009E-2</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-0.21323485185281424</v>
+        <v>-0.2254861988389672</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>0.32162658778798392</v>
+        <v>0.34010555073763721</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>4.0396353975410078</v>
+        <v>4.2717314855997346</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>-0.45581021362178303</v>
       </c>
       <c r="AO17" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP17">
         <f t="shared" si="12"/>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>-4.3216885192860946E-2</v>
+        <v>-4.5699898882029993E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-0.2564517370456752</v>
+        <v>-0.27118609772099722</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>0.31405315450146432</v>
+        <v>0.33209698802333681</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>4.3536885520424722</v>
+        <v>4.6038284736230715</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>-0.45964889160139671</v>
       </c>
       <c r="AO18" s="1">
-        <v>611250.58749924635</v>
+        <v>578039.49484035082</v>
       </c>
       <c r="AP18">
         <f t="shared" si="12"/>
@@ -3393,19 +3393,19 @@
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>-4.312983337320267E-2</v>
+        <v>-4.560784552515048E-2</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-0.2995815704188779</v>
+        <v>-0.31679394324614768</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>0.3010065943349578</v>
+        <v>0.31830084150081606</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>4.6546951463774295</v>
+        <v>4.9221293151238878</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t># avgT</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>eq_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU22"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AO18"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2:AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -537,10 +541,11 @@
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="1027" width="11.5546875"/>
+    <col min="48" max="48" width="13.33203125" customWidth="1"/>
+    <col min="49" max="1028" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +687,11 @@
       <c r="AU1" t="s">
         <v>43</v>
       </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21107232507000001</v>
       </c>
@@ -809,14 +817,21 @@
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AQ2">
+        <v>5.25</v>
+      </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
+      <c r="AV2">
+        <f>(AQ2*-X2+2*X2*(1-0.01*P2-2*0.01*AF2)/(0.08/0.4*0.01*-P2+(2*0.08/0.4+3)*0.01*-AF2+0.08/0.4+1)-4*4*232000*(0.4*0.01*-AF2+0.08*0.01*-P2)/((1+2*0.01*-AF2)*0.4*0.08))/-1000</f>
+        <v>6.1460394527626097</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.6951329181500001</v>
       </c>
@@ -977,8 +992,12 @@
         <f>AU2+AT3</f>
         <v>0.10464417734218186</v>
       </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*-X3+2*X3*(1-0.01*P3-2*0.01*AF3)/(0.08/0.4*0.01*-P3+(2*0.08/0.4+3)*0.01*-AF3+0.08/0.4+1)-4*4*232000*(0.4*0.01*-AF3+0.08*0.01*-P3)/((1+2*0.01*-AF3)*0.4*0.08))/-1000</f>
+        <v>-50.677085548587215</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10.9153812583</v>
       </c>
@@ -1089,7 +1108,7 @@
         <v>0.9503765395452195</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
         <v>-9.4772453627418207E-2</v>
       </c>
       <c r="AJ4">
@@ -1116,31 +1135,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6235399819788612</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
         <v>4.5385117491017333</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>2.2474009787377791E-2</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
         <v>4.8185234846452603E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.17833903879973517</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
         <v>0.28298321614191702</v>
       </c>
+      <c r="AV4">
+        <f t="shared" si="11"/>
+        <v>-12.00593491906338</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>21.328496033499999</v>
       </c>
@@ -1251,7 +1274,7 @@
         <v>0.99576301994313887</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6052177612149778E-2</v>
       </c>
       <c r="AJ5">
@@ -1278,31 +1301,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.530953324207476</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.1264220860407068</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4680529335561228E-2</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.2865764182013825E-2</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.2350995740483707</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
         <v>0.51808279019028769</v>
       </c>
+      <c r="AV5">
+        <f t="shared" si="11"/>
+        <v>187.28903186473093</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>33.875225325000002</v>
       </c>
@@ -1413,7 +1440,7 @@
         <v>0.92452456936934913</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11104356459174929</v>
       </c>
       <c r="AJ6">
@@ -1440,31 +1467,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4707244592370008</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8851395710609768</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5661921685023165E-3</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8431956350516146E-2</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.27943155431539302</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
         <v>0.79751434450568071</v>
       </c>
+      <c r="AV6">
+        <f t="shared" si="11"/>
+        <v>338.09870948365665</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48.216694473399997</v>
       </c>
@@ -1575,7 +1606,7 @@
         <v>0.98952104707493582</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9403977160791759E-2</v>
       </c>
       <c r="AJ7">
@@ -1602,31 +1633,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4273635832401048</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7228739612571808</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.5120365795182624E-3</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.4919919770997883E-2</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.30961201517714121</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1071263596828218</v>
       </c>
+      <c r="AV7">
+        <f t="shared" si="11"/>
+        <v>616.97835253614357</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64.043480911700001</v>
       </c>
@@ -1737,7 +1772,7 @@
         <v>0.94838716082504737</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.4478596617946779E-2</v>
       </c>
       <c r="AJ8">
@@ -1764,31 +1799,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3943094247322672</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6050649724336457</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.1774995213415665E-2</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.314492455758222E-2</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33098490504544842</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4381112647282701</v>
       </c>
+      <c r="AV8">
+        <f t="shared" si="11"/>
+        <v>856.26475549937834</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81.032561823500004</v>
       </c>
@@ -1899,7 +1938,7 @@
         <v>1.0010742255203517</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.8676809350627046E-2</v>
       </c>
       <c r="AJ9">
@@ -1926,31 +1965,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.367903658004811</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5143803514673455</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.9271177957710408E-2</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.3873746599871815E-2</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34910620687657112</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7872174716048412</v>
       </c>
+      <c r="AV9">
+        <f t="shared" si="11"/>
+        <v>1180.3622847200818</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>98.931897493400001</v>
       </c>
@@ -2061,7 +2104,7 @@
         <v>0.97134378581534797</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.234104570380235E-2</v>
       </c>
       <c r="AJ10">
@@ -2088,31 +2131,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3462471260541777</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4421674131553734</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.5454724466372789E-2</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.419022133499026E-3</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.35608202651296883</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.14329949811781</v>
       </c>
+      <c r="AV10">
+        <f t="shared" si="11"/>
+        <v>1483.0723850199154</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>117.528065302</v>
       </c>
@@ -2223,7 +2270,7 @@
         <v>0.98840785044674639</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1991074666765127E-2</v>
       </c>
       <c r="AJ11">
@@ -2250,31 +2297,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3281775970539018</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.383346929757689</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.0748986648304354E-2</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.2329964514805328E-2</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.36086695890890869</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5041664570267188</v>
       </c>
+      <c r="AV11">
+        <f t="shared" si="11"/>
+        <v>1813.2474038801342</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136.61812978099999</v>
       </c>
@@ -2385,7 +2436,7 @@
         <v>1.0175374204416299</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13353088549501599</v>
       </c>
       <c r="AJ12">
@@ -2412,31 +2463,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3128555638706789</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3344573275824394</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.4763702699512303E-2</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-5.7093667214317634E-2</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.35858743783477387</v>
       </c>
       <c r="AU12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8627538948614926</v>
       </c>
+      <c r="AV12">
+        <f t="shared" si="11"/>
+        <v>2191.8366881175111</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>156.072675395</v>
       </c>
@@ -2547,7 +2602,7 @@
         <v>0.994691879971211</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4986159603482455E-2</v>
       </c>
       <c r="AJ13">
@@ -2574,31 +2629,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.299624236942982</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2929477092871307</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.8626631330105486E-2</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-9.5720298544423127E-2</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.36045902865802104</v>
       </c>
       <c r="AU13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2232129235195135</v>
       </c>
+      <c r="AV13">
+        <f t="shared" si="11"/>
+        <v>2548.3361646415678</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175.754296737</v>
       </c>
@@ -2709,7 +2768,7 @@
         <v>1.0064684627171587</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9448643477896425E-2</v>
       </c>
       <c r="AJ14">
@@ -2736,31 +2795,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2879526989524848</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2568641032834522</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.1953242483001821E-2</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.13767354102742496</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.36094946665536209</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5841623901748756</v>
       </c>
+      <c r="AV14">
+        <f t="shared" si="11"/>
+        <v>2918.5922130417102</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195.47018625300001</v>
       </c>
@@ -2871,7 +2934,7 @@
         <v>1.0119614122878371</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.7083241975430057E-2</v>
       </c>
       <c r="AJ15">
@@ -2898,31 +2961,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2777264128670414</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2256505976975216</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.3164108952441216E-2</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.18083764997986618</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34746354468722201</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9316259348620974</v>
       </c>
+      <c r="AV15">
+        <f t="shared" si="11"/>
+        <v>3296.803330559731</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>214.993858558</v>
       </c>
@@ -3033,7 +3100,7 @@
         <v>1.0041782020164369</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.4489915278758612E-2</v>
       </c>
       <c r="AJ16">
@@ -3060,31 +3127,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2687561598004613</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1985744532455254</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.4648548859101009E-2</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.2254861988389672</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34010555073763721</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.2717314855997346</v>
       </c>
+      <c r="AV16">
+        <f t="shared" si="11"/>
+        <v>3668.8693279836257</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>234.41600230899999</v>
       </c>
@@ -3195,7 +3266,7 @@
         <v>1.0364430164399501</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1538313279875651</v>
       </c>
       <c r="AJ17">
@@ -3222,31 +3293,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2607418217171571</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1746199111655953</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.5699898882029993E-2</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.27118609772099722</v>
       </c>
       <c r="AT17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33209698802333681</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.6038284736230715</v>
       </c>
+      <c r="AV17">
+        <f t="shared" si="11"/>
+        <v>4075.2229728337429</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>253.35444194799999</v>
       </c>
@@ -3357,7 +3432,7 @@
         <v>1.0164945689230986</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11239256591151758</v>
       </c>
       <c r="AJ18">
@@ -3384,31 +3459,35 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2535900285927311</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1534291187926158</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.560784552515048E-2</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.31679394324614768</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.31830084150081606</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.9221293151238878</v>
       </c>
+      <c r="AV18">
+        <f t="shared" si="11"/>
+        <v>4457.3645546829293</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271.24010243100003</v>
       </c>
@@ -3495,7 +3574,7 @@
         <v>1.4492856262416809</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>252.61299326599999</v>
       </c>
@@ -3582,7 +3661,7 @@
         <v>-1.4682985899516554</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>252.40713851999999</v>
       </c>
@@ -3669,7 +3748,7 @@
         <v>-2.5329629643248808</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>259.70708336000001</v>
       </c>
@@ -3759,7 +3838,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2:AV18"/>
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,8 +827,8 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <f>(AQ2*-X2+2*X2*(1-0.01*P2-2*0.01*AF2)/(0.08/0.4*0.01*-P2+(2*0.08/0.4+3)*0.01*-AF2+0.08/0.4+1)-4*4*232000*(0.4*0.01*-AF2+0.08*0.01*-P2)/((1+2*0.01*-AF2)*0.4*0.08))/-1000</f>
-        <v>6.1460394527626097</v>
+        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>7.8612131113106152</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
@@ -993,8 +993,8 @@
         <v>0.10464417734218186</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*-X3+2*X3*(1-0.01*P3-2*0.01*AF3)/(0.08/0.4*0.01*-P3+(2*0.08/0.4+3)*0.01*-AF3+0.08/0.4+1)-4*4*232000*(0.4*0.01*-AF3+0.08*0.01*-P3)/((1+2*0.01*-AF3)*0.4*0.08))/-1000</f>
-        <v>-50.677085548587215</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>145.04487274062302</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="AV4">
         <f t="shared" si="11"/>
-        <v>-12.00593491906338</v>
+        <v>329.15246918239973</v>
       </c>
     </row>
     <row r="5" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AV5">
         <f t="shared" si="11"/>
-        <v>187.28903186473093</v>
+        <v>565.33775010196928</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="AV6">
         <f t="shared" si="11"/>
-        <v>338.09870948365665</v>
+        <v>837.17342947938107</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AV7">
         <f t="shared" si="11"/>
-        <v>616.97835253614357</v>
+        <v>1137.3051211875736</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="AV8">
         <f t="shared" si="11"/>
-        <v>856.26475549937834</v>
+        <v>1458.1236935664597</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="AV9">
         <f t="shared" si="11"/>
-        <v>1180.3622847200818</v>
+        <v>1795.3313713905945</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="AV10">
         <f t="shared" si="11"/>
-        <v>1483.0723850199154</v>
+        <v>2143.0659548129793</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="AV11">
         <f t="shared" si="11"/>
-        <v>1813.2474038801342</v>
+        <v>2500.9175742925768</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="AV12">
         <f t="shared" si="11"/>
-        <v>2191.8366881175111</v>
+        <v>2866.2659896640589</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AV13">
         <f t="shared" si="11"/>
-        <v>2548.3361646415678</v>
+        <v>3234.323601745707</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AV14">
         <f t="shared" si="11"/>
-        <v>2918.5922130417102</v>
+        <v>3606.6127262077102</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AV15">
         <f t="shared" si="11"/>
-        <v>3296.803330559731</v>
+        <v>3978.5015635775085</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="AV16">
         <f t="shared" si="11"/>
-        <v>3668.8693279836257</v>
+        <v>4345.7465115825007</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="AV17">
         <f t="shared" si="11"/>
-        <v>4075.2229728337429</v>
+        <v>4712.6117543900555</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="AV18">
         <f t="shared" si="11"/>
-        <v>4457.3645546829293</v>
+        <v>5068.8909909224749</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -105,6 +105,58 @@
     <t>ev</t>
   </si>
   <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ev_ela</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,6 +165,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>er_from_ev</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,62 +182,6 @@
   </si>
   <si>
     <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D/E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3:AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -631,64 +631,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>40</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -778,19 +778,19 @@
         <v>-2.3963053763509379E-10</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
-        <v>8.3690040728754411E-3</v>
+        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>7.4281330067596614E-3</v>
       </c>
       <c r="AD2">
         <f>AB2-AC2</f>
-        <v>-8.3690043125059788E-3</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-1.957944029456113</v>
+        <v>-7.428133246390199E-3</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>P2-AB2/3</f>
+        <v>7.9876845878364592E-11</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
+        <f t="shared" ref="AF2:AF22" si="1">AB2-P2/2</f>
         <v>-2.3963053763509379E-10</v>
       </c>
       <c r="AJ2" t="e">
@@ -798,19 +798,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+        <f t="shared" ref="AK2:AK22" si="2">(X2+Y2+Z2)/3</f>
         <v>2740.1550688233333</v>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+        <f t="shared" ref="AL2:AL22" si="3">Z2-(Y2+X2)/2</f>
         <v>3158.8391152150002</v>
       </c>
       <c r="AM2" s="1" t="e">
-        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
+        <f t="shared" ref="AM2:AM22" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN2" t="e">
-        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <f t="shared" ref="AN2:AN22" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO2" s="1" t="e">
@@ -917,36 +917,36 @@
         <f t="shared" si="0"/>
         <v>0.65947632051531757</v>
       </c>
-      <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
-        <v>0.67424384941539861</v>
-      </c>
-      <c r="AD3" s="2">
-        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
-        <v>-1.4767528900081039E-2</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-0.80302555194675018</v>
-      </c>
-      <c r="AF3" s="2">
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC22" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>0.62816806732205577</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD22" si="7">AB3-AC3</f>
+        <v>3.1308253193261804E-2</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" ref="AE3:AE22" si="8">P3-AB3/3</f>
+        <v>0.78844564873822742</v>
+      </c>
+      <c r="AF3">
         <f t="shared" si="1"/>
         <v>0.1553407760603176</v>
       </c>
-      <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
-        <v>-6.3985245875750607E-3</v>
-      </c>
-      <c r="AH3" s="2">
+      <c r="AG3" s="1">
+        <f t="shared" ref="AG3:AH19" si="9">AD3-AD2</f>
+        <v>3.8736386439652E-2</v>
+      </c>
+      <c r="AH3" s="1">
         <f t="shared" si="9"/>
-        <v>1.1549184775093628</v>
-      </c>
-      <c r="AI3" s="2">
-        <f>-AG3/AH3</f>
-        <v>5.5402391702778766E-3</v>
+        <v>0.78844564865835054</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI22" si="10">-AG3/AH3</f>
+        <v>-4.9130065598773136E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ22" si="11">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>-0.24570143998552585</v>
       </c>
       <c r="AK3" s="2">
@@ -993,7 +993,7 @@
         <v>0.10464417734218186</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>145.04487274062302</v>
       </c>
     </row>
@@ -1083,36 +1083,36 @@
         <f t="shared" si="0"/>
         <v>1.1554047074608276</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <f t="shared" si="6"/>
-        <v>1.0801027198382731</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>1.0343812717757865</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="7"/>
-        <v>7.5301987622554467E-2</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>0.12102343568504104</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="8"/>
-        <v>0.14735098759846932</v>
-      </c>
-      <c r="AF4" s="1">
+        <v>1.6206165472530574</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="1"/>
         <v>0.15252898259082759</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="9"/>
-        <v>9.0069516522635507E-2</v>
+        <v>8.9715182491779233E-2</v>
       </c>
       <c r="AH4" s="1">
         <f t="shared" si="9"/>
-        <v>0.9503765395452195</v>
-      </c>
-      <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
-        <v>-9.4772453627418207E-2</v>
+        <v>0.83217089851482995</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="10"/>
+        <v>-0.1078086035595493</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.12601845304669868</v>
       </c>
       <c r="AK4" s="1">
@@ -1135,7 +1135,7 @@
         <v>578039.49484035082</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP22" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6235399819788612</v>
       </c>
       <c r="AQ4" s="1">
@@ -1159,7 +1159,7 @@
         <v>0.28298321614191702</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>329.15246918239973</v>
       </c>
     </row>
@@ -1251,34 +1251,34 @@
       </c>
       <c r="AC5">
         <f t="shared" si="6"/>
-        <v>1.396849870848339</v>
+        <v>1.3622082097068715</v>
       </c>
       <c r="AD5">
         <f t="shared" si="7"/>
-        <v>-2.0343218828634546E-2</v>
-      </c>
-      <c r="AE5" s="1">
+        <v>1.4298442312832949E-2</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="8"/>
-        <v>1.1431140075416082</v>
+        <v>2.5471234733867654</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-0.12647286001029556</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <f t="shared" si="9"/>
-        <v>-9.5645206451189013E-2</v>
-      </c>
-      <c r="AH5">
+        <v>-0.10672499337220809</v>
+      </c>
+      <c r="AH5" s="1">
         <f t="shared" si="9"/>
-        <v>0.99576301994313887</v>
+        <v>0.926506926133708</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="12"/>
-        <v>9.6052177612149778E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.11519071294757506</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.2443878918048368E-2</v>
       </c>
       <c r="AK5">
@@ -1325,7 +1325,7 @@
         <v>0.51808279019028769</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>565.33775010196928</v>
       </c>
     </row>
@@ -1417,34 +1417,34 @@
       </c>
       <c r="AC6">
         <f t="shared" si="6"/>
-        <v>1.660819159007948</v>
+        <v>1.6415850589659351</v>
       </c>
       <c r="AD6">
         <f t="shared" si="7"/>
-        <v>8.2319284906789969E-2</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>0.10155338494880284</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="8"/>
-        <v>2.0676385769109573</v>
+        <v>3.4239152124484211</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
         <v>-0.25934223629526221</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <f t="shared" si="9"/>
-        <v>0.10266250373542452</v>
-      </c>
-      <c r="AH6">
+        <v>8.725494263596989E-2</v>
+      </c>
+      <c r="AH6" s="1">
         <f t="shared" si="9"/>
-        <v>0.92452456936934913</v>
+        <v>0.87679173906165575</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>-0.11104356459174929</v>
+        <f t="shared" si="10"/>
+        <v>-9.9516155032836312E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.9919697981638063E-2</v>
       </c>
       <c r="AK6">
@@ -1491,7 +1491,7 @@
         <v>0.79751434450568071</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>837.17342947938107</v>
       </c>
     </row>
@@ -1583,34 +1583,34 @@
       </c>
       <c r="AC7">
         <f t="shared" si="6"/>
-        <v>1.8853745605729537</v>
+        <v>1.883206681787722</v>
       </c>
       <c r="AD7">
         <f t="shared" si="7"/>
-        <v>-1.6043042656769702E-2</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>-1.3875163871537977E-2</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="8"/>
-        <v>3.0571596239858931</v>
+        <v>4.3781385242079391</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-0.63129299717381615</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <f t="shared" si="9"/>
-        <v>-9.8362327563559671E-2</v>
-      </c>
-      <c r="AH7">
+        <v>-0.11542854882034081</v>
+      </c>
+      <c r="AH7" s="1">
         <f t="shared" si="9"/>
-        <v>0.98952104707493582</v>
+        <v>0.95422331175951802</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>9.9403977160791759E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.12096597033193311</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1343347180854502E-2</v>
       </c>
       <c r="AK7">
@@ -1657,7 +1657,7 @@
         <v>1.1071263596828218</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1137.3051211875736</v>
       </c>
     </row>
@@ -1749,34 +1749,34 @@
       </c>
       <c r="AC8">
         <f t="shared" si="6"/>
-        <v>2.0805765384109396</v>
+        <v>2.0959659402397075</v>
       </c>
       <c r="AD8">
         <f t="shared" si="7"/>
-        <v>2.6139887307207399E-2</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>1.0750485478439487E-2</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="8"/>
-        <v>4.0055467848109405</v>
+        <v>5.2990118274572842</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-0.893908892296853</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <f t="shared" si="9"/>
-        <v>4.21829299639771E-2</v>
-      </c>
-      <c r="AH8">
+        <v>2.4625649349977463E-2</v>
+      </c>
+      <c r="AH8" s="1">
         <f t="shared" si="9"/>
-        <v>0.94838716082504737</v>
+        <v>0.92087330324934502</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>-4.4478596617946779E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.6741625870882232E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5575626060042886E-2</v>
       </c>
       <c r="AK8">
@@ -1823,7 +1823,7 @@
         <v>1.4381112647282701</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1458.1236935664597</v>
       </c>
     </row>
@@ -1915,34 +1915,34 @@
       </c>
       <c r="AC9">
         <f t="shared" si="6"/>
-        <v>2.2544828879374252</v>
+        <v>2.2875106850711382</v>
       </c>
       <c r="AD9">
         <f t="shared" si="7"/>
-        <v>-7.2642923190290976E-2</v>
-      </c>
-      <c r="AE9" s="1">
+        <v>-0.10567072032400393</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="8"/>
-        <v>5.0066210103312923</v>
+        <v>6.2776536759509556</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-1.3206268673528658</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <f t="shared" si="9"/>
-        <v>-9.8782810497498375E-2</v>
-      </c>
-      <c r="AH9">
+        <v>-0.11642120580244342</v>
+      </c>
+      <c r="AH9" s="1">
         <f t="shared" si="9"/>
-        <v>1.0010742255203517</v>
+        <v>0.97864184849367142</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>9.8676809350627046E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.11896201453232283</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.520147616431198E-2</v>
       </c>
       <c r="AK9">
@@ -1989,7 +1989,7 @@
         <v>1.7872174716048412</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1795.3313713905945</v>
       </c>
     </row>
@@ -2081,34 +2081,34 @@
       </c>
       <c r="AC10">
         <f t="shared" si="6"/>
-        <v>2.4085333628906271</v>
+        <v>2.4586744757517636</v>
       </c>
       <c r="AD10">
         <f t="shared" si="7"/>
-        <v>-9.4343759103296065E-2</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>-0.14448487196443249</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="8"/>
-        <v>5.9779647961466402</v>
+        <v>7.2305419317242237</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-1.6867796293726691</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <f t="shared" si="9"/>
-        <v>-2.170083591300509E-2</v>
-      </c>
-      <c r="AH10">
+        <v>-3.8814151640428562E-2</v>
+      </c>
+      <c r="AH10" s="1">
         <f t="shared" si="9"/>
-        <v>0.97134378581534797</v>
+        <v>0.95288825577326808</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>2.234104570380235E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.0733161947652412E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1485563918081363E-2</v>
       </c>
       <c r="AK10">
@@ -2155,7 +2155,7 @@
         <v>2.14329949811781</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2143.0659548129793</v>
       </c>
     </row>
@@ -2247,34 +2247,34 @@
       </c>
       <c r="AC11">
         <f t="shared" si="6"/>
-        <v>2.5470735528602022</v>
+        <v>2.6137464712908529</v>
       </c>
       <c r="AD11">
         <f t="shared" si="7"/>
-        <v>-0.14573214545708968</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>-0.21240506388774039</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="8"/>
-        <v>6.9663726465933866</v>
+        <v>8.203357726998961</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-2.100561023996887</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <f t="shared" si="9"/>
-        <v>-5.1388386353793614E-2</v>
-      </c>
-      <c r="AH11">
+        <v>-6.7920191923307893E-2</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="9"/>
-        <v>0.98840785044674639</v>
+        <v>0.97281579527473738</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>5.1991074666765127E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.9818142605431524E-2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.5208650692972177E-2</v>
       </c>
       <c r="AK11">
@@ -2321,7 +2321,7 @@
         <v>2.5041664570267188</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2500.9175742925768</v>
       </c>
     </row>
@@ -2413,34 +2413,34 @@
       </c>
       <c r="AC12">
         <f t="shared" si="6"/>
-        <v>2.6713081659752529</v>
+        <v>2.7536903623769238</v>
       </c>
       <c r="AD12">
         <f t="shared" si="7"/>
-        <v>-0.2816048182329749</v>
-      </c>
-      <c r="AE12" s="1">
+        <v>-0.36398701463464578</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="8"/>
-        <v>7.9839100670350165</v>
+        <v>9.2076430177192403</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-2.6124020524077216</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="1">
         <f t="shared" si="9"/>
-        <v>-0.13587267277588522</v>
-      </c>
-      <c r="AH12">
+        <v>-0.15158195074690539</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="9"/>
-        <v>1.0175374204416299</v>
+        <v>1.0042852907202793</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>0.13353088549501599</v>
+        <f t="shared" si="10"/>
+        <v>0.15093514975031641</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.6946236905070815E-2</v>
       </c>
       <c r="AK12">
@@ -2487,7 +2487,7 @@
         <v>2.8627538948614926</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2866.2659896640589</v>
       </c>
     </row>
@@ -2579,34 +2579,34 @@
       </c>
       <c r="AC13">
         <f t="shared" si="6"/>
-        <v>2.7854830652636746</v>
+        <v>2.8830157949666879</v>
       </c>
       <c r="AD13">
         <f t="shared" si="7"/>
-        <v>-0.35619294230078413</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>-0.45372567200379743</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="8"/>
-        <v>8.9786019470062275</v>
+        <v>10.190712166579036</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-3.0709476474871096</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="1">
         <f t="shared" si="9"/>
-        <v>-7.4588124067809236E-2</v>
-      </c>
-      <c r="AH13">
+        <v>-8.9738657369151653E-2</v>
+      </c>
+      <c r="AH13" s="1">
         <f t="shared" si="9"/>
-        <v>0.994691879971211</v>
+        <v>0.98306914885979602</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>7.4986159603482455E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.1284176167296296E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10715956116818981</v>
       </c>
       <c r="AK13">
@@ -2653,7 +2653,7 @@
         <v>3.2232129235195135</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3234.323601745707</v>
       </c>
     </row>
@@ -2745,34 +2745,34 @@
       </c>
       <c r="AC14">
         <f t="shared" si="6"/>
-        <v>2.891035728797787</v>
+        <v>3.0031650106759034</v>
       </c>
       <c r="AD14">
         <f t="shared" si="7"/>
-        <v>-0.44622018099411775</v>
-      </c>
-      <c r="AE14" s="1">
+        <v>-0.55834946287223408</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="8"/>
-        <v>9.9850704097233862</v>
+        <v>11.186873665065443</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-3.5560905426963307</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="1">
         <f t="shared" si="9"/>
-        <v>-9.0027238693333622E-2</v>
-      </c>
-      <c r="AH14">
+        <v>-0.10462379086843665</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="9"/>
-        <v>1.0064684627171587</v>
+        <v>0.99616149848640667</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>8.9448643477896425E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.10502693692479052</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11623023818749451</v>
       </c>
       <c r="AK14">
@@ -2819,7 +2819,7 @@
         <v>3.5841623901748756</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3606.6127262077102</v>
       </c>
     </row>
@@ -2911,34 +2911,34 @@
       </c>
       <c r="AC15">
         <f t="shared" si="6"/>
-        <v>2.9857148740799255</v>
+        <v>3.1114070546618344</v>
       </c>
       <c r="AD15">
         <f t="shared" si="7"/>
-        <v>-0.54446467565305579</v>
-      </c>
-      <c r="AE15" s="1">
+        <v>-0.67015685623496468</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="8"/>
-        <v>10.997031822011223</v>
+        <v>12.189923798057709</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-4.0605867336731301</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <f t="shared" si="9"/>
-        <v>-9.8244494658938031E-2</v>
-      </c>
-      <c r="AH15">
+        <v>-0.1118073933627306</v>
+      </c>
+      <c r="AH15" s="1">
         <f t="shared" si="9"/>
-        <v>1.0119614122878371</v>
+        <v>1.0030501329922661</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="12"/>
-        <v>9.7083241975430057E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.11146740295940191</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12422629542703967</v>
       </c>
       <c r="AK15">
@@ -2985,7 +2985,7 @@
         <v>3.9316259348620974</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3978.5015635775085</v>
       </c>
     </row>
@@ -3077,34 +3077,34 @@
       </c>
       <c r="AC16">
         <f t="shared" si="6"/>
-        <v>3.0727789280619566</v>
+        <v>3.2113264877940195</v>
       </c>
       <c r="AD16">
         <f t="shared" si="7"/>
-        <v>-0.62930760686620069</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>-0.76785516659826358</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="8"/>
-        <v>12.00121002402766</v>
+        <v>13.186169417201416</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-4.5568586076042443</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <f t="shared" si="9"/>
-        <v>-8.4842931213144901E-2</v>
-      </c>
-      <c r="AH16">
+        <v>-9.7698310363298901E-2</v>
+      </c>
+      <c r="AH16" s="1">
         <f t="shared" si="9"/>
-        <v>1.0041782020164369</v>
+        <v>0.99624561914370702</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="12"/>
-        <v>8.4489915278758612E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.8066489313421074E-2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13127850681138575</v>
       </c>
       <c r="AK16">
@@ -3151,7 +3151,7 @@
         <v>4.2717314855997346</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4345.7465115825007</v>
       </c>
     </row>
@@ -3243,34 +3243,34 @@
       </c>
       <c r="AC17">
         <f t="shared" si="6"/>
-        <v>3.153147818566028</v>
+        <v>3.3038815764800109</v>
       </c>
       <c r="AD17">
         <f t="shared" si="7"/>
-        <v>-0.78874501246859596</v>
-      </c>
-      <c r="AE17" s="1">
+        <v>-0.93947877038257888</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="8"/>
-        <v>13.03765304046761</v>
+        <v>14.215500696200856</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-5.1374146763525683</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="1">
         <f t="shared" si="9"/>
-        <v>-0.15943740560239528</v>
-      </c>
-      <c r="AH17">
+        <v>-0.17162360378431529</v>
+      </c>
+      <c r="AH17" s="1">
         <f t="shared" si="9"/>
-        <v>1.0364430164399501</v>
+        <v>1.0293312789994395</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="12"/>
-        <v>0.1538313279875651</v>
+        <f t="shared" si="10"/>
+        <v>0.16673310846158473</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13761009744183111</v>
       </c>
       <c r="AK17">
@@ -3317,7 +3317,7 @@
         <v>4.6038284736230715</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4712.6117543900555</v>
       </c>
     </row>
@@ -3409,34 +3409,34 @@
       </c>
       <c r="AC18">
         <f t="shared" si="6"/>
-        <v>3.2263870930628826</v>
+        <v>3.3884881500284769</v>
       </c>
       <c r="AD18">
         <f t="shared" si="7"/>
-        <v>-0.90299144530498499</v>
-      </c>
-      <c r="AE18" s="1">
+        <v>-1.0650925022705793</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="8"/>
-        <v>14.054147609390709</v>
+        <v>15.2256821864807</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-5.6766780534421022</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="1">
         <f t="shared" si="9"/>
-        <v>-0.11424643283638902</v>
-      </c>
-      <c r="AH18">
+        <v>-0.1256137318880004</v>
+      </c>
+      <c r="AH18" s="1">
         <f t="shared" si="9"/>
-        <v>1.0164945689230986</v>
+        <v>1.0101814902798445</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="12"/>
-        <v>0.11239256591151758</v>
+        <f t="shared" si="10"/>
+        <v>0.12434768712026428</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14328534385930464</v>
       </c>
       <c r="AK18">
@@ -3483,7 +3483,7 @@
         <v>4.9221293151238878</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5068.8909909224749</v>
       </c>
     </row>

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -121,67 +121,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_n_real_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AP18"/>
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -631,28 +631,28 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>29</v>
       </c>
       <c r="AM1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -670,25 +670,25 @@
         <v>31</v>
       </c>
       <c r="AP1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
-        <v>37</v>
-      </c>
       <c r="AV1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -790,32 +790,36 @@
         <v>7.9876845878364592E-11</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AF22" si="1">AB2-P2/2</f>
+        <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3963053763509379E-10</v>
       </c>
-      <c r="AJ2" t="e">
+      <c r="AJ2">
         <f>(( 1.588*EXP(-0.0005387*4*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>#DIV/0!</v>
+        <v>0.22604032590653284</v>
       </c>
       <c r="AK2">
-        <f t="shared" ref="AK2:AK22" si="2">(X2+Y2+Z2)/3</f>
+        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
         <v>2740.1550688233333</v>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AL22" si="3">Z2-(Y2+X2)/2</f>
+        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3158.8391152150002</v>
       </c>
-      <c r="AM2" s="1" t="e">
-        <f t="shared" ref="AM2:AM22" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN2" t="e">
-        <f t="shared" ref="AN2:AN22" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
-        <v>#DIV/0!</v>
+      <c r="AM2" s="1">
+        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="1" t="e">
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="AP2">
+        <f>AL2/AK2</f>
+        <v>1.152795749100235</v>
       </c>
       <c r="AQ2">
         <v>5.25</v>
@@ -918,15 +922,15 @@
         <v>0.65947632051531757</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC22" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.62816806732205577</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD22" si="7">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
         <v>3.1308253193261804E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE22" si="8">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
         <v>0.78844564873822742</v>
       </c>
       <c r="AF3">
@@ -934,20 +938,20 @@
         <v>0.1553407760603176</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH19" si="9">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
         <v>3.8736386439652E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.78844564865835054</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI22" si="10">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
         <v>-4.9130065598773136E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ22" si="11">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>-0.24570143998552585</v>
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>0.21406816802229264</v>
       </c>
       <c r="AK3" s="2">
         <f t="shared" si="2"/>
@@ -958,43 +962,43 @@
         <v>56191.075637300004</v>
       </c>
       <c r="AM3" s="1">
+        <f>(-2*AI3-3)/(-2*AI3+6)</f>
+        <v>-0.47583077900493309</v>
+      </c>
+      <c r="AN3" s="2">
         <f t="shared" si="4"/>
-        <v>-0.38644914919225221</v>
-      </c>
-      <c r="AN3" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.23834654394690125</v>
+        <v>-0.60565745602840182</v>
       </c>
       <c r="AO3" s="1">
         <v>578039.49484035082</v>
       </c>
-      <c r="AP3" s="2">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.80535157822694</v>
+      <c r="AP3">
+        <f>AL3/AK3</f>
+        <v>1.1669663571940914</v>
       </c>
       <c r="AQ3" s="2">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.5335971956021002</v>
+        <v>2.9098935174060898</v>
       </c>
       <c r="AR3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.5711225059074812E-2</v>
+        <v>2.6837803443777769E-3</v>
       </c>
       <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>2.5711225059074812E-2</v>
+        <v>2.6837803443777769E-3</v>
       </c>
       <c r="AT3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.10464417734218186</v>
+        <v>5.4626028108637412E-2</v>
       </c>
       <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>0.10464417734218186</v>
+        <v>5.4626028108637412E-2</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
-        <v>145.04487274062302</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>66.92944684181353</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,15 +1088,15 @@
         <v>1.1554047074608276</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="5"/>
+        <v>1.0343812717757865</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="6"/>
-        <v>1.0343812717757865</v>
-      </c>
-      <c r="AD4">
+        <v>0.12102343568504104</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="7"/>
-        <v>0.12102343568504104</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="8"/>
         <v>1.6206165472530574</v>
       </c>
       <c r="AF4">
@@ -1100,20 +1104,20 @@
         <v>0.15252898259082759</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="8"/>
+        <v>8.9715182491779233E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.83217089851482995</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="9"/>
-        <v>8.9715182491779233E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="9"/>
-        <v>0.83217089851482995</v>
-      </c>
-      <c r="AI4">
+        <v>-0.1078086035595493</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="10"/>
-        <v>-0.1078086035595493</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="11"/>
-        <v>-0.12601845304669868</v>
+        <v>0.17360843681556012</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" si="2"/>
@@ -1124,43 +1128,43 @@
         <v>170253.74244015</v>
       </c>
       <c r="AM4" s="1">
+        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.44796561630143339</v>
+      </c>
+      <c r="AN4" s="1">
         <f t="shared" si="4"/>
-        <v>-0.43953084973448681</v>
-      </c>
-      <c r="AN4" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.29760635336220337</v>
+        <v>-0.57551110608711831</v>
       </c>
       <c r="AO4" s="1">
         <v>578039.49484035082</v>
       </c>
-      <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP22" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6235399819788612</v>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <v>1.2158920601044989</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
-        <v>4.5385117491017333</v>
+        <v>3.0445378324627312</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>2.2474009787377791E-2</v>
+        <v>1.2718263283537113E-2</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
-        <v>4.8185234846452603E-2</v>
+        <v>1.5402043627914889E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.17833903879973517</v>
+        <v>0.11797076359042186</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>0.28298321614191702</v>
+        <v>0.17259679169905928</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="12"/>
-        <v>329.15246918239973</v>
+        <f t="shared" si="11"/>
+        <v>202.48649776813525</v>
       </c>
     </row>
     <row r="5" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1254,15 @@
         <v>1.3765066520197045</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="5"/>
+        <v>1.3622082097068715</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="6"/>
-        <v>1.3622082097068715</v>
-      </c>
-      <c r="AD5">
+        <v>1.4298442312832949E-2</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="7"/>
-        <v>1.4298442312832949E-2</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="8"/>
         <v>2.5471234733867654</v>
       </c>
       <c r="AF5">
@@ -1266,20 +1270,20 @@
         <v>-0.12647286001029556</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.10672499337220809</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.926506926133708</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="9"/>
-        <v>-0.10672499337220809</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="9"/>
-        <v>0.926506926133708</v>
-      </c>
-      <c r="AI5">
+        <v>0.11519071294757506</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="10"/>
-        <v>0.11519071294757506</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="11"/>
-        <v>-6.2443878918048368E-2</v>
+        <v>0.14642603867046766</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1290,43 +1294,43 @@
         <v>340575.82544400002</v>
       </c>
       <c r="AM5" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55989514461037659</v>
+      </c>
+      <c r="AN5">
         <f t="shared" si="4"/>
-        <v>-0.46941468249528723</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="5"/>
-        <v>-0.33215661320480044</v>
+        <v>-0.47099749183226813</v>
       </c>
       <c r="AO5" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP5">
         <f t="shared" si="13"/>
-        <v>1.530953324207476</v>
+        <v>1.2496451673124684</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="14"/>
-        <v>4.1264220860407068</v>
+        <v>3.1418145806363222</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="15"/>
-        <v>1.4680529335561228E-2</v>
+        <v>-2.0252802160091395E-2</v>
       </c>
       <c r="AS5">
         <f t="shared" si="16"/>
-        <v>6.2865764182013825E-2</v>
+        <v>-4.8507585321765061E-3</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="17"/>
-        <v>0.2350995740483707</v>
+        <v>0.17581974832735653</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>0.51808279019028769</v>
+        <v>0.34841654002641581</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="12"/>
-        <v>565.33775010196928</v>
+        <f t="shared" si="11"/>
+        <v>405.25533765032992</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1416,15 +1420,15 @@
         <v>1.7431384439147379</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>1.6415850589659351</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="6"/>
-        <v>1.6415850589659351</v>
-      </c>
-      <c r="AD6">
+        <v>0.10155338494880284</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="7"/>
-        <v>0.10155338494880284</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="8"/>
         <v>3.4239152124484211</v>
       </c>
       <c r="AF6">
@@ -1432,20 +1436,20 @@
         <v>-0.25934223629526221</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="8"/>
+        <v>8.725494263596989E-2</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.87679173906165575</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="9"/>
-        <v>8.725494263596989E-2</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="9"/>
-        <v>0.87679173906165575</v>
-      </c>
-      <c r="AI6">
+        <v>-9.9516155032836312E-2</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="10"/>
-        <v>-9.9516155032836312E-2</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="11"/>
-        <v>-1.9919697981638063E-2</v>
+        <v>0.11867945659437862</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -1456,43 +1460,43 @@
         <v>564985.352006</v>
       </c>
       <c r="AM6" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.4518395049153493</v>
+      </c>
+      <c r="AN6">
         <f t="shared" si="4"/>
-        <v>-0.49010584718778216</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="5"/>
-        <v>-0.35652506558484609</v>
+        <v>-0.50704775429354421</v>
       </c>
       <c r="AO6" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP6">
         <f t="shared" si="13"/>
-        <v>1.4707244592370008</v>
+        <v>1.2848141117287988</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="14"/>
-        <v>3.8851395710609768</v>
+        <v>3.2472446640004891</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="15"/>
-        <v>5.5661921685023165E-3</v>
+        <v>2.3176233997141426E-2</v>
       </c>
       <c r="AS6">
         <f t="shared" si="16"/>
-        <v>6.8431956350516146E-2</v>
+        <v>1.8325475464964922E-2</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="17"/>
-        <v>0.27943155431539302</v>
+        <v>0.23288916246306157</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
-        <v>0.79751434450568071</v>
+        <v>0.58130570248947744</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="12"/>
-        <v>837.17342947938107</v>
+        <f t="shared" si="11"/>
+        <v>672.45894328324471</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -1582,15 +1586,15 @@
         <v>1.869331517916184</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>1.883206681787722</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="6"/>
-        <v>1.883206681787722</v>
-      </c>
-      <c r="AD7">
+        <v>-1.3875163871537977E-2</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="7"/>
-        <v>-1.3875163871537977E-2</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="8"/>
         <v>4.3781385242079391</v>
       </c>
       <c r="AF7">
@@ -1598,20 +1602,20 @@
         <v>-0.63129299717381615</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.11542854882034081</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.95422331175951802</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="9"/>
-        <v>-0.11542854882034081</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="9"/>
-        <v>0.95422331175951802</v>
-      </c>
-      <c r="AI7">
+        <v>0.12096597033193311</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="10"/>
-        <v>0.12096597033193311</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="11"/>
-        <v>1.1343347180854502E-2</v>
+        <v>0.1024791183717001</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1622,43 +1626,43 @@
         <v>826862.72724200005</v>
       </c>
       <c r="AM7" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.56302424828192088</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="4"/>
-        <v>-0.50569320023938902</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="5"/>
-        <v>-0.37509780443236962</v>
+        <v>-0.427554967664664</v>
       </c>
       <c r="AO7" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP7">
         <f t="shared" si="13"/>
-        <v>1.4273635832401048</v>
+        <v>1.3056760128104163</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="14"/>
-        <v>3.7228739612571808</v>
+        <v>3.3118530269576829</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="15"/>
-        <v>-3.5120365795182624E-3</v>
+        <v>-3.3005852696261113E-2</v>
       </c>
       <c r="AS7">
         <f t="shared" si="16"/>
-        <v>6.4919919770997883E-2</v>
+        <v>-1.4680377231296192E-2</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="17"/>
-        <v>0.30961201517714121</v>
+        <v>0.2728523782820278</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
-        <v>1.1071263596828218</v>
+        <v>0.85415808077150523</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="12"/>
-        <v>1137.3051211875736</v>
+        <f t="shared" si="11"/>
+        <v>985.887740696366</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1748,15 +1752,15 @@
         <v>2.106716425718147</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="5"/>
+        <v>2.0959659402397075</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="6"/>
-        <v>2.0959659402397075</v>
-      </c>
-      <c r="AD8">
+        <v>1.0750485478439487E-2</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="7"/>
-        <v>1.0750485478439487E-2</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="8"/>
         <v>5.2990118274572842</v>
       </c>
       <c r="AF8">
@@ -1764,20 +1768,20 @@
         <v>-0.893908892296853</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4625649349977463E-2</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.92087330324934502</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="9"/>
-        <v>2.4625649349977463E-2</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="9"/>
-        <v>0.92087330324934502</v>
-      </c>
-      <c r="AI8">
+        <v>-2.6741625870882232E-2</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="10"/>
-        <v>-2.6741625870882232E-2</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="11"/>
-        <v>3.5575626060042886E-2</v>
+        <v>9.3442935366541746E-2</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1788,43 +1792,43 @@
         <v>1116233.2128185001</v>
       </c>
       <c r="AM8" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.48674731980309627</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="4"/>
-        <v>-0.51800128198890094</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="5"/>
-        <v>-0.38988022018144902</v>
+        <v>-0.45890377621420786</v>
       </c>
       <c r="AO8" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP8">
         <f t="shared" si="13"/>
-        <v>1.3943094247322672</v>
+        <v>1.317415772564805</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="14"/>
-        <v>3.6050649724336457</v>
+        <v>3.348914992338258</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="15"/>
-        <v>-1.1774995213415665E-2</v>
+        <v>8.2132078657547458E-3</v>
       </c>
       <c r="AS8">
         <f t="shared" si="16"/>
-        <v>5.314492455758222E-2</v>
+        <v>-6.4671693655414461E-3</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="17"/>
-        <v>0.33098490504544842</v>
+        <v>0.3071319562023252</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
-        <v>1.4381112647282701</v>
+        <v>1.1612900369738304</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="12"/>
-        <v>1458.1236935664597</v>
+        <f t="shared" si="11"/>
+        <v>1332.6255506436266</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -1914,15 +1918,15 @@
         <v>2.1818399647471343</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>2.2875106850711382</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="6"/>
-        <v>2.2875106850711382</v>
-      </c>
-      <c r="AD9">
+        <v>-0.10567072032400393</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="7"/>
-        <v>-0.10567072032400393</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="8"/>
         <v>6.2776536759509556</v>
       </c>
       <c r="AF9">
@@ -1930,20 +1934,20 @@
         <v>-1.3206268673528658</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.11642120580244342</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.97864184849367142</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="9"/>
-        <v>-0.11642120580244342</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="9"/>
-        <v>0.97864184849367142</v>
-      </c>
-      <c r="AI9">
+        <v>0.11896201453232283</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="10"/>
-        <v>0.11896201453232283</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="11"/>
-        <v>5.520147616431198E-2</v>
+        <v>8.7186166001058663E-2</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -1954,43 +1958,43 @@
         <v>1430639.381851</v>
       </c>
       <c r="AM9" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.56193705973283714</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="4"/>
-        <v>-0.52811812542564562</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="5"/>
-        <v>-0.40210040646601486</v>
+        <v>-0.41439041381819242</v>
       </c>
       <c r="AO9" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP9">
         <f t="shared" si="13"/>
-        <v>1.367903658004811</v>
+        <v>1.3255875442941221</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="14"/>
-        <v>3.5143803514673455</v>
+        <v>3.3750197386138607</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="15"/>
-        <v>-1.9271177957710408E-2</v>
+        <v>-3.9715254286925468E-2</v>
       </c>
       <c r="AS9">
         <f t="shared" si="16"/>
-        <v>3.3873746599871815E-2</v>
+        <v>-4.6182423652466914E-2</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="17"/>
-        <v>0.34910620687657112</v>
+        <v>0.333848198881455</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
-        <v>1.7872174716048412</v>
+        <v>1.4951382358552854</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="12"/>
-        <v>1795.3313713905945</v>
+        <f t="shared" si="11"/>
+        <v>1708.8414786126064</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2080,15 +2084,15 @@
         <v>2.3141896037873311</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="5"/>
+        <v>2.4586744757517636</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="6"/>
-        <v>2.4586744757517636</v>
-      </c>
-      <c r="AD10">
+        <v>-0.14448487196443249</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14448487196443249</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="8"/>
         <v>7.2305419317242237</v>
       </c>
       <c r="AF10">
@@ -2096,20 +2100,20 @@
         <v>-1.6867796293726691</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.8814151640428562E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.95288825577326808</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="9"/>
-        <v>-3.8814151640428562E-2</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="9"/>
-        <v>0.95288825577326808</v>
-      </c>
-      <c r="AI10">
+        <v>4.0733161947652412E-2</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="10"/>
-        <v>4.0733161947652412E-2</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="11"/>
-        <v>7.1485563918081363E-2</v>
+        <v>8.5775942984583076E-2</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2120,43 +2124,43 @@
         <v>1753856.8368215</v>
       </c>
       <c r="AM10" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.5206469190732701</v>
+      </c>
+      <c r="AN10">
         <f t="shared" si="4"/>
-        <v>-0.5366152696930474</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="5"/>
-        <v>-0.41240786647941285</v>
+        <v>-0.43325935825214856</v>
       </c>
       <c r="AO10" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP10">
         <f t="shared" si="13"/>
-        <v>1.3462471260541777</v>
+        <v>1.3274342284661271</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="14"/>
-        <v>3.4421674131553734</v>
+        <v>3.3809543117376486</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="15"/>
-        <v>-2.5454724466372789E-2</v>
+        <v>-1.4242057141758651E-2</v>
       </c>
       <c r="AS10">
         <f t="shared" si="16"/>
-        <v>8.419022133499026E-3</v>
+        <v>-6.0424480794225563E-2</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="17"/>
-        <v>0.35608202651296883</v>
+        <v>0.34964280848271945</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
-        <v>2.14329949811781</v>
+        <v>1.8447810443380048</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="12"/>
-        <v>2143.0659548129793</v>
+        <f t="shared" si="11"/>
+        <v>2096.6708599958552</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2246,15 +2250,15 @@
         <v>2.4013414074031125</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="5"/>
+        <v>2.6137464712908529</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="6"/>
-        <v>2.6137464712908529</v>
-      </c>
-      <c r="AD11">
+        <v>-0.21240506388774039</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="7"/>
-        <v>-0.21240506388774039</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="8"/>
         <v>8.203357726998961</v>
       </c>
       <c r="AF11">
@@ -2262,20 +2266,20 @@
         <v>-2.100561023996887</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="8"/>
+        <v>-6.7920191923307893E-2</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.97281579527473738</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="9"/>
-        <v>-6.7920191923307893E-2</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="9"/>
-        <v>0.97281579527473738</v>
-      </c>
-      <c r="AI11">
+        <v>6.9818142605431524E-2</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="10"/>
-        <v>6.9818142605431524E-2</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="11"/>
-        <v>8.5208650692972177E-2</v>
+        <v>8.7379782310052001E-2</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2286,43 +2290,43 @@
         <v>2082326.4475889998</v>
       </c>
       <c r="AM11" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.53574085807809479</v>
+      </c>
+      <c r="AN11">
         <f t="shared" si="4"/>
-        <v>-0.54384978570416198</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="5"/>
-        <v>-0.42121213924462575</v>
+        <v>-0.42715190892014537</v>
       </c>
       <c r="AO11" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP11">
         <f t="shared" si="13"/>
-        <v>1.3281775970539018</v>
+        <v>1.3253341427608241</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="14"/>
-        <v>3.383346929757689</v>
+        <v>3.374206419206061</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="15"/>
-        <v>-3.0748986648304354E-2</v>
+        <v>-2.5130958517825715E-2</v>
       </c>
       <c r="AS11">
         <f t="shared" si="16"/>
-        <v>-2.2329964514805328E-2</v>
+        <v>-8.5555439312051285E-2</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="17"/>
-        <v>0.36086695890890869</v>
+        <v>0.35994882676627671</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
-        <v>2.5041664570267188</v>
+        <v>2.2047298711042815</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="12"/>
-        <v>2500.9175742925768</v>
+        <f t="shared" si="11"/>
+        <v>2492.6820608569533</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2412,15 +2416,15 @@
         <v>2.389703347742278</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>2.7536903623769238</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="6"/>
-        <v>2.7536903623769238</v>
-      </c>
-      <c r="AD12">
+        <v>-0.36398701463464578</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="7"/>
-        <v>-0.36398701463464578</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="8"/>
         <v>9.2076430177192403</v>
       </c>
       <c r="AF12">
@@ -2428,20 +2432,20 @@
         <v>-2.6124020524077216</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.15158195074690539</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0042852907202793</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="9"/>
-        <v>-0.15158195074690539</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0042852907202793</v>
-      </c>
-      <c r="AI12">
+        <v>0.15093514975031641</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="10"/>
-        <v>0.15093514975031641</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="11"/>
-        <v>9.6946236905070815E-2</v>
+        <v>9.2534932319434049E-2</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2452,43 +2456,43 @@
         <v>2404563.7880220003</v>
       </c>
       <c r="AM12" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.57946562697779014</v>
+      </c>
+      <c r="AN12">
         <f t="shared" si="4"/>
-        <v>-0.5500918574799577</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="5"/>
-        <v>-0.4288276772543213</v>
+        <v>-0.41100081334224065</v>
       </c>
       <c r="AO12" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP12">
         <f t="shared" si="13"/>
-        <v>1.3128555638706789</v>
+        <v>1.3185995104564832</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="14"/>
-        <v>3.3344573275824394</v>
+        <v>3.3526807301236179</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="15"/>
-        <v>-3.4763702699512303E-2</v>
+        <v>-5.4438327525080273E-2</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>-5.7093667214317634E-2</v>
+        <v>-0.13999376683713155</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="17"/>
-        <v>0.35858743783477387</v>
+        <v>0.36067362450121454</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
-        <v>2.8627538948614926</v>
+        <v>2.5654034956054961</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="12"/>
-        <v>2866.2659896640589</v>
+        <f t="shared" si="11"/>
+        <v>2885.3704377407312</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2578,15 +2582,15 @@
         <v>2.4292901229628905</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="5"/>
+        <v>2.8830157949666879</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="6"/>
-        <v>2.8830157949666879</v>
-      </c>
-      <c r="AD13">
+        <v>-0.45372567200379743</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="7"/>
-        <v>-0.45372567200379743</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="8"/>
         <v>10.190712166579036</v>
       </c>
       <c r="AF13">
@@ -2594,20 +2598,20 @@
         <v>-3.0709476474871096</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.9738657369151653E-2</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98306914885979602</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="9"/>
-        <v>-8.9738657369151653E-2</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="9"/>
-        <v>0.98306914885979602</v>
-      </c>
-      <c r="AI13">
+        <v>9.1284176167296296E-2</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="10"/>
-        <v>9.1284176167296296E-2</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="11"/>
-        <v>0.10715956116818981</v>
+        <v>9.7700714957167256E-2</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2618,43 +2622,43 @@
         <v>2729857.9095800002</v>
       </c>
       <c r="AM13" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.54707447290967115</v>
+      </c>
+      <c r="AN13">
         <f t="shared" si="4"/>
-        <v>-0.55556453774449954</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="5"/>
-        <v>-0.43551771238748144</v>
+        <v>-0.4310105847439008</v>
       </c>
       <c r="AO13" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP13">
         <f t="shared" si="13"/>
-        <v>1.299624236942982</v>
+        <v>1.3118749143353376</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="14"/>
-        <v>3.2929477092871307</v>
+        <v>3.3313584854741061</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="15"/>
-        <v>-3.8626631330105486E-2</v>
+        <v>-3.3338055474706141E-2</v>
       </c>
       <c r="AS13">
         <f t="shared" si="16"/>
-        <v>-9.5720298544423127E-2</v>
+        <v>-0.17333182231183769</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="17"/>
-        <v>0.36045902865802104</v>
+        <v>0.36521176916366727</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
-        <v>3.2232129235195135</v>
+        <v>2.9306152647691635</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="12"/>
-        <v>3234.323601745707</v>
+        <f t="shared" si="11"/>
+        <v>3280.3454628033014</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2744,15 +2748,15 @@
         <v>2.4448155478036693</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="5"/>
+        <v>3.0031650106759034</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="6"/>
-        <v>3.0031650106759034</v>
-      </c>
-      <c r="AD14">
+        <v>-0.55834946287223408</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="7"/>
-        <v>-0.55834946287223408</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="8"/>
         <v>11.186873665065443</v>
       </c>
       <c r="AF14">
@@ -2760,20 +2764,20 @@
         <v>-3.5560905426963307</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.10462379086843665</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.99616149848640667</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="9"/>
-        <v>-0.10462379086843665</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="9"/>
-        <v>0.99616149848640667</v>
-      </c>
-      <c r="AI14">
+        <v>0.10502693692479052</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="10"/>
-        <v>0.10502693692479052</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="11"/>
-        <v>0.11623023818749451</v>
+        <v>0.10250481289776009</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2784,43 +2788,43 @@
         <v>3057514.1093749995</v>
       </c>
       <c r="AM14" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55441860837897994</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="4"/>
-        <v>-0.56045744691201083</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="5"/>
-        <v>-0.44150848494214134</v>
+        <v>-0.43179142631545353</v>
       </c>
       <c r="AO14" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP14">
         <f t="shared" si="13"/>
-        <v>1.2879526989524848</v>
+        <v>1.3056427357641143</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="14"/>
-        <v>3.2568641032834522</v>
+        <v>3.3117487025729386</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="15"/>
-        <v>-4.1953242483001821E-2</v>
+        <v>-3.8629783619999199E-2</v>
       </c>
       <c r="AS14">
         <f t="shared" si="16"/>
-        <v>-0.13767354102742496</v>
+        <v>-0.21196160593183688</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="17"/>
-        <v>0.36094946665536209</v>
+        <v>0.36780834280315966</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
-        <v>3.5841623901748756</v>
+        <v>3.2984236075723232</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="12"/>
-        <v>3606.6127262077102</v>
+        <f t="shared" si="11"/>
+        <v>3680.7455875409596</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2910,15 +2914,15 @@
         <v>2.4412501984268697</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>3.1114070546618344</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="6"/>
-        <v>3.1114070546618344</v>
-      </c>
-      <c r="AD15">
+        <v>-0.67015685623496468</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="7"/>
-        <v>-0.67015685623496468</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="8"/>
         <v>12.189923798057709</v>
       </c>
       <c r="AF15">
@@ -2926,20 +2930,20 @@
         <v>-4.0605867336731301</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.1118073933627306</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0030501329922661</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="9"/>
-        <v>-0.1118073933627306</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0030501329922661</v>
-      </c>
-      <c r="AI15">
+        <v>0.11146740295940191</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="10"/>
-        <v>0.11146740295940191</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="11"/>
-        <v>0.12422629542703967</v>
+        <v>0.1111775786795956</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -2950,43 +2954,43 @@
         <v>3359958.1973350001</v>
       </c>
       <c r="AM15" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55788444437511497</v>
+      </c>
+      <c r="AN15">
         <f t="shared" si="4"/>
-        <v>-0.56479628172559215</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="5"/>
-        <v>-0.44682766188478235</v>
+        <v>-0.43808722766206193</v>
       </c>
       <c r="AO15" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP15">
         <f t="shared" si="13"/>
-        <v>1.2777264128670414</v>
+        <v>1.2944448577155609</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="14"/>
-        <v>3.2256505976975216</v>
+        <v>3.2768742428024362</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="15"/>
-        <v>-4.3164108952441216E-2</v>
+        <v>-3.9429859032460726E-2</v>
       </c>
       <c r="AS15">
         <f t="shared" si="16"/>
-        <v>-0.18083764997986618</v>
+        <v>-0.2513914649642976</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="17"/>
-        <v>0.34746354468722201</v>
+        <v>0.3537344370248014</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
-        <v>3.9316259348620974</v>
+        <v>3.6521580445971247</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="12"/>
-        <v>3978.5015635775085</v>
+        <f t="shared" si="11"/>
+        <v>4055.5300218515031</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -3076,15 +3080,15 @@
         <v>2.4434713211957559</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>3.2113264877940195</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="6"/>
-        <v>3.2113264877940195</v>
-      </c>
-      <c r="AD16">
+        <v>-0.76785516659826358</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="7"/>
-        <v>-0.76785516659826358</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="8"/>
         <v>13.186169417201416</v>
       </c>
       <c r="AF16">
@@ -3092,20 +3096,20 @@
         <v>-4.5568586076042443</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.7698310363298901E-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.99624561914370702</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="9"/>
-        <v>-9.7698310363298901E-2</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="9"/>
-        <v>0.99624561914370702</v>
-      </c>
-      <c r="AI16">
+        <v>9.8066489313421074E-2</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="10"/>
-        <v>9.8066489313421074E-2</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="11"/>
-        <v>0.13127850681138575</v>
+        <v>0.11868992779484827</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3116,43 +3120,43 @@
         <v>3657330.6336000003</v>
       </c>
       <c r="AM16" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55069024959683821</v>
+      </c>
+      <c r="AN16">
         <f t="shared" si="4"/>
-        <v>-0.56864303860958021</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="5"/>
-        <v>-0.45154843930230876</v>
+        <v>-0.44885273040804241</v>
       </c>
       <c r="AO16" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP16">
         <f t="shared" si="13"/>
-        <v>1.2687561598004613</v>
+        <v>1.2848007050702608</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="14"/>
-        <v>3.1985744532455254</v>
+        <v>3.2472036495144851</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="15"/>
-        <v>-4.4648548859101009E-2</v>
+        <v>-3.3933170568222926E-2</v>
       </c>
       <c r="AS16">
         <f t="shared" si="16"/>
-        <v>-0.2254861988389672</v>
+        <v>-0.28532463553252052</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="17"/>
-        <v>0.34010555073763721</v>
+        <v>0.34602207956861092</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
-        <v>4.2717314855997346</v>
+        <v>3.9981801241657355</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="12"/>
-        <v>4345.7465115825007</v>
+        <f t="shared" si="11"/>
+        <v>4426.2488534488339</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3242,15 +3246,15 @@
         <v>2.364402806097432</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>3.3038815764800109</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="6"/>
-        <v>3.3038815764800109</v>
-      </c>
-      <c r="AD17">
+        <v>-0.93947877038257888</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="7"/>
-        <v>-0.93947877038257888</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="8"/>
         <v>14.215500696200856</v>
       </c>
       <c r="AF17">
@@ -3258,20 +3262,20 @@
         <v>-5.1374146763525683</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.17162360378431529</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0293312789994395</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="9"/>
-        <v>-0.17162360378431529</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0293312789994395</v>
-      </c>
-      <c r="AI17">
+        <v>0.16673310846158473</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="10"/>
-        <v>0.16673310846158473</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="11"/>
-        <v>0.13761009744183111</v>
+        <v>0.12717716271954471</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3282,43 +3286,43 @@
         <v>3941363.2401150004</v>
       </c>
       <c r="AM17" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.58827253918058442</v>
+      </c>
+      <c r="AN17">
         <f t="shared" si="4"/>
-        <v>-0.57211286833365005</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="5"/>
-        <v>-0.45581021362178303</v>
+        <v>-0.43782357574431652</v>
       </c>
       <c r="AO17" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP17">
         <f t="shared" si="13"/>
-        <v>1.2607418217171571</v>
+        <v>1.273967379325063</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="14"/>
-        <v>3.1746199111655953</v>
+        <v>3.2142699345280601</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="15"/>
-        <v>-4.5699898882029993E-2</v>
+        <v>-5.6208381841708531E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="16"/>
-        <v>-0.27118609772099722</v>
+        <v>-0.34153301737422903</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="17"/>
-        <v>0.33209698802333681</v>
+        <v>0.33711589953748666</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
-        <v>4.6038284736230715</v>
+        <v>4.3352960237032221</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="12"/>
-        <v>4712.6117543900555</v>
+        <f t="shared" si="11"/>
+        <v>4784.2638981297505</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3408,15 +3412,15 @@
         <v>2.3233956477578976</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>3.3884881500284769</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="6"/>
-        <v>3.3884881500284769</v>
-      </c>
-      <c r="AD18">
+        <v>-1.0650925022705793</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="7"/>
-        <v>-1.0650925022705793</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="8"/>
         <v>15.2256821864807</v>
       </c>
       <c r="AF18">
@@ -3424,20 +3428,20 @@
         <v>-5.6766780534421022</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.1256137318880004</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0101814902798445</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="9"/>
-        <v>-0.1256137318880004</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0101814902798445</v>
-      </c>
-      <c r="AI18">
+        <v>0.12434768712026428</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="10"/>
-        <v>0.12434768712026428</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="11"/>
-        <v>0.14328534385930464</v>
+        <v>0.13559838088179227</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3448,43 +3452,43 @@
         <v>4209897.37249</v>
       </c>
       <c r="AM18" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.56486233744079095</v>
+      </c>
+      <c r="AN18">
         <f t="shared" si="4"/>
-        <v>-0.57523608118401159</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="5"/>
-        <v>-0.45964889160139671</v>
+        <v>-0.45767815233827447</v>
       </c>
       <c r="AO18" s="1">
         <v>578039.49484035082</v>
       </c>
       <c r="AP18">
         <f t="shared" si="13"/>
-        <v>1.2535900285927311</v>
+        <v>1.2632841496072935</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="14"/>
-        <v>3.1534291187926158</v>
+        <v>3.1821948869556973</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="15"/>
-        <v>-4.560784552515048E-2</v>
+        <v>-3.9990615393395663E-2</v>
       </c>
       <c r="AS18">
         <f t="shared" si="16"/>
-        <v>-0.31679394324614768</v>
+        <v>-0.38152363276762469</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="17"/>
-        <v>0.31830084150081606</v>
+        <v>0.3216032104780388</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
-        <v>4.9221293151238878</v>
+        <v>4.6568992341812612</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="12"/>
-        <v>5068.8909909224749</v>
+        <f t="shared" si="11"/>
+        <v>5125.1246043857955</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t># avgT</t>
   </si>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV22"/>
+  <dimension ref="A1:AX22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -539,13 +547,14 @@
     <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" customWidth="1"/>
-    <col min="49" max="1028" width="11.5546875"/>
+    <col min="43" max="44" width="10.44140625" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="47" max="47" width="11.21875" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" customWidth="1"/>
+    <col min="51" max="1030" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,25 +682,31 @@
         <v>46</v>
       </c>
       <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21107232507000001</v>
       </c>
@@ -810,7 +825,7 @@
         <v>-0.5</v>
       </c>
       <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <f>1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
         <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="1" t="e">
@@ -822,20 +837,28 @@
         <v>1.152795749100235</v>
       </c>
       <c r="AQ2">
+        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
+        <v>-1.0995759540501888</v>
+      </c>
+      <c r="AR2">
+        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <v>1.1956631205418984</v>
+      </c>
+      <c r="AS2">
         <v>5.25</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AV2">
-        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>7.8612131113106152</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.6951329181500001</v>
       </c>
@@ -922,15 +945,15 @@
         <v>0.65947632051531757</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.62816806732205577</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="5">AB3-AC3</f>
         <v>3.1308253193261804E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="6">P3-AB3/3</f>
         <v>0.78844564873822742</v>
       </c>
       <c r="AF3">
@@ -938,19 +961,19 @@
         <v>0.1553407760603176</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="7">AD3-AD2</f>
         <v>3.8736386439652E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.78844564865835054</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="8">-AG3/AH3</f>
         <v>-4.9130065598773136E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="9">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>0.21406816802229264</v>
       </c>
       <c r="AK3" s="2">
@@ -966,7 +989,7 @@
         <v>-0.47583077900493309</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM3*AS3-2*0.33*(1+AM3+AS3))</f>
         <v>-0.60565745602840182</v>
       </c>
       <c r="AO3" s="1">
@@ -976,32 +999,40 @@
         <f>AL3/AK3</f>
         <v>1.1669663571940914</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ18" si="10">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
+        <v>-0.66382382103749893</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR18" si="11">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <v>1.1920965950465878</v>
+      </c>
+      <c r="AS3" s="2">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>2.9098935174060898</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AT3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
         <v>2.6837803443777769E-3</v>
       </c>
-      <c r="AS3" s="2">
-        <f>(AS2+AR3)</f>
+      <c r="AU3" s="2">
+        <f>(AU2+AT3)</f>
         <v>2.6837803443777769E-3</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AV3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
         <v>5.4626028108637412E-2</v>
       </c>
-      <c r="AU3" s="2">
-        <f>AU2+AT3</f>
+      <c r="AW3" s="2">
+        <f>AW2+AV3</f>
         <v>5.4626028108637412E-2</v>
       </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+      <c r="AX3">
+        <f>(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>66.92944684181353</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10.9153812583</v>
       </c>
@@ -1088,15 +1119,15 @@
         <v>1.1554047074608276</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="4"/>
+        <v>1.0343812717757865</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="5"/>
-        <v>1.0343812717757865</v>
-      </c>
-      <c r="AD4">
+        <v>0.12102343568504104</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="6"/>
-        <v>0.12102343568504104</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="7"/>
         <v>1.6206165472530574</v>
       </c>
       <c r="AF4">
@@ -1104,19 +1135,19 @@
         <v>0.15252898259082759</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="7"/>
+        <v>8.9715182491779233E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.83217089851482995</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="8"/>
-        <v>8.9715182491779233E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.83217089851482995</v>
-      </c>
-      <c r="AI4">
+        <v>-0.1078086035595493</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="9"/>
-        <v>-0.1078086035595493</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="10"/>
         <v>0.17360843681556012</v>
       </c>
       <c r="AK4" s="1">
@@ -1132,7 +1163,7 @@
         <v>-0.44796561630143339</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM4*AS4-2*0.33*(1+AM4+AS4))</f>
         <v>-0.57551110608711831</v>
       </c>
       <c r="AO4" s="1">
@@ -1142,32 +1173,40 @@
         <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
         <v>1.2158920601044989</v>
       </c>
-      <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
+      <c r="AQ4">
+        <f t="shared" si="10"/>
+        <v>-0.47891719273122968</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="11"/>
+        <v>1.2499567696550691</v>
+      </c>
+      <c r="AS4" s="1">
+        <f>(2*AP4+3)/(3-AP4)</f>
         <v>3.0445378324627312</v>
       </c>
-      <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+      <c r="AT4" s="1">
+        <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>1.2718263283537113E-2</v>
       </c>
-      <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="14">AU3+AT4</f>
         <v>1.5402043627914889E-2</v>
       </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+      <c r="AV4" s="1">
+        <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.11797076359042186</v>
       </c>
-      <c r="AU4" s="1">
-        <f>AU3+AT4</f>
+      <c r="AW4" s="1">
+        <f>AW3+AV4</f>
         <v>0.17259679169905928</v>
       </c>
-      <c r="AV4">
-        <f t="shared" si="11"/>
+      <c r="AX4">
+        <f>(AS4*X4-4*X4*(1-0.01*P4-2*0.01*AF4)*(0.08/0.4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+0.08/0.4+1))/1000</f>
         <v>202.48649776813525</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>21.328496033499999</v>
       </c>
@@ -1254,15 +1293,15 @@
         <v>1.3765066520197045</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>1.3622082097068715</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="5"/>
-        <v>1.3622082097068715</v>
-      </c>
-      <c r="AD5">
+        <v>1.4298442312832949E-2</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="6"/>
-        <v>1.4298442312832949E-2</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="7"/>
         <v>2.5471234733867654</v>
       </c>
       <c r="AF5">
@@ -1270,19 +1309,19 @@
         <v>-0.12647286001029556</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.10672499337220809</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.926506926133708</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="8"/>
-        <v>-0.10672499337220809</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="8"/>
-        <v>0.926506926133708</v>
-      </c>
-      <c r="AI5">
+        <v>0.11519071294757506</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="9"/>
-        <v>0.11519071294757506</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="10"/>
         <v>0.14642603867046766</v>
       </c>
       <c r="AK5">
@@ -1298,7 +1337,7 @@
         <v>-0.55989514461037659</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM5*AS5-2*0.33*(1+AM5+AS5))</f>
         <v>-0.47099749183226813</v>
       </c>
       <c r="AO5" s="1">
@@ -1309,31 +1348,39 @@
         <v>1.2496451673124684</v>
       </c>
       <c r="AQ5">
+        <f t="shared" si="10"/>
+        <v>-0.3654935415169227</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="11"/>
+        <v>1.2866680625801192</v>
+      </c>
+      <c r="AS5">
+        <f>(2*AP5+3)/(3-AP5)</f>
+        <v>3.1418145806363222</v>
+      </c>
+      <c r="AT5" s="1">
+        <f>(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
+        <v>-2.0252802160091395E-2</v>
+      </c>
+      <c r="AU5">
         <f t="shared" si="14"/>
-        <v>3.1418145806363222</v>
-      </c>
-      <c r="AR5" s="1">
-        <f t="shared" si="15"/>
-        <v>-2.0252802160091395E-2</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="16"/>
         <v>-4.8507585321765061E-3</v>
       </c>
-      <c r="AT5" s="1">
-        <f t="shared" si="17"/>
+      <c r="AV5" s="1">
+        <f>2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
         <v>0.17581974832735653</v>
       </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
+      <c r="AW5">
+        <f>AW4+AV5</f>
         <v>0.34841654002641581</v>
       </c>
-      <c r="AV5">
-        <f t="shared" si="11"/>
+      <c r="AX5">
+        <f>(AS5*X5-4*X5*(1-0.01*P5-2*0.01*AF5)*(0.08/0.4)/(-0.08/0.4*0.01*P5-(2*0.08/0.4+3)*0.01*AF5+0.08/0.4+1))/1000</f>
         <v>405.25533765032992</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>33.875225325000002</v>
       </c>
@@ -1420,15 +1467,15 @@
         <v>1.7431384439147379</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>1.6415850589659351</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="5"/>
-        <v>1.6415850589659351</v>
-      </c>
-      <c r="AD6">
+        <v>0.10155338494880284</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="6"/>
-        <v>0.10155338494880284</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="7"/>
         <v>3.4239152124484211</v>
       </c>
       <c r="AF6">
@@ -1436,19 +1483,19 @@
         <v>-0.25934223629526221</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="7"/>
+        <v>8.725494263596989E-2</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87679173906165575</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="8"/>
-        <v>8.725494263596989E-2</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="8"/>
-        <v>0.87679173906165575</v>
-      </c>
-      <c r="AI6">
+        <v>-9.9516155032836312E-2</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="9"/>
-        <v>-9.9516155032836312E-2</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="10"/>
         <v>0.11867945659437862</v>
       </c>
       <c r="AK6">
@@ -1464,7 +1511,7 @@
         <v>-0.4518395049153493</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM6*AS6-2*0.33*(1+AM6+AS6))</f>
         <v>-0.50704775429354421</v>
       </c>
       <c r="AO6" s="1">
@@ -1475,31 +1522,39 @@
         <v>1.2848141117287988</v>
       </c>
       <c r="AQ6">
+        <f t="shared" si="10"/>
+        <v>-0.27541389757369683</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="11"/>
+        <v>1.2995821175854314</v>
+      </c>
+      <c r="AS6">
+        <f>(2*AP6+3)/(3-AP6)</f>
+        <v>3.2472446640004891</v>
+      </c>
+      <c r="AT6" s="1">
+        <f>(1+2*AM6)*(AK6-AK5)*(1-AP6/3)/(3*AN6*AO6*AM6)</f>
+        <v>2.3176233997141426E-2</v>
+      </c>
+      <c r="AU6">
         <f t="shared" si="14"/>
-        <v>3.2472446640004891</v>
-      </c>
-      <c r="AR6" s="1">
-        <f t="shared" si="15"/>
-        <v>2.3176233997141426E-2</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="16"/>
         <v>1.8325475464964922E-2</v>
       </c>
-      <c r="AT6" s="1">
-        <f t="shared" si="17"/>
+      <c r="AV6" s="1">
+        <f>2*(1-AM6)*(AK6-AK5)*(1-AP6/3)/(9*AN6*AO6*AM6)</f>
         <v>0.23288916246306157</v>
       </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW18" si="15">AW5+AV6</f>
         <v>0.58130570248947744</v>
       </c>
-      <c r="AV6">
-        <f t="shared" si="11"/>
+      <c r="AX6">
+        <f>(AS6*X6-4*X6*(1-0.01*P6-2*0.01*AF6)*(0.08/0.4)/(-0.08/0.4*0.01*P6-(2*0.08/0.4+3)*0.01*AF6+0.08/0.4+1))/1000</f>
         <v>672.45894328324471</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48.216694473399997</v>
       </c>
@@ -1586,15 +1641,15 @@
         <v>1.869331517916184</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>1.883206681787722</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="5"/>
-        <v>1.883206681787722</v>
-      </c>
-      <c r="AD7">
+        <v>-1.3875163871537977E-2</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="6"/>
-        <v>-1.3875163871537977E-2</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="7"/>
         <v>4.3781385242079391</v>
       </c>
       <c r="AF7">
@@ -1602,19 +1657,19 @@
         <v>-0.63129299717381615</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.11542854882034081</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.95422331175951802</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="8"/>
-        <v>-0.11542854882034081</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="8"/>
-        <v>0.95422331175951802</v>
-      </c>
-      <c r="AI7">
+        <v>0.12096597033193311</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="9"/>
-        <v>0.12096597033193311</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="10"/>
         <v>0.1024791183717001</v>
       </c>
       <c r="AK7">
@@ -1630,7 +1685,7 @@
         <v>-0.56302424828192088</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM7*AS7-2*0.33*(1+AM7+AS7))</f>
         <v>-0.427554967664664</v>
       </c>
       <c r="AO7" s="1">
@@ -1641,31 +1696,39 @@
         <v>1.3056760128104163</v>
       </c>
       <c r="AQ7">
+        <f t="shared" si="10"/>
+        <v>-0.21394633105404237</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="11"/>
+        <v>1.3088617618063878</v>
+      </c>
+      <c r="AS7">
+        <f>(2*AP7+3)/(3-AP7)</f>
+        <v>3.3118530269576829</v>
+      </c>
+      <c r="AT7" s="1">
+        <f>(1+2*AM7)*(AK7-AK6)*(1-AP7/3)/(3*AN7*AO7*AM7)</f>
+        <v>-3.3005852696261113E-2</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="14"/>
-        <v>3.3118530269576829</v>
-      </c>
-      <c r="AR7" s="1">
+        <v>-1.4680377231296192E-2</v>
+      </c>
+      <c r="AV7" s="1">
+        <f>2*(1-AM7)*(AK7-AK6)*(1-AP7/3)/(9*AN7*AO7*AM7)</f>
+        <v>0.2728523782820278</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="15"/>
-        <v>-3.3005852696261113E-2</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="16"/>
-        <v>-1.4680377231296192E-2</v>
-      </c>
-      <c r="AT7" s="1">
-        <f t="shared" si="17"/>
-        <v>0.2728523782820278</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="18"/>
         <v>0.85415808077150523</v>
       </c>
-      <c r="AV7">
-        <f t="shared" si="11"/>
+      <c r="AX7">
+        <f>(AS7*X7-4*X7*(1-0.01*P7-2*0.01*AF7)*(0.08/0.4)/(-0.08/0.4*0.01*P7-(2*0.08/0.4+3)*0.01*AF7+0.08/0.4+1))/1000</f>
         <v>985.887740696366</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64.043480911700001</v>
       </c>
@@ -1752,15 +1815,15 @@
         <v>2.106716425718147</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>2.0959659402397075</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="5"/>
-        <v>2.0959659402397075</v>
-      </c>
-      <c r="AD8">
+        <v>1.0750485478439487E-2</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="6"/>
-        <v>1.0750485478439487E-2</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="7"/>
         <v>5.2990118274572842</v>
       </c>
       <c r="AF8">
@@ -1768,19 +1831,19 @@
         <v>-0.893908892296853</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4625649349977463E-2</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.92087330324934502</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="8"/>
-        <v>2.4625649349977463E-2</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="8"/>
-        <v>0.92087330324934502</v>
-      </c>
-      <c r="AI8">
+        <v>-2.6741625870882232E-2</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="9"/>
-        <v>-2.6741625870882232E-2</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="10"/>
         <v>9.3442935366541746E-2</v>
       </c>
       <c r="AK8">
@@ -1796,7 +1859,7 @@
         <v>-0.48674731980309627</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM8*AS8-2*0.33*(1+AM8+AS8))</f>
         <v>-0.45890377621420786</v>
       </c>
       <c r="AO8" s="1">
@@ -1807,31 +1870,39 @@
         <v>1.317415772564805</v>
       </c>
       <c r="AQ8">
+        <f t="shared" si="10"/>
+        <v>-0.17055529153211646</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="11"/>
+        <v>1.3116104255648411</v>
+      </c>
+      <c r="AS8">
+        <f>(2*AP8+3)/(3-AP8)</f>
+        <v>3.348914992338258</v>
+      </c>
+      <c r="AT8" s="1">
+        <f>(1+2*AM8)*(AK8-AK7)*(1-AP8/3)/(3*AN8*AO8*AM8)</f>
+        <v>8.2132078657547458E-3</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="14"/>
-        <v>3.348914992338258</v>
-      </c>
-      <c r="AR8" s="1">
+        <v>-6.4671693655414461E-3</v>
+      </c>
+      <c r="AV8" s="1">
+        <f>2*(1-AM8)*(AK8-AK7)*(1-AP8/3)/(9*AN8*AO8*AM8)</f>
+        <v>0.3071319562023252</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="15"/>
-        <v>8.2132078657547458E-3</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="16"/>
-        <v>-6.4671693655414461E-3</v>
-      </c>
-      <c r="AT8" s="1">
-        <f t="shared" si="17"/>
-        <v>0.3071319562023252</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="18"/>
         <v>1.1612900369738304</v>
       </c>
-      <c r="AV8">
-        <f t="shared" si="11"/>
+      <c r="AX8">
+        <f>(AS8*X8-4*X8*(1-0.01*P8-2*0.01*AF8)*(0.08/0.4)/(-0.08/0.4*0.01*P8-(2*0.08/0.4+3)*0.01*AF8+0.08/0.4+1))/1000</f>
         <v>1332.6255506436266</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81.032561823500004</v>
       </c>
@@ -1918,15 +1989,15 @@
         <v>2.1818399647471343</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>2.2875106850711382</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="5"/>
-        <v>2.2875106850711382</v>
-      </c>
-      <c r="AD9">
+        <v>-0.10567072032400393</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="6"/>
-        <v>-0.10567072032400393</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="7"/>
         <v>6.2776536759509556</v>
       </c>
       <c r="AF9">
@@ -1934,19 +2005,19 @@
         <v>-1.3206268673528658</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.11642120580244342</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.97864184849367142</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="8"/>
-        <v>-0.11642120580244342</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="8"/>
-        <v>0.97864184849367142</v>
-      </c>
-      <c r="AI9">
+        <v>0.11896201453232283</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="9"/>
-        <v>0.11896201453232283</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="10"/>
         <v>8.7186166001058663E-2</v>
       </c>
       <c r="AK9">
@@ -1962,7 +2033,7 @@
         <v>-0.56193705973283714</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM9*AS9-2*0.33*(1+AM9+AS9))</f>
         <v>-0.41439041381819242</v>
       </c>
       <c r="AO9" s="1">
@@ -1973,31 +2044,39 @@
         <v>1.3255875442941221</v>
       </c>
       <c r="AQ9">
+        <f t="shared" si="10"/>
+        <v>-0.13657785299767022</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="11"/>
+        <v>1.3131621703968959</v>
+      </c>
+      <c r="AS9">
+        <f>(2*AP9+3)/(3-AP9)</f>
+        <v>3.3750197386138607</v>
+      </c>
+      <c r="AT9" s="1">
+        <f>(1+2*AM9)*(AK9-AK8)*(1-AP9/3)/(3*AN9*AO9*AM9)</f>
+        <v>-3.9715254286925468E-2</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="14"/>
-        <v>3.3750197386138607</v>
-      </c>
-      <c r="AR9" s="1">
+        <v>-4.6182423652466914E-2</v>
+      </c>
+      <c r="AV9" s="1">
+        <f>2*(1-AM9)*(AK9-AK8)*(1-AP9/3)/(9*AN9*AO9*AM9)</f>
+        <v>0.333848198881455</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="15"/>
-        <v>-3.9715254286925468E-2</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="16"/>
-        <v>-4.6182423652466914E-2</v>
-      </c>
-      <c r="AT9" s="1">
-        <f t="shared" si="17"/>
-        <v>0.333848198881455</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="18"/>
         <v>1.4951382358552854</v>
       </c>
-      <c r="AV9">
-        <f t="shared" si="11"/>
+      <c r="AX9">
+        <f>(AS9*X9-4*X9*(1-0.01*P9-2*0.01*AF9)*(0.08/0.4)/(-0.08/0.4*0.01*P9-(2*0.08/0.4+3)*0.01*AF9+0.08/0.4+1))/1000</f>
         <v>1708.8414786126064</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>98.931897493400001</v>
       </c>
@@ -2084,15 +2163,15 @@
         <v>2.3141896037873311</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>2.4586744757517636</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="5"/>
-        <v>2.4586744757517636</v>
-      </c>
-      <c r="AD10">
+        <v>-0.14448487196443249</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="6"/>
-        <v>-0.14448487196443249</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="7"/>
         <v>7.2305419317242237</v>
       </c>
       <c r="AF10">
@@ -2100,19 +2179,19 @@
         <v>-1.6867796293726691</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.8814151640428562E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.95288825577326808</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="8"/>
-        <v>-3.8814151640428562E-2</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="8"/>
-        <v>0.95288825577326808</v>
-      </c>
-      <c r="AI10">
+        <v>4.0733161947652412E-2</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="9"/>
-        <v>4.0733161947652412E-2</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="10"/>
         <v>8.5775942984583076E-2</v>
       </c>
       <c r="AK10">
@@ -2128,7 +2207,7 @@
         <v>-0.5206469190732701</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM10*AS10-2*0.33*(1+AM10+AS10))</f>
         <v>-0.43325935825214856</v>
       </c>
       <c r="AO10" s="1">
@@ -2139,31 +2218,39 @@
         <v>1.3274342284661271</v>
       </c>
       <c r="AQ10">
+        <f t="shared" si="10"/>
+        <v>-0.11350037110808553</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="11"/>
+        <v>1.3125161714701861</v>
+      </c>
+      <c r="AS10">
+        <f>(2*AP10+3)/(3-AP10)</f>
+        <v>3.3809543117376486</v>
+      </c>
+      <c r="AT10" s="1">
+        <f>(1+2*AM10)*(AK10-AK9)*(1-AP10/3)/(3*AN10*AO10*AM10)</f>
+        <v>-1.4242057141758651E-2</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="14"/>
-        <v>3.3809543117376486</v>
-      </c>
-      <c r="AR10" s="1">
+        <v>-6.0424480794225563E-2</v>
+      </c>
+      <c r="AV10" s="1">
+        <f>2*(1-AM10)*(AK10-AK9)*(1-AP10/3)/(9*AN10*AO10*AM10)</f>
+        <v>0.34964280848271945</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="15"/>
-        <v>-1.4242057141758651E-2</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="16"/>
-        <v>-6.0424480794225563E-2</v>
-      </c>
-      <c r="AT10" s="1">
-        <f t="shared" si="17"/>
-        <v>0.34964280848271945</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="18"/>
         <v>1.8447810443380048</v>
       </c>
-      <c r="AV10">
-        <f t="shared" si="11"/>
+      <c r="AX10">
+        <f>(AS10*X10-4*X10*(1-0.01*P10-2*0.01*AF10)*(0.08/0.4)/(-0.08/0.4*0.01*P10-(2*0.08/0.4+3)*0.01*AF10+0.08/0.4+1))/1000</f>
         <v>2096.6708599958552</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>117.528065302</v>
       </c>
@@ -2250,15 +2337,15 @@
         <v>2.4013414074031125</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>2.6137464712908529</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="5"/>
-        <v>2.6137464712908529</v>
-      </c>
-      <c r="AD11">
+        <v>-0.21240506388774039</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="6"/>
-        <v>-0.21240506388774039</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="7"/>
         <v>8.203357726998961</v>
       </c>
       <c r="AF11">
@@ -2266,19 +2353,19 @@
         <v>-2.100561023996887</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.7920191923307893E-2</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.97281579527473738</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="8"/>
-        <v>-6.7920191923307893E-2</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="8"/>
-        <v>0.97281579527473738</v>
-      </c>
-      <c r="AI11">
+        <v>6.9818142605431524E-2</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="9"/>
-        <v>6.9818142605431524E-2</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="10"/>
         <v>8.7379782310052001E-2</v>
       </c>
       <c r="AK11">
@@ -2294,7 +2381,7 @@
         <v>-0.53574085807809479</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM11*AS11-2*0.33*(1+AM11+AS11))</f>
         <v>-0.42715190892014537</v>
       </c>
       <c r="AO11" s="1">
@@ -2305,31 +2392,39 @@
         <v>1.3253341427608241</v>
       </c>
       <c r="AQ11">
+        <f t="shared" si="10"/>
+        <v>-9.7663731690701416E-2</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="11"/>
+        <v>1.3113228324652066</v>
+      </c>
+      <c r="AS11">
+        <f>(2*AP11+3)/(3-AP11)</f>
+        <v>3.374206419206061</v>
+      </c>
+      <c r="AT11" s="1">
+        <f>(1+2*AM11)*(AK11-AK10)*(1-AP11/3)/(3*AN11*AO11*AM11)</f>
+        <v>-2.5130958517825715E-2</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="14"/>
-        <v>3.374206419206061</v>
-      </c>
-      <c r="AR11" s="1">
+        <v>-8.5555439312051285E-2</v>
+      </c>
+      <c r="AV11" s="1">
+        <f>2*(1-AM11)*(AK11-AK10)*(1-AP11/3)/(9*AN11*AO11*AM11)</f>
+        <v>0.35994882676627671</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="15"/>
-        <v>-2.5130958517825715E-2</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="16"/>
-        <v>-8.5555439312051285E-2</v>
-      </c>
-      <c r="AT11" s="1">
-        <f t="shared" si="17"/>
-        <v>0.35994882676627671</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="18"/>
         <v>2.2047298711042815</v>
       </c>
-      <c r="AV11">
-        <f t="shared" si="11"/>
+      <c r="AX11">
+        <f>(AS11*X11-4*X11*(1-0.01*P11-2*0.01*AF11)*(0.08/0.4)/(-0.08/0.4*0.01*P11-(2*0.08/0.4+3)*0.01*AF11+0.08/0.4+1))/1000</f>
         <v>2492.6820608569533</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136.61812978099999</v>
       </c>
@@ -2416,15 +2511,15 @@
         <v>2.389703347742278</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>2.7536903623769238</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="5"/>
-        <v>2.7536903623769238</v>
-      </c>
-      <c r="AD12">
+        <v>-0.36398701463464578</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="6"/>
-        <v>-0.36398701463464578</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="7"/>
         <v>9.2076430177192403</v>
       </c>
       <c r="AF12">
@@ -2432,19 +2527,19 @@
         <v>-2.6124020524077216</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.15158195074690539</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0042852907202793</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="8"/>
-        <v>-0.15158195074690539</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0042852907202793</v>
-      </c>
-      <c r="AI12">
+        <v>0.15093514975031641</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="9"/>
-        <v>0.15093514975031641</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="10"/>
         <v>9.2534932319434049E-2</v>
       </c>
       <c r="AK12">
@@ -2460,7 +2555,7 @@
         <v>-0.57946562697779014</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM12*AS12-2*0.33*(1+AM12+AS12))</f>
         <v>-0.41100081334224065</v>
       </c>
       <c r="AO12" s="1">
@@ -2471,31 +2566,39 @@
         <v>1.3185995104564832</v>
       </c>
       <c r="AQ12">
+        <f t="shared" si="10"/>
+        <v>-8.9153432811833966E-2</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="11"/>
+        <v>1.3101012843440658</v>
+      </c>
+      <c r="AS12">
+        <f>(2*AP12+3)/(3-AP12)</f>
+        <v>3.3526807301236179</v>
+      </c>
+      <c r="AT12" s="1">
+        <f>(1+2*AM12)*(AK12-AK11)*(1-AP12/3)/(3*AN12*AO12*AM12)</f>
+        <v>-5.4438327525080273E-2</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="14"/>
-        <v>3.3526807301236179</v>
-      </c>
-      <c r="AR12" s="1">
+        <v>-0.13999376683713155</v>
+      </c>
+      <c r="AV12" s="1">
+        <f>2*(1-AM12)*(AK12-AK11)*(1-AP12/3)/(9*AN12*AO12*AM12)</f>
+        <v>0.36067362450121454</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="15"/>
-        <v>-5.4438327525080273E-2</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="16"/>
-        <v>-0.13999376683713155</v>
-      </c>
-      <c r="AT12" s="1">
-        <f t="shared" si="17"/>
-        <v>0.36067362450121454</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="18"/>
         <v>2.5654034956054961</v>
       </c>
-      <c r="AV12">
-        <f t="shared" si="11"/>
+      <c r="AX12">
+        <f>(AS12*X12-4*X12*(1-0.01*P12-2*0.01*AF12)*(0.08/0.4)/(-0.08/0.4*0.01*P12-(2*0.08/0.4+3)*0.01*AF12+0.08/0.4+1))/1000</f>
         <v>2885.3704377407312</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>156.072675395</v>
       </c>
@@ -2582,15 +2685,15 @@
         <v>2.4292901229628905</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>2.8830157949666879</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="5"/>
-        <v>2.8830157949666879</v>
-      </c>
-      <c r="AD13">
+        <v>-0.45372567200379743</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="6"/>
-        <v>-0.45372567200379743</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="7"/>
         <v>10.190712166579036</v>
       </c>
       <c r="AF13">
@@ -2598,19 +2701,19 @@
         <v>-3.0709476474871096</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="7"/>
+        <v>-8.9738657369151653E-2</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.98306914885979602</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="8"/>
-        <v>-8.9738657369151653E-2</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="8"/>
-        <v>0.98306914885979602</v>
-      </c>
-      <c r="AI13">
+        <v>9.1284176167296296E-2</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="9"/>
-        <v>9.1284176167296296E-2</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="10"/>
         <v>9.7700714957167256E-2</v>
       </c>
       <c r="AK13">
@@ -2626,7 +2729,7 @@
         <v>-0.54707447290967115</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM13*AS13-2*0.33*(1+AM13+AS13))</f>
         <v>-0.4310105847439008</v>
       </c>
       <c r="AO13" s="1">
@@ -2637,31 +2740,39 @@
         <v>1.3118749143353376</v>
       </c>
       <c r="AQ13">
+        <f t="shared" si="10"/>
+        <v>-8.2507518707066962E-2</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="11"/>
+        <v>1.3080775400048008</v>
+      </c>
+      <c r="AS13">
+        <f>(2*AP13+3)/(3-AP13)</f>
+        <v>3.3313584854741061</v>
+      </c>
+      <c r="AT13" s="1">
+        <f>(1+2*AM13)*(AK13-AK12)*(1-AP13/3)/(3*AN13*AO13*AM13)</f>
+        <v>-3.3338055474706141E-2</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="14"/>
-        <v>3.3313584854741061</v>
-      </c>
-      <c r="AR13" s="1">
+        <v>-0.17333182231183769</v>
+      </c>
+      <c r="AV13" s="1">
+        <f>2*(1-AM13)*(AK13-AK12)*(1-AP13/3)/(9*AN13*AO13*AM13)</f>
+        <v>0.36521176916366727</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="15"/>
-        <v>-3.3338055474706141E-2</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="16"/>
-        <v>-0.17333182231183769</v>
-      </c>
-      <c r="AT13" s="1">
-        <f t="shared" si="17"/>
-        <v>0.36521176916366727</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="18"/>
         <v>2.9306152647691635</v>
       </c>
-      <c r="AV13">
-        <f t="shared" si="11"/>
+      <c r="AX13">
+        <f>(AS13*X13-4*X13*(1-0.01*P13-2*0.01*AF13)*(0.08/0.4)/(-0.08/0.4*0.01*P13-(2*0.08/0.4+3)*0.01*AF13+0.08/0.4+1))/1000</f>
         <v>3280.3454628033014</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175.754296737</v>
       </c>
@@ -2748,15 +2859,15 @@
         <v>2.4448155478036693</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>3.0031650106759034</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="5"/>
-        <v>3.0031650106759034</v>
-      </c>
-      <c r="AD14">
+        <v>-0.55834946287223408</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="6"/>
-        <v>-0.55834946287223408</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="7"/>
         <v>11.186873665065443</v>
       </c>
       <c r="AF14">
@@ -2764,19 +2875,19 @@
         <v>-3.5560905426963307</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.10462379086843665</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99616149848640667</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="8"/>
-        <v>-0.10462379086843665</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="8"/>
-        <v>0.99616149848640667</v>
-      </c>
-      <c r="AI14">
+        <v>0.10502693692479052</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="9"/>
-        <v>0.10502693692479052</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="10"/>
         <v>0.10250481289776009</v>
       </c>
       <c r="AK14">
@@ -2792,7 +2903,7 @@
         <v>-0.55441860837897994</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM14*AS14-2*0.33*(1+AM14+AS14))</f>
         <v>-0.43179142631545353</v>
       </c>
       <c r="AO14" s="1">
@@ -2803,31 +2914,39 @@
         <v>1.3056427357641143</v>
       </c>
       <c r="AQ14">
+        <f t="shared" si="10"/>
+        <v>-7.688281361434246E-2</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="11"/>
+        <v>1.3058916771368241</v>
+      </c>
+      <c r="AS14">
+        <f>(2*AP14+3)/(3-AP14)</f>
+        <v>3.3117487025729386</v>
+      </c>
+      <c r="AT14" s="1">
+        <f>(1+2*AM14)*(AK14-AK13)*(1-AP14/3)/(3*AN14*AO14*AM14)</f>
+        <v>-3.8629783619999199E-2</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="14"/>
-        <v>3.3117487025729386</v>
-      </c>
-      <c r="AR14" s="1">
+        <v>-0.21196160593183688</v>
+      </c>
+      <c r="AV14" s="1">
+        <f>2*(1-AM14)*(AK14-AK13)*(1-AP14/3)/(9*AN14*AO14*AM14)</f>
+        <v>0.36780834280315966</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="15"/>
-        <v>-3.8629783619999199E-2</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="16"/>
-        <v>-0.21196160593183688</v>
-      </c>
-      <c r="AT14" s="1">
-        <f t="shared" si="17"/>
-        <v>0.36780834280315966</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="18"/>
         <v>3.2984236075723232</v>
       </c>
-      <c r="AV14">
-        <f t="shared" si="11"/>
+      <c r="AX14">
+        <f>(AS14*X14-4*X14*(1-0.01*P14-2*0.01*AF14)*(0.08/0.4)/(-0.08/0.4*0.01*P14-(2*0.08/0.4+3)*0.01*AF14+0.08/0.4+1))/1000</f>
         <v>3680.7455875409596</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195.47018625300001</v>
       </c>
@@ -2914,15 +3033,15 @@
         <v>2.4412501984268697</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>3.1114070546618344</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="5"/>
-        <v>3.1114070546618344</v>
-      </c>
-      <c r="AD15">
+        <v>-0.67015685623496468</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="6"/>
-        <v>-0.67015685623496468</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="7"/>
         <v>12.189923798057709</v>
       </c>
       <c r="AF15">
@@ -2930,19 +3049,19 @@
         <v>-4.0605867336731301</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.1118073933627306</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0030501329922661</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="8"/>
-        <v>-0.1118073933627306</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0030501329922661</v>
-      </c>
-      <c r="AI15">
+        <v>0.11146740295940191</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="9"/>
-        <v>0.11146740295940191</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="10"/>
         <v>0.1111775786795956</v>
       </c>
       <c r="AK15">
@@ -2958,7 +3077,7 @@
         <v>-0.55788444437511497</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM15*AS15-2*0.33*(1+AM15+AS15))</f>
         <v>-0.43808722766206193</v>
       </c>
       <c r="AO15" s="1">
@@ -2969,31 +3088,39 @@
         <v>1.2944448577155609</v>
       </c>
       <c r="AQ15">
+        <f t="shared" si="10"/>
+        <v>-7.7829370367991313E-2</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="11"/>
+        <v>1.3039318769176413</v>
+      </c>
+      <c r="AS15">
+        <f>(2*AP15+3)/(3-AP15)</f>
+        <v>3.2768742428024362</v>
+      </c>
+      <c r="AT15" s="1">
+        <f>(1+2*AM15)*(AK15-AK14)*(1-AP15/3)/(3*AN15*AO15*AM15)</f>
+        <v>-3.9429859032460726E-2</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="14"/>
-        <v>3.2768742428024362</v>
-      </c>
-      <c r="AR15" s="1">
+        <v>-0.2513914649642976</v>
+      </c>
+      <c r="AV15" s="1">
+        <f>2*(1-AM15)*(AK15-AK14)*(1-AP15/3)/(9*AN15*AO15*AM15)</f>
+        <v>0.3537344370248014</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="15"/>
-        <v>-3.9429859032460726E-2</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="16"/>
-        <v>-0.2513914649642976</v>
-      </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="17"/>
-        <v>0.3537344370248014</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="18"/>
         <v>3.6521580445971247</v>
       </c>
-      <c r="AV15">
-        <f t="shared" si="11"/>
+      <c r="AX15">
+        <f>(AS15*X15-4*X15*(1-0.01*P15-2*0.01*AF15)*(0.08/0.4)/(-0.08/0.4*0.01*P15-(2*0.08/0.4+3)*0.01*AF15+0.08/0.4+1))/1000</f>
         <v>4055.5300218515031</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>214.993858558</v>
       </c>
@@ -3080,15 +3207,15 @@
         <v>2.4434713211957559</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>3.2113264877940195</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="5"/>
-        <v>3.2113264877940195</v>
-      </c>
-      <c r="AD16">
+        <v>-0.76785516659826358</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="6"/>
-        <v>-0.76785516659826358</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="7"/>
         <v>13.186169417201416</v>
       </c>
       <c r="AF16">
@@ -3096,19 +3223,19 @@
         <v>-4.5568586076042443</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="7"/>
+        <v>-9.7698310363298901E-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99624561914370702</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="8"/>
-        <v>-9.7698310363298901E-2</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="8"/>
-        <v>0.99624561914370702</v>
-      </c>
-      <c r="AI16">
+        <v>9.8066489313421074E-2</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="9"/>
-        <v>9.8066489313421074E-2</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="10"/>
         <v>0.11868992779484827</v>
       </c>
       <c r="AK16">
@@ -3124,7 +3251,7 @@
         <v>-0.55069024959683821</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM16*AS16-2*0.33*(1+AM16+AS16))</f>
         <v>-0.44885273040804241</v>
       </c>
       <c r="AO16" s="1">
@@ -3135,31 +3262,39 @@
         <v>1.2848007050702608</v>
       </c>
       <c r="AQ16">
+        <f t="shared" si="10"/>
+        <v>-7.8348070535637859E-2</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="11"/>
+        <v>1.3019027547873547</v>
+      </c>
+      <c r="AS16">
+        <f>(2*AP16+3)/(3-AP16)</f>
+        <v>3.2472036495144851</v>
+      </c>
+      <c r="AT16" s="1">
+        <f>(1+2*AM16)*(AK16-AK15)*(1-AP16/3)/(3*AN16*AO16*AM16)</f>
+        <v>-3.3933170568222926E-2</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="14"/>
-        <v>3.2472036495144851</v>
-      </c>
-      <c r="AR16" s="1">
+        <v>-0.28532463553252052</v>
+      </c>
+      <c r="AV16" s="1">
+        <f>2*(1-AM16)*(AK16-AK15)*(1-AP16/3)/(9*AN16*AO16*AM16)</f>
+        <v>0.34602207956861092</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="15"/>
-        <v>-3.3933170568222926E-2</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="16"/>
-        <v>-0.28532463553252052</v>
-      </c>
-      <c r="AT16" s="1">
-        <f t="shared" si="17"/>
-        <v>0.34602207956861092</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="18"/>
         <v>3.9981801241657355</v>
       </c>
-      <c r="AV16">
-        <f t="shared" si="11"/>
+      <c r="AX16">
+        <f>(AS16*X16-4*X16*(1-0.01*P16-2*0.01*AF16)*(0.08/0.4)/(-0.08/0.4*0.01*P16-(2*0.08/0.4+3)*0.01*AF16+0.08/0.4+1))/1000</f>
         <v>4426.2488534488339</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>234.41600230899999</v>
       </c>
@@ -3246,15 +3381,15 @@
         <v>2.364402806097432</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>3.3038815764800109</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="5"/>
-        <v>3.3038815764800109</v>
-      </c>
-      <c r="AD17">
+        <v>-0.93947877038257888</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="6"/>
-        <v>-0.93947877038257888</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="7"/>
         <v>14.215500696200856</v>
       </c>
       <c r="AF17">
@@ -3262,19 +3397,19 @@
         <v>-5.1374146763525683</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.17162360378431529</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0293312789994395</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="8"/>
-        <v>-0.17162360378431529</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0293312789994395</v>
-      </c>
-      <c r="AI17">
+        <v>0.16673310846158473</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="9"/>
-        <v>0.16673310846158473</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="10"/>
         <v>0.12717716271954471</v>
       </c>
       <c r="AK17">
@@ -3290,7 +3425,7 @@
         <v>-0.58827253918058442</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM17*AS17-2*0.33*(1+AM17+AS17))</f>
         <v>-0.43782357574431652</v>
       </c>
       <c r="AO17" s="1">
@@ -3301,31 +3436,39 @@
         <v>1.273967379325063</v>
       </c>
       <c r="AQ17">
+        <f t="shared" si="10"/>
+        <v>-8.1000224638744456E-2</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="11"/>
+        <v>1.3000945244579549</v>
+      </c>
+      <c r="AS17">
+        <f>(2*AP17+3)/(3-AP17)</f>
+        <v>3.2142699345280601</v>
+      </c>
+      <c r="AT17" s="1">
+        <f>(1+2*AM17)*(AK17-AK16)*(1-AP17/3)/(3*AN17*AO17*AM17)</f>
+        <v>-5.6208381841708531E-2</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="14"/>
-        <v>3.2142699345280601</v>
-      </c>
-      <c r="AR17" s="1">
+        <v>-0.34153301737422903</v>
+      </c>
+      <c r="AV17" s="1">
+        <f>2*(1-AM17)*(AK17-AK16)*(1-AP17/3)/(9*AN17*AO17*AM17)</f>
+        <v>0.33711589953748666</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="15"/>
-        <v>-5.6208381841708531E-2</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="16"/>
-        <v>-0.34153301737422903</v>
-      </c>
-      <c r="AT17" s="1">
-        <f t="shared" si="17"/>
-        <v>0.33711589953748666</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="18"/>
         <v>4.3352960237032221</v>
       </c>
-      <c r="AV17">
-        <f t="shared" si="11"/>
+      <c r="AX17">
+        <f>(AS17*X17-4*X17*(1-0.01*P17-2*0.01*AF17)*(0.08/0.4)/(-0.08/0.4*0.01*P17-(2*0.08/0.4+3)*0.01*AF17+0.08/0.4+1))/1000</f>
         <v>4784.2638981297505</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>253.35444194799999</v>
       </c>
@@ -3412,15 +3555,15 @@
         <v>2.3233956477578976</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>3.3884881500284769</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="5"/>
-        <v>3.3884881500284769</v>
-      </c>
-      <c r="AD18">
+        <v>-1.0650925022705793</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="6"/>
-        <v>-1.0650925022705793</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="7"/>
         <v>15.2256821864807</v>
       </c>
       <c r="AF18">
@@ -3428,19 +3571,19 @@
         <v>-5.6766780534421022</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.1256137318880004</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0101814902798445</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="8"/>
-        <v>-0.1256137318880004</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0101814902798445</v>
-      </c>
-      <c r="AI18">
+        <v>0.12434768712026428</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="9"/>
-        <v>0.12434768712026428</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="10"/>
         <v>0.13559838088179227</v>
       </c>
       <c r="AK18">
@@ -3456,7 +3599,7 @@
         <v>-0.56486233744079095</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM18*AS18-2*0.33*(1+AM18+AS18))</f>
         <v>-0.45767815233827447</v>
       </c>
       <c r="AO18" s="1">
@@ -3467,31 +3610,39 @@
         <v>1.2632841496072935</v>
       </c>
       <c r="AQ18">
+        <f t="shared" si="10"/>
+        <v>-8.4421040578937179E-2</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="11"/>
+        <v>1.298313202836358</v>
+      </c>
+      <c r="AS18">
+        <f>(2*AP18+3)/(3-AP18)</f>
+        <v>3.1821948869556973</v>
+      </c>
+      <c r="AT18" s="1">
+        <f>(1+2*AM18)*(AK18-AK17)*(1-AP18/3)/(3*AN18*AO18*AM18)</f>
+        <v>-3.9990615393395663E-2</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="14"/>
-        <v>3.1821948869556973</v>
-      </c>
-      <c r="AR18" s="1">
+        <v>-0.38152363276762469</v>
+      </c>
+      <c r="AV18" s="1">
+        <f>2*(1-AM18)*(AK18-AK17)*(1-AP18/3)/(9*AN18*AO18*AM18)</f>
+        <v>0.3216032104780388</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="15"/>
-        <v>-3.9990615393395663E-2</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="16"/>
-        <v>-0.38152363276762469</v>
-      </c>
-      <c r="AT18" s="1">
-        <f t="shared" si="17"/>
-        <v>0.3216032104780388</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="18"/>
         <v>4.6568992341812612</v>
       </c>
-      <c r="AV18">
-        <f t="shared" si="11"/>
+      <c r="AX18">
+        <f>(AS18*X18-4*X18*(1-0.01*P18-2*0.01*AF18)*(0.08/0.4)/(-0.08/0.4*0.01*P18-(2*0.08/0.4+3)*0.01*AF18+0.08/0.4+1))/1000</f>
         <v>5125.1246043857955</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271.24010243100003</v>
       </c>
@@ -3578,7 +3729,7 @@
         <v>1.4492856262416809</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>252.61299326599999</v>
       </c>
@@ -3665,7 +3816,7 @@
         <v>-1.4682985899516554</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>252.40713851999999</v>
       </c>
@@ -3752,7 +3903,7 @@
         <v>-2.5329629643248808</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>259.70708336000001</v>
       </c>

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t># avgT</t>
   </si>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -185,11 +181,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>dratio_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq-ratioF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>dratio-M</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dratio_pred</t>
+    <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,10 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX22"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1:AS1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3:AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -544,17 +549,17 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="43" max="44" width="10.44140625" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" customWidth="1"/>
-    <col min="47" max="47" width="11.21875" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="1030" width="11.5546875"/>
+    <col min="36" max="37" width="12.88671875" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="44" max="45" width="10.44140625" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="11.21875" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" customWidth="1"/>
+    <col min="52" max="1031" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,73 +645,76 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>45</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>48</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
       </c>
       <c r="AS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" t="s">
         <v>32</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" t="s">
-        <v>38</v>
+      <c r="AY1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21107232507000001</v>
       </c>
@@ -793,7 +801,7 @@
         <v>-2.3963053763509379E-10</v>
       </c>
       <c r="AC2">
-        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <f>1.34 *((AL2/100000)^0.3-(2594/100000)^0.3)</f>
         <v>7.4281330067596614E-3</v>
       </c>
       <c r="AD2">
@@ -808,57 +816,53 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3963053763509379E-10</v>
       </c>
-      <c r="AJ2">
-        <f>(( 1.588*EXP(-0.0005387*4*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>0.22604032590653284</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2740.1550688233333</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3158.8391152150002</v>
       </c>
-      <c r="AM2" s="1">
-        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+      <c r="AN2" s="1">
+        <f>(-2*AJ2-3)/(-2*AJ2+6)</f>
         <v>-0.5</v>
       </c>
-      <c r="AN2">
-        <f>1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
+      <c r="AO2">
+        <f t="shared" ref="AO2:AO18" si="4">1/(2+AN2*AT2-2*0.33*(1+AN2+AT2))</f>
         <v>-0.22624434389140272</v>
       </c>
-      <c r="AO2" s="1" t="e">
-        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+      <c r="AP2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AL2-AL1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AP2">
-        <f>AL2/AK2</f>
+      <c r="AQ2">
+        <f>AM2/AL2</f>
         <v>1.152795749100235</v>
       </c>
-      <c r="AQ2">
-        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
-        <v>-1.0995759540501888</v>
-      </c>
       <c r="AR2">
-        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <f>-1.386/(AE2+1.27)+0.03463</f>
+        <v>-1.0567085826085254</v>
+      </c>
+      <c r="AS2">
+        <f>1.35*(AL2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
         <v>1.1956631205418984</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>5.25</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AY2">
+        <f t="shared" ref="AY2:AY18" si="5">(AT2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>7.8612131113106152</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.6951329181500001</v>
       </c>
@@ -945,15 +949,15 @@
         <v>0.65947632051531757</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.62816806732205577</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="5">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>3.1308253193261804E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="6">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
         <v>0.78844564873822742</v>
       </c>
       <c r="AF3">
@@ -961,78 +965,82 @@
         <v>0.1553407760603176</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="7">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>3.8736386439652E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.78844564865835054</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="8">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
         <v>-4.9130065598773136E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="9">(( 1.588*EXP(-0.0005387*4*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>0.21406816802229264</v>
-      </c>
-      <c r="AK3" s="2">
+        <f>-(1.35-(1.35*(AL3/3255000)^-0.0723))+0.2354+1.382*AR3</f>
+        <v>-0.16648435373008275</v>
+      </c>
+      <c r="AK3">
+        <f>AI3+(1.35-(1.35*(AL3/3255000)^-0.0723))</f>
+        <v>-0.52992024383036329</v>
+      </c>
+      <c r="AL3" s="2">
         <f t="shared" si="2"/>
         <v>48151.410099266672</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AM3" s="2">
         <f t="shared" si="3"/>
         <v>56191.075637300004</v>
       </c>
-      <c r="AM3" s="1">
-        <f>(-2*AI3-3)/(-2*AI3+6)</f>
-        <v>-0.47583077900493309</v>
-      </c>
-      <c r="AN3" s="2">
-        <f>1/(2+AM3*AS3-2*0.33*(1+AM3+AS3))</f>
-        <v>-0.60565745602840182</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP3">
-        <f>AL3/AK3</f>
+      <c r="AN3" s="1">
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.4211344498509999</v>
+      </c>
+      <c r="AO3" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.65443424777227832</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ3">
+        <f>AM3/AL3</f>
         <v>1.1669663571940914</v>
       </c>
-      <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ18" si="10">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
-        <v>-0.66382382103749893</v>
-      </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR18" si="11">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <f t="shared" ref="AR3:AR18" si="11">-1.386/(AE3+1.27)+0.03463</f>
+        <v>-0.63869358318500224</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS18" si="12">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
         <v>1.1920965950465878</v>
       </c>
-      <c r="AS3" s="2">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AT3" s="2">
+        <f>(2*AQ3+3)/(3-AQ3)</f>
         <v>2.9098935174060898</v>
       </c>
-      <c r="AT3" s="2">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.6837803443777769E-3</v>
-      </c>
       <c r="AU3" s="2">
-        <f>(AU2+AT3)</f>
-        <v>2.6837803443777769E-3</v>
+        <f t="shared" ref="AU3:AU18" si="13">(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>1.3233111893664743E-2</v>
       </c>
       <c r="AV3" s="2">
-        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>5.4626028108637412E-2</v>
+        <f>(AV2+AU3)</f>
+        <v>1.3233111893664743E-2</v>
       </c>
       <c r="AW3" s="2">
-        <f>AW2+AV3</f>
-        <v>5.4626028108637412E-2</v>
-      </c>
-      <c r="AX3">
-        <f>(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AW3:AW18" si="14">2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
+        <v>7.9485618901577321E-2</v>
+      </c>
+      <c r="AX3" s="2">
+        <f>AX2+AW3</f>
+        <v>7.9485618901577321E-2</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="5"/>
         <v>66.92944684181353</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10.9153812583</v>
       </c>
@@ -1119,15 +1127,15 @@
         <v>1.1554047074608276</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0343812717757865</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12102343568504104</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6206165472530574</v>
       </c>
       <c r="AF4">
@@ -1135,78 +1143,82 @@
         <v>0.15252898259082759</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.9715182491779233E-2</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.83217089851482995</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.1078086035595493</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="9"/>
-        <v>0.17360843681556012</v>
-      </c>
-      <c r="AK4" s="1">
+        <f t="shared" ref="AJ4:AJ22" si="15">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <v>-3.4576878919942655E-2</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK18" si="16">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <v>-0.4526178563952778</v>
+      </c>
+      <c r="AL4" s="1">
         <f t="shared" si="2"/>
         <v>140023.73074589999</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <f t="shared" si="3"/>
         <v>170253.74244015</v>
       </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.44796561630143339</v>
-      </c>
       <c r="AN4" s="1">
-        <f>1/(2+AM4*AS4-2*0.33*(1+AM4+AS4))</f>
-        <v>-0.57551110608711831</v>
+        <f t="shared" ref="AN4:AN18" si="17">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.48290855020342288</v>
       </c>
       <c r="AO4" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <f t="shared" si="4"/>
+        <v>-0.54917636047771345</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ18" si="18">AM4/AL4</f>
         <v>1.2158920601044989</v>
-      </c>
-      <c r="AQ4">
-        <f t="shared" si="10"/>
-        <v>-0.47891719273122968</v>
       </c>
       <c r="AR4">
         <f t="shared" si="11"/>
+        <v>-0.4448524831806594</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="12"/>
         <v>1.2499567696550691</v>
       </c>
-      <c r="AS4" s="1">
-        <f>(2*AP4+3)/(3-AP4)</f>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT3:AT18" si="19">(2*AQ4+3)/(3-AQ4)</f>
         <v>3.0445378324627312</v>
       </c>
-      <c r="AT4" s="1">
-        <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>1.2718263283537113E-2</v>
-      </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="14">AU3+AT4</f>
-        <v>1.5402043627914889E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.8686131389392663E-3</v>
       </c>
       <c r="AV4" s="1">
-        <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.11797076359042186</v>
+        <f t="shared" ref="AV4:AV18" si="20">AV3+AU4</f>
+        <v>1.910172503260401E-2</v>
       </c>
       <c r="AW4" s="1">
-        <f>AW3+AV4</f>
-        <v>0.17259679169905928</v>
-      </c>
-      <c r="AX4">
-        <f>(AS4*X4-4*X4*(1-0.01*P4-2*0.01*AF4)*(0.08/0.4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+0.08/0.4+1))/1000</f>
+        <f t="shared" si="14"/>
+        <v>0.16972651442968961</v>
+      </c>
+      <c r="AX4" s="1">
+        <f>AX3+AW4</f>
+        <v>0.24921213333126693</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="5"/>
         <v>202.48649776813525</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>21.328496033499999</v>
       </c>
@@ -1293,15 +1305,15 @@
         <v>1.3765066520197045</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3622082097068715</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4298442312832949E-2</v>
       </c>
       <c r="AE5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5471234733867654</v>
       </c>
       <c r="AF5">
@@ -1309,78 +1321,82 @@
         <v>-0.12647286001029556</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.10672499337220809</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.926506926133708</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.11519071294757506</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="9"/>
-        <v>0.14642603867046766</v>
+        <f t="shared" si="15"/>
+        <v>4.6592275712897369E-2</v>
       </c>
       <c r="AK5">
+        <f t="shared" si="16"/>
+        <v>-0.14994799588181601</v>
+      </c>
+      <c r="AL5">
         <f t="shared" si="2"/>
         <v>272538.02467499999</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>340575.82544400002</v>
       </c>
-      <c r="AM5" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.55989514461037659</v>
-      </c>
-      <c r="AN5">
-        <f>1/(2+AM5*AS5-2*0.33*(1+AM5+AS5))</f>
-        <v>-0.47099749183226813</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="13"/>
+      <c r="AN5" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.52366365232765677</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="4"/>
+        <v>-0.49182737558953599</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="18"/>
         <v>1.2496451673124684</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="10"/>
-        <v>-0.3654935415169227</v>
       </c>
       <c r="AR5">
         <f t="shared" si="11"/>
+        <v>-0.32847064624927191</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="12"/>
         <v>1.2866680625801192</v>
       </c>
-      <c r="AS5">
-        <f>(2*AP5+3)/(3-AP5)</f>
+      <c r="AT5">
+        <f t="shared" si="19"/>
         <v>3.1418145806363222</v>
       </c>
-      <c r="AT5" s="1">
-        <f>(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
-        <v>-2.0252802160091395E-2</v>
-      </c>
-      <c r="AU5">
+      <c r="AU5" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.183948923374566E-2</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="20"/>
+        <v>7.2622357988583498E-3</v>
+      </c>
+      <c r="AW5" s="1">
         <f t="shared" si="14"/>
-        <v>-4.8507585321765061E-3</v>
-      </c>
-      <c r="AV5" s="1">
-        <f>2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
-        <v>0.17581974832735653</v>
-      </c>
-      <c r="AW5">
-        <f>AW4+AV5</f>
-        <v>0.34841654002641581</v>
+        <v>0.25410841287729469</v>
       </c>
       <c r="AX5">
-        <f>(AS5*X5-4*X5*(1-0.01*P5-2*0.01*AF5)*(0.08/0.4)/(-0.08/0.4*0.01*P5-(2*0.08/0.4+3)*0.01*AF5+0.08/0.4+1))/1000</f>
+        <f>AX4+AW5</f>
+        <v>0.50332054620856159</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="5"/>
         <v>405.25533765032992</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>33.875225325000002</v>
       </c>
@@ -1467,15 +1483,15 @@
         <v>1.7431384439147379</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6415850589659351</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10155338494880284</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4239152124484211</v>
       </c>
       <c r="AF6">
@@ -1483,78 +1499,82 @@
         <v>-0.25934223629526221</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.725494263596989E-2</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.87679173906165575</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.9516155032836312E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="9"/>
-        <v>0.11867945659437862</v>
+        <f t="shared" si="15"/>
+        <v>8.541538694951295E-2</v>
       </c>
       <c r="AK6">
+        <f t="shared" si="16"/>
+        <v>-0.30974416433533181</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="2"/>
         <v>439740.92971766664</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="3"/>
         <v>564985.352006</v>
       </c>
-      <c r="AM6" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.4518395049153493</v>
-      </c>
-      <c r="AN6">
-        <f>1/(2+AM6*AS6-2*0.33*(1+AM6+AS6))</f>
-        <v>-0.50704775429354421</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="13"/>
+      <c r="AN6" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.5439592934960884</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="4"/>
+        <v>-0.45237871313153155</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="18"/>
         <v>1.2848141117287988</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="10"/>
-        <v>-0.27541389757369683</v>
       </c>
       <c r="AR6">
         <f t="shared" si="11"/>
+        <v>-0.26064589171706409</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="12"/>
         <v>1.2995821175854314</v>
       </c>
-      <c r="AS6">
-        <f>(2*AP6+3)/(3-AP6)</f>
+      <c r="AT6">
+        <f t="shared" si="19"/>
         <v>3.2472446640004891</v>
       </c>
-      <c r="AT6" s="1">
-        <f>(1+2*AM6)*(AK6-AK5)*(1-AP6/3)/(3*AN6*AO6*AM6)</f>
-        <v>2.3176233997141426E-2</v>
-      </c>
-      <c r="AU6">
+      <c r="AU6" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.8461949947155993E-2</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="20"/>
+        <v>-2.1199714148297643E-2</v>
+      </c>
+      <c r="AW6" s="1">
         <f t="shared" si="14"/>
-        <v>1.8325475464964922E-2</v>
-      </c>
-      <c r="AV6" s="1">
-        <f>2*(1-AM6)*(AK6-AK5)*(1-AP6/3)/(9*AN6*AO6*AM6)</f>
-        <v>0.23288916246306157</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" ref="AW6:AW18" si="15">AW5+AV6</f>
-        <v>0.58130570248947744</v>
+        <v>0.33321806484327177</v>
       </c>
       <c r="AX6">
-        <f>(AS6*X6-4*X6*(1-0.01*P6-2*0.01*AF6)*(0.08/0.4)/(-0.08/0.4*0.01*P6-(2*0.08/0.4+3)*0.01*AF6+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
+        <v>0.83653861105183336</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="5"/>
         <v>672.45894328324471</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48.216694473399997</v>
       </c>
@@ -1641,15 +1661,15 @@
         <v>1.869331517916184</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.883206681787722</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3875163871537977E-2</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3781385242079391</v>
       </c>
       <c r="AF7">
@@ -1657,78 +1677,82 @@
         <v>-0.63129299717381615</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.11542854882034081</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.95422331175951802</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12096597033193311</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="9"/>
-        <v>0.1024791183717001</v>
+        <f t="shared" si="15"/>
+        <v>0.11375121946020461</v>
       </c>
       <c r="AK7">
+        <f t="shared" si="16"/>
+        <v>-4.8656373532525513E-2</v>
+      </c>
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>633283.23345866671</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>826862.72724200005</v>
       </c>
-      <c r="AM7" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.56302424828192088</v>
-      </c>
-      <c r="AN7">
-        <f>1/(2+AM7*AS7-2*0.33*(1+AM7+AS7))</f>
-        <v>-0.427554967664664</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="13"/>
+      <c r="AN7" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.5591171593872083</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="4"/>
+        <v>-0.42945742451415964</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="18"/>
         <v>1.3056760128104163</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="10"/>
-        <v>-0.21394633105404237</v>
       </c>
       <c r="AR7">
         <f t="shared" si="11"/>
+        <v>-0.21076058205807094</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="12"/>
         <v>1.3088617618063878</v>
       </c>
-      <c r="AS7">
-        <f>(2*AP7+3)/(3-AP7)</f>
+      <c r="AT7">
+        <f t="shared" si="19"/>
         <v>3.3118530269576829</v>
       </c>
-      <c r="AT7" s="1">
-        <f>(1+2*AM7)*(AK7-AK6)*(1-AP7/3)/(3*AN7*AO7*AM7)</f>
-        <v>-3.3005852696261113E-2</v>
-      </c>
-      <c r="AU7">
+      <c r="AU7" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.4852895245781267E-2</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="20"/>
+        <v>-6.6052609394078907E-2</v>
+      </c>
+      <c r="AW7" s="1">
         <f t="shared" si="14"/>
-        <v>-1.4680377231296192E-2</v>
-      </c>
-      <c r="AV7" s="1">
-        <f>2*(1-AM7)*(AK7-AK6)*(1-AP7/3)/(9*AN7*AO7*AM7)</f>
-        <v>0.2728523782820278</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="15"/>
-        <v>0.85415808077150523</v>
+        <v>0.39430693981678971</v>
       </c>
       <c r="AX7">
-        <f>(AS7*X7-4*X7*(1-0.01*P7-2*0.01*AF7)*(0.08/0.4)/(-0.08/0.4*0.01*P7-(2*0.08/0.4+3)*0.01*AF7+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>1.2308455508686231</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="5"/>
         <v>985.887740696366</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64.043480911700001</v>
       </c>
@@ -1815,15 +1839,15 @@
         <v>2.106716425718147</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0959659402397075</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0750485478439487E-2</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2990118274572842</v>
       </c>
       <c r="AF8">
@@ -1831,78 +1855,82 @@
         <v>-0.893908892296853</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4625649349977463E-2</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.92087330324934502</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.6741625870882232E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="9"/>
-        <v>9.3442935366541746E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.12964066164558649</v>
       </c>
       <c r="AK8">
+        <f t="shared" si="16"/>
+        <v>-0.16471268996780364</v>
+      </c>
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>847290.0021876666</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>1116233.2128185001</v>
       </c>
-      <c r="AM8" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.48674731980309627</v>
-      </c>
-      <c r="AN8">
-        <f>1/(2+AM8*AS8-2*0.33*(1+AM8+AS8))</f>
-        <v>-0.45890377621420786</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="13"/>
+      <c r="AN8" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.56774796098521407</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="4"/>
+        <v>-0.41720383414204887</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="18"/>
         <v>1.317415772564805</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="10"/>
-        <v>-0.17055529153211646</v>
       </c>
       <c r="AR8">
         <f t="shared" si="11"/>
+        <v>-0.17636063853208025</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="12"/>
         <v>1.3116104255648411</v>
       </c>
-      <c r="AS8">
-        <f>(2*AP8+3)/(3-AP8)</f>
+      <c r="AT8">
+        <f t="shared" si="19"/>
         <v>3.348914992338258</v>
       </c>
-      <c r="AT8" s="1">
-        <f>(1+2*AM8)*(AK8-AK7)*(1-AP8/3)/(3*AN8*AO8*AM8)</f>
-        <v>8.2132078657547458E-3</v>
-      </c>
-      <c r="AU8">
+      <c r="AU8" s="1">
+        <f t="shared" si="13"/>
+        <v>-5.72168800514396E-2</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="20"/>
+        <v>-0.12326948944551851</v>
+      </c>
+      <c r="AW8" s="1">
         <f t="shared" si="14"/>
-        <v>-6.4671693655414461E-3</v>
-      </c>
-      <c r="AV8" s="1">
-        <f>2*(1-AM8)*(AK8-AK7)*(1-AP8/3)/(9*AN8*AO8*AM8)</f>
-        <v>0.3071319562023252</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="15"/>
-        <v>1.1612900369738304</v>
+        <v>0.44134979970913707</v>
       </c>
       <c r="AX8">
-        <f>(AS8*X8-4*X8*(1-0.01*P8-2*0.01*AF8)*(0.08/0.4)/(-0.08/0.4*0.01*P8-(2*0.08/0.4+3)*0.01*AF8+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>1.6721953505777603</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="5"/>
         <v>1332.6255506436266</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81.032561823500004</v>
       </c>
@@ -1989,15 +2017,15 @@
         <v>2.1818399647471343</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2875106850711382</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.10567072032400393</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2776536759509556</v>
       </c>
       <c r="AF9">
@@ -2005,78 +2033,82 @@
         <v>-1.3206268673528658</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.11642120580244342</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97864184849367142</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.11896201453232283</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="9"/>
-        <v>8.7186166001058663E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.14164293772304554</v>
       </c>
       <c r="AK9">
+        <f t="shared" si="16"/>
+        <v>6.796617240530628E-3</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>1079249.2642293333</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>1430639.381851</v>
       </c>
-      <c r="AM9" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.56193705973283714</v>
-      </c>
-      <c r="AN9">
-        <f>1/(2+AM9*AS9-2*0.33*(1+AM9+AS9))</f>
-        <v>-0.41439041381819242</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="13"/>
+      <c r="AN9" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.57433095374561782</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="4"/>
+        <v>-0.4086915778392004</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="18"/>
         <v>1.3255875442941221</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="10"/>
-        <v>-0.13657785299767022</v>
       </c>
       <c r="AR9">
         <f t="shared" si="11"/>
+        <v>-0.14900322689489628</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="12"/>
         <v>1.3131621703968959</v>
       </c>
-      <c r="AS9">
-        <f>(2*AP9+3)/(3-AP9)</f>
+      <c r="AT9">
+        <f t="shared" si="19"/>
         <v>3.3750197386138607</v>
       </c>
-      <c r="AT9" s="1">
-        <f>(1+2*AM9)*(AK9-AK8)*(1-AP9/3)/(3*AN9*AO9*AM9)</f>
-        <v>-3.9715254286925468E-2</v>
-      </c>
-      <c r="AU9">
+      <c r="AU9" s="1">
+        <f t="shared" si="13"/>
+        <v>-6.8330319785722834E-2</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="20"/>
+        <v>-0.19159980923124134</v>
+      </c>
+      <c r="AW9" s="1">
         <f t="shared" si="14"/>
-        <v>-4.6182423652466914E-2</v>
-      </c>
-      <c r="AV9" s="1">
-        <f>2*(1-AM9)*(AK9-AK8)*(1-AP9/3)/(9*AN9*AO9*AM9)</f>
-        <v>0.333848198881455</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="15"/>
-        <v>1.4951382358552854</v>
+        <v>0.48241247240528923</v>
       </c>
       <c r="AX9">
-        <f>(AS9*X9-4*X9*(1-0.01*P9-2*0.01*AF9)*(0.08/0.4)/(-0.08/0.4*0.01*P9-(2*0.08/0.4+3)*0.01*AF9+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>2.1546078229830496</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="5"/>
         <v>1708.8414786126064</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>98.931897493400001</v>
       </c>
@@ -2163,15 +2195,15 @@
         <v>2.3141896037873311</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4586744757517636</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.14448487196443249</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2305419317242237</v>
       </c>
       <c r="AF10">
@@ -2179,78 +2211,82 @@
         <v>-1.6867796293726691</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.8814151640428562E-2</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.95288825577326808</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0733161947652412E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="9"/>
-        <v>8.5775942984583076E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.14886033193444792</v>
       </c>
       <c r="AK10">
+        <f t="shared" si="16"/>
+        <v>-5.0201437626560159E-2</v>
+      </c>
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>1321238.2197256668</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>1753856.8368215</v>
       </c>
-      <c r="AM10" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.5206469190732701</v>
-      </c>
-      <c r="AN10">
-        <f>1/(2+AM10*AS10-2*0.33*(1+AM10+AS10))</f>
-        <v>-0.43325935825214856</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="13"/>
+      <c r="AN10" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.57831622575444386</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="4"/>
+        <v>-0.40567920480893627</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="18"/>
         <v>1.3274342284661271</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="10"/>
-        <v>-0.11350037110808553</v>
       </c>
       <c r="AR10">
         <f t="shared" si="11"/>
+        <v>-0.12841842810402654</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="12"/>
         <v>1.3125161714701861</v>
       </c>
-      <c r="AS10">
-        <f>(2*AP10+3)/(3-AP10)</f>
+      <c r="AT10">
+        <f t="shared" si="19"/>
         <v>3.3809543117376486</v>
       </c>
-      <c r="AT10" s="1">
-        <f>(1+2*AM10)*(AK10-AK9)*(1-AP10/3)/(3*AN10*AO10*AM10)</f>
-        <v>-1.4242057141758651E-2</v>
-      </c>
-      <c r="AU10">
+      <c r="AU10" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.5060226515222039E-2</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="20"/>
+        <v>-0.26666003574646335</v>
+      </c>
+      <c r="AW10" s="1">
         <f t="shared" si="14"/>
-        <v>-6.0424480794225563E-2</v>
-      </c>
-      <c r="AV10" s="1">
-        <f>2*(1-AM10)*(AK10-AK9)*(1-AP10/3)/(9*AN10*AO10*AM10)</f>
-        <v>0.34964280848271945</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="15"/>
-        <v>1.8447810443380048</v>
+        <v>0.50423256175644915</v>
       </c>
       <c r="AX10">
-        <f>(AS10*X10-4*X10*(1-0.01*P10-2*0.01*AF10)*(0.08/0.4)/(-0.08/0.4*0.01*P10-(2*0.08/0.4+3)*0.01*AF10+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>2.6588403847394986</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="5"/>
         <v>2096.6708599958552</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>117.528065302</v>
       </c>
@@ -2337,15 +2373,15 @@
         <v>2.4013414074031125</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6137464712908529</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.21240506388774039</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.203357726998961</v>
       </c>
       <c r="AF11">
@@ -2353,78 +2389,82 @@
         <v>-2.100561023996887</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.7920191923307893E-2</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97281579527473738</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.9818142605431524E-2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="9"/>
-        <v>8.7379782310052001E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.15406296642643291</v>
       </c>
       <c r="AK11">
+        <f t="shared" si="16"/>
+        <v>-3.1797318460938667E-3</v>
+      </c>
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>1571170.907324</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>2082326.4475889998</v>
       </c>
-      <c r="AM11" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.53574085807809479</v>
-      </c>
-      <c r="AN11">
-        <f>1/(2+AM11*AS11-2*0.33*(1+AM11+AS11))</f>
-        <v>-0.42715190892014537</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" si="13"/>
+      <c r="AN11" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58120153289177667</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="4"/>
+        <v>-0.4057655769518167</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="18"/>
         <v>1.3253341427608241</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="10"/>
-        <v>-9.7663731690701416E-2</v>
       </c>
       <c r="AR11">
         <f t="shared" si="11"/>
+        <v>-0.11167504198631872</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="12"/>
         <v>1.3113228324652066</v>
       </c>
-      <c r="AS11">
-        <f>(2*AP11+3)/(3-AP11)</f>
+      <c r="AT11">
+        <f t="shared" si="19"/>
         <v>3.374206419206061</v>
       </c>
-      <c r="AT11" s="1">
-        <f>(1+2*AM11)*(AK11-AK10)*(1-AP11/3)/(3*AN11*AO11*AM11)</f>
-        <v>-2.5130958517825715E-2</v>
-      </c>
-      <c r="AU11">
+      <c r="AU11" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.0064684393101909E-2</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="20"/>
+        <v>-0.34672472013956523</v>
+      </c>
+      <c r="AW11" s="1">
         <f t="shared" si="14"/>
-        <v>-8.5555439312051285E-2</v>
-      </c>
-      <c r="AV11" s="1">
-        <f>2*(1-AM11)*(AK11-AK10)*(1-AP11/3)/(9*AN11*AO11*AM11)</f>
-        <v>0.35994882676627671</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="15"/>
-        <v>2.2047298711042815</v>
+        <v>0.51968806164285986</v>
       </c>
       <c r="AX11">
-        <f>(AS11*X11-4*X11*(1-0.01*P11-2*0.01*AF11)*(0.08/0.4)/(-0.08/0.4*0.01*P11-(2*0.08/0.4+3)*0.01*AF11+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>3.1785284463823587</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="5"/>
         <v>2492.6820608569533</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136.61812978099999</v>
       </c>
@@ -2511,15 +2551,15 @@
         <v>2.389703347742278</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7536903623769238</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.36398701463464578</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.2076430177192403</v>
       </c>
       <c r="AF12">
@@ -2527,78 +2567,82 @@
         <v>-2.6124020524077216</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.15158195074690539</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0042852907202793</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.15093514975031641</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="9"/>
-        <v>9.2534932319434049E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.15819835063500168</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="16"/>
+        <v>9.3182206481999375E-2</v>
+      </c>
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>1823574.0032919999</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>2404563.7880220003</v>
       </c>
-      <c r="AM12" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.57946562697779014</v>
-      </c>
-      <c r="AN12">
-        <f>1/(2+AM12*AS12-2*0.33*(1+AM12+AS12))</f>
-        <v>-0.41100081334224065</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="13"/>
+      <c r="AN12" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58350249427349254</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="4"/>
+        <v>-0.40917280246593823</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="18"/>
         <v>1.3185995104564832</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="10"/>
-        <v>-8.9153432811833966E-2</v>
       </c>
       <c r="AR12">
         <f t="shared" si="11"/>
+        <v>-9.7651658924251344E-2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="12"/>
         <v>1.3101012843440658</v>
       </c>
-      <c r="AS12">
-        <f>(2*AP12+3)/(3-AP12)</f>
+      <c r="AT12">
+        <f t="shared" si="19"/>
         <v>3.3526807301236179</v>
       </c>
-      <c r="AT12" s="1">
-        <f>(1+2*AM12)*(AK12-AK11)*(1-AP12/3)/(3*AN12*AO12*AM12)</f>
-        <v>-5.4438327525080273E-2</v>
-      </c>
-      <c r="AU12">
+      <c r="AU12" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.2459997048434111E-2</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="20"/>
+        <v>-0.42918471718799933</v>
+      </c>
+      <c r="AW12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.13999376683713155</v>
-      </c>
-      <c r="AV12" s="1">
-        <f>2*(1-AM12)*(AK12-AK11)*(1-AP12/3)/(9*AN12*AO12*AM12)</f>
-        <v>0.36067362450121454</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="15"/>
-        <v>2.5654034956054961</v>
+        <v>0.52124435379663003</v>
       </c>
       <c r="AX12">
-        <f>(AS12*X12-4*X12*(1-0.01*P12-2*0.01*AF12)*(0.08/0.4)/(-0.08/0.4*0.01*P12-(2*0.08/0.4+3)*0.01*AF12+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>3.6997728001789887</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="5"/>
         <v>2885.3704377407312</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>156.072675395</v>
       </c>
@@ -2685,15 +2729,15 @@
         <v>2.4292901229628905</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8830157949666879</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.45372567200379743</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.190712166579036</v>
       </c>
       <c r="AF13">
@@ -2701,78 +2745,82 @@
         <v>-3.0709476474871096</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8.9738657369151653E-2</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98306914885979602</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.1284176167296296E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="9"/>
-        <v>9.7700714957167256E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.16050907086443611</v>
       </c>
       <c r="AK13">
+        <f t="shared" si="16"/>
+        <v>4.6901743124891773E-2</v>
+      </c>
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>2080882.7730066665</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>2729857.9095800002</v>
       </c>
-      <c r="AM13" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.54707447290967115</v>
-      </c>
-      <c r="AN13">
-        <f>1/(2+AM13*AS13-2*0.33*(1+AM13+AS13))</f>
-        <v>-0.4310105847439008</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="13"/>
+      <c r="AN13" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58479111654353855</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="4"/>
+        <v>-0.41307236706408745</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="18"/>
         <v>1.3118749143353376</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="10"/>
-        <v>-8.2507518707066962E-2</v>
       </c>
       <c r="AR13">
         <f t="shared" si="11"/>
+        <v>-8.6304893037603775E-2</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="12"/>
         <v>1.3080775400048008</v>
       </c>
-      <c r="AS13">
-        <f>(2*AP13+3)/(3-AP13)</f>
+      <c r="AT13">
+        <f t="shared" si="19"/>
         <v>3.3313584854741061</v>
       </c>
-      <c r="AT13" s="1">
-        <f>(1+2*AM13)*(AK13-AK12)*(1-AP13/3)/(3*AN13*AO13*AM13)</f>
-        <v>-3.3338055474706141E-2</v>
-      </c>
-      <c r="AU13">
+      <c r="AU13" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.4705215340067599E-2</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="20"/>
+        <v>-0.51388993252806692</v>
+      </c>
+      <c r="AW13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.17333182231183769</v>
-      </c>
-      <c r="AV13" s="1">
-        <f>2*(1-AM13)*(AK13-AK12)*(1-AP13/3)/(9*AN13*AO13*AM13)</f>
-        <v>0.36521176916366727</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="15"/>
-        <v>2.9306152647691635</v>
+        <v>0.52772852577041285</v>
       </c>
       <c r="AX13">
-        <f>(AS13*X13-4*X13*(1-0.01*P13-2*0.01*AF13)*(0.08/0.4)/(-0.08/0.4*0.01*P13-(2*0.08/0.4+3)*0.01*AF13+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>4.2275013259494019</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="5"/>
         <v>3280.3454628033014</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175.754296737</v>
       </c>
@@ -2859,15 +2907,15 @@
         <v>2.4448155478036693</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0031650106759034</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.55834946287223408</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.186873665065443</v>
       </c>
       <c r="AF14">
@@ -2875,78 +2923,82 @@
         <v>-3.5560905426963307</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.10462379086843665</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99616149848640667</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10502693692479052</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="9"/>
-        <v>0.10250481289776009</v>
+        <f t="shared" si="15"/>
+        <v>0.16201753794052029</v>
       </c>
       <c r="AK14">
+        <f t="shared" si="16"/>
+        <v>7.2501387546333881E-2</v>
+      </c>
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>2341769.3260366665</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>3057514.1093749995</v>
       </c>
-      <c r="AM14" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.55441860837897994</v>
-      </c>
-      <c r="AN14">
-        <f>1/(2+AM14*AS14-2*0.33*(1+AM14+AS14))</f>
-        <v>-0.43179142631545353</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="13"/>
+      <c r="AN14" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58563347735927163</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="4"/>
+        <v>-0.41689127422851496</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="18"/>
         <v>1.3056427357641143</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="10"/>
-        <v>-7.688281361434246E-2</v>
       </c>
       <c r="AR14">
         <f t="shared" si="11"/>
+        <v>-7.6633872241632678E-2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="12"/>
         <v>1.3058916771368241</v>
       </c>
-      <c r="AS14">
-        <f>(2*AP14+3)/(3-AP14)</f>
+      <c r="AT14">
+        <f t="shared" si="19"/>
         <v>3.3117487025729386</v>
       </c>
-      <c r="AT14" s="1">
-        <f>(1+2*AM14)*(AK14-AK13)*(1-AP14/3)/(3*AN14*AO14*AM14)</f>
-        <v>-3.8629783619999199E-2</v>
-      </c>
-      <c r="AU14">
+      <c r="AU14" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.6134881067896657E-2</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="20"/>
+        <v>-0.6000248135959636</v>
+      </c>
+      <c r="AW14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.21196160593183688</v>
-      </c>
-      <c r="AV14" s="1">
-        <f>2*(1-AM14)*(AK14-AK13)*(1-AP14/3)/(9*AN14*AO14*AM14)</f>
-        <v>0.36780834280315966</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="15"/>
-        <v>3.2984236075723232</v>
+        <v>0.53163924204007107</v>
       </c>
       <c r="AX14">
-        <f>(AS14*X14-4*X14*(1-0.01*P14-2*0.01*AF14)*(0.08/0.4)/(-0.08/0.4*0.01*P14-(2*0.08/0.4+3)*0.01*AF14+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>4.7591405679894727</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="5"/>
         <v>3680.7455875409596</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195.47018625300001</v>
       </c>
@@ -3033,15 +3085,15 @@
         <v>2.4412501984268697</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1114070546618344</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.67015685623496468</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.189923798057709</v>
       </c>
       <c r="AF15">
@@ -3049,78 +3101,82 @@
         <v>-4.0605867336731301</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.1118073933627306</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0030501329922661</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.11146740295940191</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="9"/>
-        <v>0.1111775786795956</v>
+        <f t="shared" si="15"/>
+        <v>0.16322509877226327</v>
       </c>
       <c r="AK15">
+        <f t="shared" si="16"/>
+        <v>8.919317487584974E-2</v>
+      </c>
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>2595675.0318933334</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>3359958.1973350001</v>
       </c>
-      <c r="AM15" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.55788444437511497</v>
-      </c>
-      <c r="AN15">
-        <f>1/(2+AM15*AS15-2*0.33*(1+AM15+AS15))</f>
-        <v>-0.43808722766206193</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="13"/>
+      <c r="AN15" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58630845121071495</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="4"/>
+        <v>-0.42426229021045553</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="18"/>
         <v>1.2944448577155609</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="10"/>
-        <v>-7.7829370367991313E-2</v>
       </c>
       <c r="AR15">
         <f t="shared" si="11"/>
+        <v>-6.834235116591092E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="12"/>
         <v>1.3039318769176413</v>
       </c>
-      <c r="AS15">
-        <f>(2*AP15+3)/(3-AP15)</f>
+      <c r="AT15">
+        <f t="shared" si="19"/>
         <v>3.2768742428024362</v>
       </c>
-      <c r="AT15" s="1">
-        <f>(1+2*AM15)*(AK15-AK14)*(1-AP15/3)/(3*AN15*AO15*AM15)</f>
-        <v>-3.9429859032460726E-2</v>
-      </c>
-      <c r="AU15">
+      <c r="AU15" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.3475390181084089E-2</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="20"/>
+        <v>-0.68350020377704768</v>
+      </c>
+      <c r="AW15" s="1">
         <f t="shared" si="14"/>
-        <v>-0.2513914649642976</v>
-      </c>
-      <c r="AV15" s="1">
-        <f>2*(1-AM15)*(AK15-AK14)*(1-AP15/3)/(9*AN15*AO15*AM15)</f>
-        <v>0.3537344370248014</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="15"/>
-        <v>3.6521580445971247</v>
+        <v>0.51141271047752013</v>
       </c>
       <c r="AX15">
-        <f>(AS15*X15-4*X15*(1-0.01*P15-2*0.01*AF15)*(0.08/0.4)/(-0.08/0.4*0.01*P15-(2*0.08/0.4+3)*0.01*AF15+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>5.2705532784669931</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="5"/>
         <v>4055.5300218515031</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>214.993858558</v>
       </c>
@@ -3207,15 +3263,15 @@
         <v>2.4434713211957559</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2113264877940195</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.76785516659826358</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.186169417201416</v>
       </c>
       <c r="AF16">
@@ -3223,78 +3279,82 @@
         <v>-4.5568586076042443</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-9.7698310363298901E-2</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99624561914370702</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.8066489313421074E-2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="9"/>
-        <v>0.11868992779484827</v>
+        <f t="shared" si="15"/>
+        <v>0.16390677483467098</v>
       </c>
       <c r="AK16">
+        <f t="shared" si="16"/>
+        <v>8.4917713707522519E-2</v>
+      </c>
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>2846613.1900200001</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>3657330.6336000003</v>
       </c>
-      <c r="AM16" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.55069024959683821</v>
-      </c>
-      <c r="AN16">
-        <f>1/(2+AM16*AS16-2*0.33*(1+AM16+AS16))</f>
-        <v>-0.44885273040804241</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="13"/>
+      <c r="AN16" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58668973222404353</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="4"/>
+        <v>-0.43084130521279534</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="18"/>
         <v>1.2848007050702608</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="10"/>
-        <v>-7.8348070535637859E-2</v>
       </c>
       <c r="AR16">
         <f t="shared" si="11"/>
+        <v>-6.1246020818543849E-2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="12"/>
         <v>1.3019027547873547</v>
       </c>
-      <c r="AS16">
-        <f>(2*AP16+3)/(3-AP16)</f>
+      <c r="AT16">
+        <f t="shared" si="19"/>
         <v>3.2472036495144851</v>
       </c>
-      <c r="AT16" s="1">
-        <f>(1+2*AM16)*(AK16-AK15)*(1-AP16/3)/(3*AN16*AO16*AM16)</f>
-        <v>-3.3933170568222926E-2</v>
-      </c>
-      <c r="AU16">
+      <c r="AU16" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.2006944596206874E-2</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="20"/>
+        <v>-0.76550714837325451</v>
+      </c>
+      <c r="AW16" s="1">
         <f t="shared" si="14"/>
-        <v>-0.28532463553252052</v>
-      </c>
-      <c r="AV16" s="1">
-        <f>2*(1-AM16)*(AK16-AK15)*(1-AP16/3)/(9*AN16*AO16*AM16)</f>
-        <v>0.34602207956861092</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="15"/>
-        <v>3.9981801241657355</v>
+        <v>0.50032675390584336</v>
       </c>
       <c r="AX16">
-        <f>(AS16*X16-4*X16*(1-0.01*P16-2*0.01*AF16)*(0.08/0.4)/(-0.08/0.4*0.01*P16-(2*0.08/0.4+3)*0.01*AF16+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>5.7708800323728369</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="5"/>
         <v>4426.2488534488339</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>234.41600230899999</v>
       </c>
@@ -3381,15 +3441,15 @@
         <v>2.364402806097432</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3038815764800109</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.93947877038257888</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.215500696200856</v>
       </c>
       <c r="AF17">
@@ -3397,78 +3457,82 @@
         <v>-5.1374146763525683</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.17162360378431529</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0293312789994395</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16673310846158473</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="9"/>
-        <v>0.12717716271954471</v>
+        <f t="shared" si="15"/>
+        <v>0.16453300808671917</v>
       </c>
       <c r="AK17">
+        <f t="shared" si="16"/>
+        <v>0.16176550449777738</v>
+      </c>
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>3093770.9270099998</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>3941363.2401150004</v>
       </c>
-      <c r="AM17" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.58827253918058442</v>
-      </c>
-      <c r="AN17">
-        <f>1/(2+AM17*AS17-2*0.33*(1+AM17+AS17))</f>
-        <v>-0.43782357574431652</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="13"/>
+      <c r="AN17" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58704016404844361</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="4"/>
+        <v>-0.4384278122464762</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="18"/>
         <v>1.273967379325063</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="10"/>
-        <v>-8.1000224638744456E-2</v>
       </c>
       <c r="AR17">
         <f t="shared" si="11"/>
+        <v>-5.4873079505852539E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="12"/>
         <v>1.3000945244579549</v>
       </c>
-      <c r="AS17">
-        <f>(2*AP17+3)/(3-AP17)</f>
+      <c r="AT17">
+        <f t="shared" si="19"/>
         <v>3.2142699345280601</v>
       </c>
-      <c r="AT17" s="1">
-        <f>(1+2*AM17)*(AK17-AK16)*(1-AP17/3)/(3*AN17*AO17*AM17)</f>
-        <v>-5.6208381841708531E-2</v>
-      </c>
-      <c r="AU17">
+      <c r="AU17" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.0150178335294461E-2</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="20"/>
+        <v>-0.84565732670854898</v>
+      </c>
+      <c r="AW17" s="1">
         <f t="shared" si="14"/>
-        <v>-0.34153301737422903</v>
-      </c>
-      <c r="AV17" s="1">
-        <f>2*(1-AM17)*(AK17-AK16)*(1-AP17/3)/(9*AN17*AO17*AM17)</f>
-        <v>0.33711589953748666</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="15"/>
-        <v>4.3352960237032221</v>
+        <v>0.48713737910298383</v>
       </c>
       <c r="AX17">
-        <f>(AS17*X17-4*X17*(1-0.01*P17-2*0.01*AF17)*(0.08/0.4)/(-0.08/0.4*0.01*P17-(2*0.08/0.4+3)*0.01*AF17+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>6.2580174114758211</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="5"/>
         <v>4784.2638981297505</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>253.35444194799999</v>
       </c>
@@ -3555,15 +3619,15 @@
         <v>2.3233956477578976</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3884881500284769</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0650925022705793</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.2256821864807</v>
       </c>
       <c r="AF18">
@@ -3571,78 +3635,82 @@
         <v>-5.6766780534421022</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.1256137318880004</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0101814902798445</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12434768712026428</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="9"/>
-        <v>0.13559838088179227</v>
+        <f t="shared" si="15"/>
+        <v>0.1648454636687067</v>
       </c>
       <c r="AK18">
+        <f t="shared" si="16"/>
+        <v>0.12664249693403368</v>
+      </c>
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>3332502.3303733333</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>4209897.37249</v>
       </c>
-      <c r="AM18" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.56486233744079095</v>
-      </c>
-      <c r="AN18">
-        <f>1/(2+AM18*AS18-2*0.33*(1+AM18+AS18))</f>
-        <v>-0.45767815233827447</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>578039.49484035082</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="13"/>
+      <c r="AN18" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58721506793877509</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="4"/>
+        <v>-0.44616575842685652</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="18"/>
         <v>1.2632841496072935</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="10"/>
-        <v>-8.4421040578937179E-2</v>
       </c>
       <c r="AR18">
         <f t="shared" si="11"/>
+        <v>-4.9391987349872581E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="12"/>
         <v>1.298313202836358</v>
       </c>
-      <c r="AS18">
-        <f>(2*AP18+3)/(3-AP18)</f>
+      <c r="AT18">
+        <f t="shared" si="19"/>
         <v>3.1821948869556973</v>
       </c>
-      <c r="AT18" s="1">
-        <f>(1+2*AM18)*(AK18-AK17)*(1-AP18/3)/(3*AN18*AO18*AM18)</f>
-        <v>-3.9990615393395663E-2</v>
-      </c>
-      <c r="AU18">
+      <c r="AU18" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.6676787573961513E-2</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="20"/>
+        <v>-0.92233411428251055</v>
+      </c>
+      <c r="AW18" s="1">
         <f t="shared" si="14"/>
-        <v>-0.38152363276762469</v>
-      </c>
-      <c r="AV18" s="1">
-        <f>2*(1-AM18)*(AK18-AK17)*(1-AP18/3)/(9*AN18*AO18*AM18)</f>
-        <v>0.3216032104780388</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="15"/>
-        <v>4.6568992341812612</v>
+        <v>0.46514344930995732</v>
       </c>
       <c r="AX18">
-        <f>(AS18*X18-4*X18*(1-0.01*P18-2*0.01*AF18)*(0.08/0.4)/(-0.08/0.4*0.01*P18-(2*0.08/0.4+3)*0.01*AF18+0.08/0.4+1))/1000</f>
+        <f t="shared" si="21"/>
+        <v>6.7231608607857787</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="5"/>
         <v>5125.1246043857955</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271.24010243100003</v>
       </c>
@@ -3729,7 +3797,7 @@
         <v>1.4492856262416809</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>252.61299326599999</v>
       </c>
@@ -3816,7 +3884,7 @@
         <v>-1.4682985899516554</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>252.40713851999999</v>
       </c>
@@ -3903,7 +3971,7 @@
         <v>-2.5329629643248808</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>259.70708336000001</v>
       </c>

--- a/SMP_4PP.xlsx
+++ b/SMP_4PP.xlsx
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AP18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>-0.65443424777227832</v>
       </c>
       <c r="AP3" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ3">
         <f>AM3/AL3</f>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="AU3" s="2">
         <f t="shared" ref="AU3:AU18" si="13">(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
-        <v>1.3233111893664743E-2</v>
+        <v>3.1600724802344528E-2</v>
       </c>
       <c r="AV3" s="2">
         <f>(AV2+AU3)</f>
-        <v>1.3233111893664743E-2</v>
+        <v>3.1600724802344528E-2</v>
       </c>
       <c r="AW3" s="2">
         <f t="shared" ref="AW3:AW18" si="14">2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
-        <v>7.9485618901577321E-2</v>
+        <v>0.18981197989078344</v>
       </c>
       <c r="AX3" s="2">
         <f>AX2+AW3</f>
-        <v>7.9485618901577321E-2</v>
+        <v>0.18981197989078344</v>
       </c>
       <c r="AY3">
         <f t="shared" si="5"/>
@@ -1155,7 +1155,7 @@
         <v>-0.1078086035595493</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ22" si="15">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <f t="shared" ref="AJ4:AJ18" si="15">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
         <v>-3.4576878919942655E-2</v>
       </c>
       <c r="AK4">
@@ -1179,7 +1179,7 @@
         <v>-0.54917636047771345</v>
       </c>
       <c r="AP4" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ4">
         <f t="shared" ref="AQ4:AQ18" si="18">AM4/AL4</f>
@@ -1194,24 +1194,24 @@
         <v>1.2499567696550691</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT3:AT18" si="19">(2*AQ4+3)/(3-AQ4)</f>
+        <f t="shared" ref="AT4:AT18" si="19">(2*AQ4+3)/(3-AQ4)</f>
         <v>3.0445378324627312</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="13"/>
-        <v>5.8686131389392663E-3</v>
+        <v>1.4014271946406425E-2</v>
       </c>
       <c r="AV4" s="1">
         <f t="shared" ref="AV4:AV18" si="20">AV3+AU4</f>
-        <v>1.910172503260401E-2</v>
+        <v>4.5614996748750955E-2</v>
       </c>
       <c r="AW4" s="1">
         <f t="shared" si="14"/>
-        <v>0.16972651442968961</v>
+        <v>0.4053076039296174</v>
       </c>
       <c r="AX4" s="1">
         <f>AX3+AW4</f>
-        <v>0.24921213333126693</v>
+        <v>0.59511958382040087</v>
       </c>
       <c r="AY4">
         <f t="shared" si="5"/>
@@ -1357,7 +1357,7 @@
         <v>-0.49182737558953599</v>
       </c>
       <c r="AP5" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="18"/>
@@ -1377,19 +1377,19 @@
       </c>
       <c r="AU5" s="1">
         <f t="shared" si="13"/>
-        <v>-1.183948923374566E-2</v>
+        <v>-2.827274824563621E-2</v>
       </c>
       <c r="AV5">
         <f t="shared" si="20"/>
-        <v>7.2622357988583498E-3</v>
+        <v>1.7342248503114745E-2</v>
       </c>
       <c r="AW5" s="1">
         <f t="shared" si="14"/>
-        <v>0.25410841287729469</v>
+        <v>0.60681191920853017</v>
       </c>
       <c r="AX5">
         <f>AX4+AW5</f>
-        <v>0.50332054620856159</v>
+        <v>1.201931503028931</v>
       </c>
       <c r="AY5">
         <f t="shared" si="5"/>
@@ -1535,7 +1535,7 @@
         <v>-0.45237871313153155</v>
       </c>
       <c r="AP6" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="18"/>
@@ -1555,19 +1555,19 @@
       </c>
       <c r="AU6" s="1">
         <f t="shared" si="13"/>
-        <v>-2.8461949947155993E-2</v>
+        <v>-6.7967251757976202E-2</v>
       </c>
       <c r="AV6">
         <f t="shared" si="20"/>
-        <v>-2.1199714148297643E-2</v>
+        <v>-5.0625003254861453E-2</v>
       </c>
       <c r="AW6" s="1">
         <f t="shared" si="14"/>
-        <v>0.33321806484327177</v>
+        <v>0.79572608853425886</v>
       </c>
       <c r="AX6">
         <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
-        <v>0.83653861105183336</v>
+        <v>1.9976575915631898</v>
       </c>
       <c r="AY6">
         <f t="shared" si="5"/>
@@ -1713,7 +1713,7 @@
         <v>-0.42945742451415964</v>
       </c>
       <c r="AP7" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="18"/>
@@ -1733,19 +1733,19 @@
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="13"/>
-        <v>-4.4852895245781267E-2</v>
+        <v>-0.10710889552206411</v>
       </c>
       <c r="AV7">
         <f t="shared" si="20"/>
-        <v>-6.6052609394078907E-2</v>
+        <v>-0.15773389877692556</v>
       </c>
       <c r="AW7" s="1">
         <f t="shared" si="14"/>
-        <v>0.39430693981678971</v>
+        <v>0.94160656940944598</v>
       </c>
       <c r="AX7">
         <f t="shared" si="21"/>
-        <v>1.2308455508686231</v>
+        <v>2.9392641609726358</v>
       </c>
       <c r="AY7">
         <f t="shared" si="5"/>
@@ -1891,7 +1891,7 @@
         <v>-0.41720383414204887</v>
       </c>
       <c r="AP8" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="18"/>
@@ -1911,19 +1911,19 @@
       </c>
       <c r="AU8" s="1">
         <f t="shared" si="13"/>
-        <v>-5.72168800514396E-2</v>
+        <v>-0.1366341413178794</v>
       </c>
       <c r="AV8">
         <f t="shared" si="20"/>
-        <v>-0.12326948944551851</v>
+        <v>-0.29436804009480499</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" si="14"/>
-        <v>0.44134979970913707</v>
+        <v>1.0539451093778878</v>
       </c>
       <c r="AX8">
         <f t="shared" si="21"/>
-        <v>1.6721953505777603</v>
+        <v>3.9932092703505235</v>
       </c>
       <c r="AY8">
         <f t="shared" si="5"/>
@@ -2069,7 +2069,7 @@
         <v>-0.4086915778392004</v>
       </c>
       <c r="AP9" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="18"/>
@@ -2089,19 +2089,19 @@
       </c>
       <c r="AU9" s="1">
         <f t="shared" si="13"/>
-        <v>-6.8330319785722834E-2</v>
+        <v>-0.16317308041796033</v>
       </c>
       <c r="AV9">
         <f t="shared" si="20"/>
-        <v>-0.19159980923124134</v>
+        <v>-0.4575411205127653</v>
       </c>
       <c r="AW9" s="1">
         <f t="shared" si="14"/>
-        <v>0.48241247240528923</v>
+        <v>1.1520029380992691</v>
       </c>
       <c r="AX9">
         <f t="shared" si="21"/>
-        <v>2.1546078229830496</v>
+        <v>5.1452122084497924</v>
       </c>
       <c r="AY9">
         <f t="shared" si="5"/>
@@ -2247,7 +2247,7 @@
         <v>-0.40567920480893627</v>
       </c>
       <c r="AP10" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="18"/>
@@ -2267,19 +2267,19 @@
       </c>
       <c r="AU10" s="1">
         <f t="shared" si="13"/>
-        <v>-7.5060226515222039E-2</v>
+        <v>-0.17924412494726452</v>
       </c>
       <c r="AV10">
         <f t="shared" si="20"/>
-        <v>-0.26666003574646335</v>
+        <v>-0.63678524546002979</v>
       </c>
       <c r="AW10" s="1">
         <f t="shared" si="14"/>
-        <v>0.50423256175644915</v>
+        <v>1.2041093998513746</v>
       </c>
       <c r="AX10">
         <f t="shared" si="21"/>
-        <v>2.6588403847394986</v>
+        <v>6.3493216083011674</v>
       </c>
       <c r="AY10">
         <f t="shared" si="5"/>
@@ -2425,7 +2425,7 @@
         <v>-0.4057655769518167</v>
       </c>
       <c r="AP11" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="18"/>
@@ -2445,19 +2445,19 @@
       </c>
       <c r="AU11" s="1">
         <f t="shared" si="13"/>
-        <v>-8.0064684393101909E-2</v>
+        <v>-0.19119479063002939</v>
       </c>
       <c r="AV11">
         <f t="shared" si="20"/>
-        <v>-0.34672472013956523</v>
+        <v>-0.82798003609005921</v>
       </c>
       <c r="AW11" s="1">
         <f t="shared" si="14"/>
-        <v>0.51968806164285986</v>
+        <v>1.2410171961821042</v>
       </c>
       <c r="AX11">
         <f t="shared" si="21"/>
-        <v>3.1785284463823587</v>
+        <v>7.590338804483272</v>
       </c>
       <c r="AY11">
         <f t="shared" si="5"/>
@@ -2603,7 +2603,7 @@
         <v>-0.40917280246593823</v>
       </c>
       <c r="AP12" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="18"/>
@@ -2623,19 +2623,19 @@
       </c>
       <c r="AU12" s="1">
         <f t="shared" si="13"/>
-        <v>-8.2459997048434111E-2</v>
+        <v>-0.19691480695309577</v>
       </c>
       <c r="AV12">
         <f t="shared" si="20"/>
-        <v>-0.42918471718799933</v>
+        <v>-1.024894843043155</v>
       </c>
       <c r="AW12" s="1">
         <f t="shared" si="14"/>
-        <v>0.52124435379663003</v>
+        <v>1.244733628149016</v>
       </c>
       <c r="AX12">
         <f t="shared" si="21"/>
-        <v>3.6997728001789887</v>
+        <v>8.8350724326322876</v>
       </c>
       <c r="AY12">
         <f t="shared" si="5"/>
@@ -2781,7 +2781,7 @@
         <v>-0.41307236706408745</v>
       </c>
       <c r="AP13" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="18"/>
@@ -2801,19 +2801,19 @@
       </c>
       <c r="AU13" s="1">
         <f t="shared" si="13"/>
-        <v>-8.4705215340067599E-2</v>
+        <v>-0.20227639732769742</v>
       </c>
       <c r="AV13">
         <f t="shared" si="20"/>
-        <v>-0.51388993252806692</v>
+        <v>-1.2271712403708523</v>
       </c>
       <c r="AW13" s="1">
         <f t="shared" si="14"/>
-        <v>0.52772852577041285</v>
+        <v>1.2602178570863294</v>
       </c>
       <c r="AX13">
         <f t="shared" si="21"/>
-        <v>4.2275013259494019</v>
+        <v>10.095290289718617</v>
       </c>
       <c r="AY13">
         <f t="shared" si="5"/>
@@ -2959,7 +2959,7 @@
         <v>-0.41689127422851496</v>
       </c>
       <c r="AP14" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="18"/>
@@ -2979,19 +2979,19 @@
       </c>
       <c r="AU14" s="1">
         <f t="shared" si="13"/>
-        <v>-8.6134881067896657E-2</v>
+        <v>-0.20569044487656604</v>
       </c>
       <c r="AV14">
         <f t="shared" si="20"/>
-        <v>-0.6000248135959636</v>
+        <v>-1.4328616852474183</v>
       </c>
       <c r="AW14" s="1">
         <f t="shared" si="14"/>
-        <v>0.53163924204007107</v>
+        <v>1.2695566633784974</v>
       </c>
       <c r="AX14">
         <f t="shared" si="21"/>
-        <v>4.7591405679894727</v>
+        <v>11.364846953097114</v>
       </c>
       <c r="AY14">
         <f t="shared" si="5"/>
@@ -3137,7 +3137,7 @@
         <v>-0.42426229021045553</v>
       </c>
       <c r="AP15" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="18"/>
@@ -3157,19 +3157,19 @@
       </c>
       <c r="AU15" s="1">
         <f t="shared" si="13"/>
-        <v>-8.3475390181084089E-2</v>
+        <v>-0.1993395698666795</v>
       </c>
       <c r="AV15">
         <f t="shared" si="20"/>
-        <v>-0.68350020377704768</v>
+        <v>-1.6322012551140979</v>
       </c>
       <c r="AW15" s="1">
         <f t="shared" si="14"/>
-        <v>0.51141271047752013</v>
+        <v>1.2212556240802421</v>
       </c>
       <c r="AX15">
         <f t="shared" si="21"/>
-        <v>5.2705532784669931</v>
+        <v>12.586102577177357</v>
       </c>
       <c r="AY15">
         <f t="shared" si="5"/>
@@ -3315,7 +3315,7 @@
         <v>-0.43084130521279534</v>
       </c>
       <c r="AP16" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="18"/>
@@ -3335,19 +3335,19 @@
       </c>
       <c r="AU16" s="1">
         <f t="shared" si="13"/>
-        <v>-8.2006944596206874E-2</v>
+        <v>-0.19583291586210344</v>
       </c>
       <c r="AV16">
         <f t="shared" si="20"/>
-        <v>-0.76550714837325451</v>
+        <v>-1.8280341709762014</v>
       </c>
       <c r="AW16" s="1">
         <f t="shared" si="14"/>
-        <v>0.50032675390584336</v>
+        <v>1.1947823148837851</v>
       </c>
       <c r="AX16">
         <f t="shared" si="21"/>
-        <v>5.7708800323728369</v>
+        <v>13.780884892061142</v>
       </c>
       <c r="AY16">
         <f t="shared" si="5"/>
@@ -3493,7 +3493,7 @@
         <v>-0.4384278122464762</v>
       </c>
       <c r="AP17" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="18"/>
@@ -3513,19 +3513,19 @@
       </c>
       <c r="AU17" s="1">
         <f t="shared" si="13"/>
-        <v>-8.0150178335294461E-2</v>
+        <v>-0.19139895051027553</v>
       </c>
       <c r="AV17">
         <f t="shared" si="20"/>
-        <v>-0.84565732670854898</v>
+        <v>-2.0194331214864767</v>
       </c>
       <c r="AW17" s="1">
         <f t="shared" si="14"/>
-        <v>0.48713737910298383</v>
+        <v>1.1632860344314391</v>
       </c>
       <c r="AX17">
         <f t="shared" si="21"/>
-        <v>6.2580174114758211</v>
+        <v>14.94417092649258</v>
       </c>
       <c r="AY17">
         <f t="shared" si="5"/>
@@ -3671,7 +3671,7 @@
         <v>-0.44616575842685652</v>
       </c>
       <c r="AP18" s="3">
-        <v>400000</v>
+        <v>167503.903488732</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="18"/>
@@ -3691,19 +3691,19 @@
       </c>
       <c r="AU18" s="1">
         <f t="shared" si="13"/>
-        <v>-7.6676787573961513E-2</v>
+        <v>-0.18310447930336041</v>
       </c>
       <c r="AV18">
         <f t="shared" si="20"/>
-        <v>-0.92233411428251055</v>
+        <v>-2.202537600789837</v>
       </c>
       <c r="AW18" s="1">
         <f t="shared" si="14"/>
-        <v>0.46514344930995732</v>
+        <v>1.1107644410000213</v>
       </c>
       <c r="AX18">
         <f t="shared" si="21"/>
-        <v>6.7231608607857787</v>
+        <v>16.0549353674926</v>
       </c>
       <c r="AY18">
         <f t="shared" si="5"/>
@@ -4056,6 +4056,12 @@
       <c r="AB22">
         <f t="shared" si="0"/>
         <v>-2.7382770215223173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f>MIN(W2:W22)</f>
+        <v>4.2257824171199996</v>
       </c>
     </row>
   </sheetData>
